--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78E43248-3257-4DB2-A8F1-8F574E47B80E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6684CFBA-BEA6-48B7-8F22-CD6A384456F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="387">
   <si>
     <t>Hôtel</t>
   </si>
@@ -38052,8 +38052,8 @@
   </sheetPr>
   <dimension ref="A1:EK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
@@ -48189,10 +48189,10 @@
   <dimension ref="A2:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48599,9 +48599,7 @@
       <c r="J9" s="128"/>
       <c r="K9" s="128"/>
       <c r="L9" s="128"/>
-      <c r="M9" s="128" t="s">
-        <v>162</v>
-      </c>
+      <c r="M9" s="128"/>
       <c r="N9" s="128"/>
       <c r="O9" s="128"/>
       <c r="P9" s="128"/>
@@ -48847,9 +48845,7 @@
       <c r="L15" s="128"/>
       <c r="M15" s="128"/>
       <c r="N15" s="128"/>
-      <c r="O15" s="128" t="s">
-        <v>162</v>
-      </c>
+      <c r="O15" s="128"/>
       <c r="P15" s="128"/>
       <c r="Q15" s="128"/>
       <c r="R15" s="128"/>
@@ -49237,8 +49233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F66C91-4BF6-4937-8467-CCC69562F4F2}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6684CFBA-BEA6-48B7-8F22-CD6A384456F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE06F6BC-417A-49D9-B8A4-77351E8F5CCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="381">
   <si>
     <t>Hôtel</t>
   </si>
@@ -687,45 +687,6 @@
     <t>Location de biens résidentiels (longue durée)</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
     <t xml:space="preserve">     </t>
   </si>
   <si>
@@ -1186,6 +1147,27 @@
   </si>
   <si>
     <t>xx</t>
+  </si>
+  <si>
+    <t>Prestation de Transport</t>
+  </si>
+  <si>
+    <t>Prix de Location ( Véhicule )</t>
+  </si>
+  <si>
+    <t>Nombre Locataires / Espace</t>
+  </si>
+  <si>
+    <t>Nombre Consommable santé</t>
+  </si>
+  <si>
+    <t>Prix consommable santé</t>
+  </si>
+  <si>
+    <t>Nbr Type Conso Santé</t>
+  </si>
+  <si>
+    <t>Conso</t>
   </si>
 </sst>
 </file>
@@ -1712,9 +1694,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1804,6 +1783,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2129,11 +2111,11 @@
   <dimension ref="A1:FE231"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3294,7 +3276,7 @@
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -3660,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="22">
         <v>2</v>
@@ -5166,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="22">
         <v>1</v>
@@ -5764,7 +5746,7 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
@@ -5940,7 +5922,7 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
@@ -17570,7 +17552,9 @@
       <c r="FE89" s="37"/>
     </row>
     <row r="90" spans="2:161" x14ac:dyDescent="0.25">
-      <c r="C90" s="38"/>
+      <c r="C90" s="31" t="s">
+        <v>374</v>
+      </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
@@ -17580,7 +17564,9 @@
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
+      <c r="M90" s="23">
+        <v>2</v>
+      </c>
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
       <c r="P90" s="23"/>
@@ -38050,13 +38036,13 @@
   <sheetPr codeName="Feuille3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:EK52"/>
+  <dimension ref="A1:EL52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P36" sqref="P36"/>
+      <selection pane="bottomRight" activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38066,431 +38052,451 @@
     <col min="3" max="3" width="56.85546875" style="45" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="44" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="59.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="53.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="51.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="47.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="41.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="38.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="49" style="43" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="39" style="43" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="53.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="59.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="61.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="35.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="63.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="22.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="48.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="44.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="46.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="51" style="43" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="44.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="52.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="37.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="25.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="25" style="43" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="49.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="48.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="58.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43.140625" style="43" customWidth="1"/>
-    <col min="56" max="56" width="57.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="34" style="43" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="33.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="34" style="43" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="35.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="34" style="43" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="54.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="41.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="44.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="34.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="41.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="53.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="38.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="40.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="41.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="30" style="43" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="44" style="43" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="37.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="43" style="43" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="51.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="46" style="43" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="51.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="39.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="32.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="43.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="27.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="33.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="39.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="44.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="24.85546875" style="43" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="30.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="10.85546875" style="43"/>
+    <col min="6" max="6" width="25.85546875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="59.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="47.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="49" style="43" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="39" style="43" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="53.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="59.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="61.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="63.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="43.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="44.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="46.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="51" style="43" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="44.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="52.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="37.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="25.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="25" style="43" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="49.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="48.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="58.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="43.140625" style="43" customWidth="1"/>
+    <col min="57" max="57" width="57.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="34" style="43" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="33.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="34" style="43" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="35.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="31.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="34" style="43" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="54.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="41.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="44.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="34.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="41.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="53.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="38.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="40.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="41.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="30" style="43" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="44" style="43" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="37.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="43" style="43" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="51.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="46" style="43" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="51.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="39.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="32.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="43.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="27.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="33.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="39.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="44.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="24.85546875" style="43" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="30.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="10.85546875" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:141" x14ac:dyDescent="0.25">
-      <c r="B1" s="100"/>
+    <row r="1" spans="1:142" x14ac:dyDescent="0.25">
+      <c r="B1" s="99"/>
       <c r="C1" s="69" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" s="99">
+        <v>220</v>
+      </c>
+      <c r="D1" s="98">
         <v>1</v>
       </c>
-      <c r="E1" s="99">
-        <f t="shared" ref="E1:AJ1" si="0">1+D1</f>
+      <c r="E1" s="98">
+        <f t="shared" ref="E1" si="0">1+D1</f>
         <v>2</v>
       </c>
-      <c r="F1" s="99">
-        <f t="shared" si="0"/>
+      <c r="F1" s="98">
+        <f>E1+1</f>
         <v>3</v>
       </c>
-      <c r="G1" s="99">
-        <f t="shared" si="0"/>
+      <c r="G1" s="98">
+        <f t="shared" ref="G1:BR1" si="1">F1+1</f>
         <v>4</v>
       </c>
-      <c r="H1" s="99">
-        <f t="shared" si="0"/>
+      <c r="H1" s="98">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I1" s="99">
-        <f t="shared" si="0"/>
+      <c r="I1" s="98">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J1" s="99">
-        <f t="shared" si="0"/>
+      <c r="J1" s="98">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K1" s="99">
-        <f t="shared" si="0"/>
+      <c r="K1" s="98">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L1" s="99">
-        <f t="shared" si="0"/>
+      <c r="L1" s="98">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M1" s="99">
-        <f t="shared" si="0"/>
+      <c r="M1" s="98">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N1" s="99">
-        <f t="shared" si="0"/>
+      <c r="N1" s="98">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O1" s="99">
-        <f t="shared" si="0"/>
+      <c r="O1" s="98">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P1" s="99">
-        <f t="shared" si="0"/>
+      <c r="P1" s="98">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="Q1" s="99">
-        <f t="shared" si="0"/>
+      <c r="Q1" s="98">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R1" s="99">
-        <f t="shared" si="0"/>
+      <c r="R1" s="98">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="S1" s="99">
-        <f t="shared" si="0"/>
+      <c r="S1" s="98">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="T1" s="99">
-        <f t="shared" si="0"/>
+      <c r="T1" s="98">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="U1" s="99">
-        <f t="shared" si="0"/>
+      <c r="U1" s="98">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="V1" s="99">
-        <f t="shared" si="0"/>
+      <c r="V1" s="98">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="W1" s="99">
-        <f t="shared" si="0"/>
+      <c r="W1" s="98">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="X1" s="99">
-        <f t="shared" si="0"/>
+      <c r="X1" s="98">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="Y1" s="99">
-        <f t="shared" si="0"/>
+      <c r="Y1" s="98">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="Z1" s="99">
-        <f t="shared" si="0"/>
+      <c r="Z1" s="98">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AA1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AA1" s="98">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AB1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AB1" s="98">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="AC1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AC1" s="98">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="AD1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AD1" s="98">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="AE1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AE1" s="98">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="AF1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AF1" s="98">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="AG1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AG1" s="98">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="AH1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AH1" s="98">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="AI1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AI1" s="98">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="AJ1" s="99">
-        <f t="shared" si="0"/>
+      <c r="AJ1" s="98">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AK1" s="99">
-        <f t="shared" ref="AK1:BP1" si="1">1+AJ1</f>
+      <c r="AK1" s="98">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AL1" s="99">
+      <c r="AL1" s="98">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AM1" s="99">
+      <c r="AM1" s="98">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AN1" s="99">
+      <c r="AN1" s="98">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AO1" s="99">
+      <c r="AO1" s="98">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AP1" s="99">
+      <c r="AP1" s="98">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AQ1" s="99">
+      <c r="AQ1" s="98">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AR1" s="99">
+      <c r="AR1" s="98">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AS1" s="99">
+      <c r="AS1" s="98">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AT1" s="99">
+      <c r="AT1" s="98">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AU1" s="99">
+      <c r="AU1" s="98">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AV1" s="99">
+      <c r="AV1" s="98">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AW1" s="99">
+      <c r="AW1" s="98">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AX1" s="99">
+      <c r="AX1" s="98">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AY1" s="99">
+      <c r="AY1" s="98">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AZ1" s="99">
+      <c r="AZ1" s="98">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="BA1" s="99">
+      <c r="BA1" s="98">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="BB1" s="99">
+      <c r="BB1" s="98">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="BC1" s="99">
+      <c r="BC1" s="98">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="BD1" s="99">
+      <c r="BD1" s="98">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="BE1" s="99">
+      <c r="BE1" s="98">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="BF1" s="99">
+      <c r="BF1" s="98">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="BG1" s="99">
+      <c r="BG1" s="98">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="BH1" s="99">
+      <c r="BH1" s="98">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="BI1" s="99">
+      <c r="BI1" s="98">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="BJ1" s="99">
+      <c r="BJ1" s="98">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="BK1" s="99">
+      <c r="BK1" s="98">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="BL1" s="99">
+      <c r="BL1" s="98">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="BM1" s="99">
+      <c r="BM1" s="98">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="BN1" s="99">
+      <c r="BN1" s="98">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="BO1" s="99">
+      <c r="BO1" s="98">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="BP1" s="99">
+      <c r="BP1" s="98">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BQ1" s="99">
-        <f t="shared" ref="BQ1:BV1" si="2">1+BP1</f>
+      <c r="BQ1" s="98">
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="BR1" s="99">
-        <f t="shared" si="2"/>
+      <c r="BR1" s="98">
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="BS1" s="99">
-        <f t="shared" si="2"/>
+      <c r="BS1" s="98">
+        <f t="shared" ref="BS1:CM1" si="2">BR1+1</f>
         <v>68</v>
       </c>
-      <c r="BT1" s="99">
+      <c r="BT1" s="98">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="BU1" s="99">
+      <c r="BU1" s="98">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="BV1" s="99">
+      <c r="BV1" s="98">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="BW1" s="98" t="s">
-        <v>232</v>
-      </c>
-      <c r="BX1" s="98" t="s">
-        <v>231</v>
-      </c>
-      <c r="BY1" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="BZ1" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA1" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="CB1" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="CC1" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="CD1" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE1" s="98" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF1" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="CG1" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="CH1" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="CI1" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ1" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="CK1" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="CL1" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM1" s="97"/>
+      <c r="BW1" s="98">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="BX1" s="98">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="BY1" s="98">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="BZ1" s="98">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="CA1" s="98">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="CB1" s="98">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="CC1" s="98">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="CD1" s="98">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="CE1" s="98">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="CF1" s="98">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="CG1" s="98">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="CH1" s="98">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="CI1" s="98">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="CJ1" s="98">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="CK1" s="98">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="CL1" s="98">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="CM1" s="98">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
       <c r="CN1" s="97"/>
       <c r="CO1" s="97"/>
       <c r="CP1" s="97"/>
@@ -38514,8 +38520,9 @@
       <c r="DH1" s="97"/>
       <c r="DI1" s="97"/>
       <c r="DJ1" s="97"/>
+      <c r="DK1" s="97"/>
     </row>
-    <row r="2" spans="1:141" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:142" s="89" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="96"/>
       <c r="C2" s="95"/>
       <c r="D2" s="94" t="s">
@@ -38524,262 +38531,264 @@
       <c r="E2" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="93" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="H2" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="I2" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="J2" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="K2" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="L2" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="M2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="N2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="77" t="s">
+      <c r="O2" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="77" t="s">
+      <c r="P2" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="77" t="s">
+      <c r="Q2" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="77" t="s">
+      <c r="R2" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="77" t="s">
+      <c r="S2" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="T2" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="U2" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="77" t="s">
+      <c r="V2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="77" t="s">
+      <c r="W2" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="77" t="s">
+      <c r="X2" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="77" t="s">
+      <c r="Y2" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="77" t="s">
+      <c r="Z2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="77" t="s">
+      <c r="AA2" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="77" t="s">
+      <c r="AB2" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" s="77" t="s">
+      <c r="AC2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" s="77" t="s">
+      <c r="AD2" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" s="77" t="s">
+      <c r="AE2" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="AE2" s="77" t="s">
+      <c r="AF2" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="AF2" s="77" t="s">
+      <c r="AG2" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="AG2" s="77" t="s">
+      <c r="AH2" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="AH2" s="77" t="s">
+      <c r="AI2" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="AI2" s="77" t="s">
+      <c r="AJ2" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="AJ2" s="77" t="s">
+      <c r="AK2" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="AK2" s="77" t="s">
+      <c r="AL2" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="AL2" s="77" t="s">
+      <c r="AM2" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="AM2" s="77" t="s">
+      <c r="AN2" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="AN2" s="77" t="s">
+      <c r="AO2" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="AO2" s="77" t="s">
+      <c r="AP2" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="AP2" s="77" t="s">
+      <c r="AQ2" s="77" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" s="77" t="s">
+      <c r="AR2" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" s="77" t="s">
+      <c r="AS2" s="77" t="s">
         <v>218</v>
       </c>
-      <c r="AS2" s="77" t="s">
+      <c r="AT2" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="AT2" s="77" t="s">
+      <c r="AU2" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="AU2" s="77" t="s">
+      <c r="AV2" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="AV2" s="77" t="s">
+      <c r="AW2" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="AW2" s="77" t="s">
+      <c r="AX2" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="AX2" s="77" t="s">
+      <c r="AY2" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="AY2" s="77" t="s">
+      <c r="AZ2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="AZ2" s="77" t="s">
+      <c r="BA2" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="BA2" s="77" t="s">
+      <c r="BB2" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="BB2" s="77" t="s">
+      <c r="BC2" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="BC2" s="77" t="s">
+      <c r="BD2" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="BD2" s="77" t="s">
+      <c r="BE2" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="BE2" s="77" t="s">
+      <c r="BF2" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="BF2" s="77" t="s">
+      <c r="BG2" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="BG2" s="92" t="s">
+      <c r="BH2" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="BH2" s="77" t="s">
+      <c r="BI2" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="BI2" s="77" t="s">
+      <c r="BJ2" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="BJ2" s="77" t="s">
+      <c r="BK2" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="BK2" s="77" t="s">
+      <c r="BL2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="BL2" s="77" t="s">
+      <c r="BM2" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="BM2" s="77" t="s">
+      <c r="BN2" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="BN2" s="77" t="s">
+      <c r="BO2" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="BO2" s="37" t="s">
+      <c r="BP2" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="BP2" s="37" t="s">
+      <c r="BQ2" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="BQ2" s="37" t="s">
+      <c r="BR2" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="BR2" s="37" t="s">
+      <c r="BS2" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="BS2" s="37" t="s">
+      <c r="BT2" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="BT2" s="37" t="s">
+      <c r="BU2" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="BU2" s="37" t="s">
+      <c r="BV2" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="BV2" s="37" t="s">
+      <c r="BW2" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="BW2" s="37" t="s">
+      <c r="BX2" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="BX2" s="37" t="s">
+      <c r="BY2" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="BY2" s="37" t="s">
+      <c r="BZ2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="BZ2" s="37" t="s">
+      <c r="CA2" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="CA2" s="37" t="s">
+      <c r="CB2" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="CB2" s="37" t="s">
+      <c r="CC2" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="CC2" s="37" t="s">
+      <c r="CD2" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="CD2" s="37" t="s">
+      <c r="CE2" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="CE2" s="37" t="s">
+      <c r="CF2" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="CF2" s="37" t="s">
+      <c r="CG2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="CG2" s="37" t="s">
+      <c r="CH2" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="CH2" s="37" t="s">
+      <c r="CI2" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="CI2" s="37" t="s">
+      <c r="CJ2" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="CJ2" s="37" t="s">
+      <c r="CK2" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="CK2" s="37" t="s">
+      <c r="CL2" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="CL2" s="37" t="s">
+      <c r="CM2" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="CM2" s="91"/>
       <c r="CN2" s="91"/>
       <c r="CO2" s="91"/>
       <c r="CP2" s="91"/>
@@ -38803,15 +38812,16 @@
       <c r="DH2" s="91"/>
       <c r="DI2" s="91"/>
       <c r="DJ2" s="91"/>
-      <c r="DK2" s="90"/>
+      <c r="DK2" s="91"/>
       <c r="DL2" s="90"/>
       <c r="DM2" s="90"/>
       <c r="DN2" s="90"/>
       <c r="DO2" s="90"/>
       <c r="DP2" s="90"/>
       <c r="DQ2" s="90"/>
+      <c r="DR2" s="90"/>
     </row>
-    <row r="3" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139" t="s">
         <v>209</v>
       </c>
@@ -38823,7 +38833,7 @@
         <v>162</v>
       </c>
       <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
@@ -38876,8 +38886,8 @@
       <c r="BD3" s="52"/>
       <c r="BE3" s="52"/>
       <c r="BF3" s="52"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="52"/>
+      <c r="BG3" s="52"/>
+      <c r="BH3" s="84"/>
       <c r="BI3" s="52"/>
       <c r="BJ3" s="52"/>
       <c r="BK3" s="52"/>
@@ -38900,7 +38910,7 @@
       <c r="CB3" s="52"/>
       <c r="CC3" s="52"/>
       <c r="CD3" s="52"/>
-      <c r="CE3" s="77"/>
+      <c r="CE3" s="52"/>
       <c r="CF3" s="77"/>
       <c r="CG3" s="77"/>
       <c r="CH3" s="77"/>
@@ -38932,15 +38942,16 @@
       <c r="DH3" s="77"/>
       <c r="DI3" s="77"/>
       <c r="DJ3" s="77"/>
-      <c r="DK3" s="76"/>
+      <c r="DK3" s="77"/>
       <c r="DL3" s="76"/>
       <c r="DM3" s="76"/>
       <c r="DN3" s="76"/>
       <c r="DO3" s="76"/>
       <c r="DP3" s="76"/>
       <c r="DQ3" s="76"/>
+      <c r="DR3" s="76"/>
     </row>
-    <row r="4" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="140"/>
       <c r="B4" s="131"/>
       <c r="C4" s="86" t="s">
@@ -38950,7 +38961,7 @@
         <v>162</v>
       </c>
       <c r="E4" s="50"/>
-      <c r="F4" s="52"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -39003,8 +39014,8 @@
       <c r="BD4" s="52"/>
       <c r="BE4" s="52"/>
       <c r="BF4" s="52"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="52"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="84"/>
       <c r="BI4" s="52"/>
       <c r="BJ4" s="52"/>
       <c r="BK4" s="52"/>
@@ -39059,14 +39070,14 @@
       <c r="DH4" s="52"/>
       <c r="DI4" s="52"/>
       <c r="DJ4" s="52"/>
-      <c r="DK4" s="62"/>
+      <c r="DK4" s="52"/>
       <c r="DL4" s="62"/>
       <c r="DM4" s="62"/>
       <c r="DN4" s="62"/>
       <c r="DO4" s="62"/>
       <c r="DP4" s="62"/>
       <c r="DQ4" s="62"/>
-      <c r="DR4" s="44"/>
+      <c r="DR4" s="62"/>
       <c r="DS4" s="44"/>
       <c r="DT4" s="44"/>
       <c r="DU4" s="44"/>
@@ -39086,8 +39097,9 @@
       <c r="EI4" s="44"/>
       <c r="EJ4" s="44"/>
       <c r="EK4" s="44"/>
+      <c r="EL4" s="44"/>
     </row>
-    <row r="5" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="140"/>
       <c r="B5" s="131"/>
       <c r="C5" s="86" t="s">
@@ -39097,7 +39109,7 @@
         <v>162</v>
       </c>
       <c r="E5" s="50"/>
-      <c r="F5" s="52"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
@@ -39150,8 +39162,8 @@
       <c r="BD5" s="52"/>
       <c r="BE5" s="52"/>
       <c r="BF5" s="52"/>
-      <c r="BG5" s="84"/>
-      <c r="BH5" s="52"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="84"/>
       <c r="BI5" s="52"/>
       <c r="BJ5" s="52"/>
       <c r="BK5" s="52"/>
@@ -39206,14 +39218,14 @@
       <c r="DH5" s="52"/>
       <c r="DI5" s="52"/>
       <c r="DJ5" s="52"/>
-      <c r="DK5" s="62"/>
+      <c r="DK5" s="52"/>
       <c r="DL5" s="62"/>
       <c r="DM5" s="62"/>
       <c r="DN5" s="62"/>
       <c r="DO5" s="62"/>
       <c r="DP5" s="62"/>
       <c r="DQ5" s="62"/>
-      <c r="DR5" s="44"/>
+      <c r="DR5" s="62"/>
       <c r="DS5" s="44"/>
       <c r="DT5" s="44"/>
       <c r="DU5" s="44"/>
@@ -39233,8 +39245,9 @@
       <c r="EI5" s="44"/>
       <c r="EJ5" s="44"/>
       <c r="EK5" s="44"/>
+      <c r="EL5" s="44"/>
     </row>
-    <row r="6" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="140"/>
       <c r="B6" s="131"/>
       <c r="C6" s="86" t="s">
@@ -39244,7 +39257,7 @@
         <v>162</v>
       </c>
       <c r="E6" s="50"/>
-      <c r="F6" s="52"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
@@ -39297,8 +39310,8 @@
       <c r="BD6" s="52"/>
       <c r="BE6" s="52"/>
       <c r="BF6" s="52"/>
-      <c r="BG6" s="84"/>
-      <c r="BH6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="84"/>
       <c r="BI6" s="52"/>
       <c r="BJ6" s="52"/>
       <c r="BK6" s="52"/>
@@ -39353,14 +39366,14 @@
       <c r="DH6" s="52"/>
       <c r="DI6" s="52"/>
       <c r="DJ6" s="52"/>
-      <c r="DK6" s="62"/>
+      <c r="DK6" s="52"/>
       <c r="DL6" s="62"/>
       <c r="DM6" s="62"/>
       <c r="DN6" s="62"/>
       <c r="DO6" s="62"/>
       <c r="DP6" s="62"/>
       <c r="DQ6" s="62"/>
-      <c r="DR6" s="44"/>
+      <c r="DR6" s="62"/>
       <c r="DS6" s="44"/>
       <c r="DT6" s="44"/>
       <c r="DU6" s="44"/>
@@ -39380,8 +39393,9 @@
       <c r="EI6" s="44"/>
       <c r="EJ6" s="44"/>
       <c r="EK6" s="44"/>
+      <c r="EL6" s="44"/>
     </row>
-    <row r="7" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="140"/>
       <c r="B7" s="131"/>
       <c r="C7" s="88" t="s">
@@ -39391,7 +39405,7 @@
         <v>162</v>
       </c>
       <c r="E7" s="50"/>
-      <c r="F7" s="52"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
@@ -39444,8 +39458,8 @@
       <c r="BD7" s="52"/>
       <c r="BE7" s="52"/>
       <c r="BF7" s="52"/>
-      <c r="BG7" s="84"/>
-      <c r="BH7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="84"/>
       <c r="BI7" s="52"/>
       <c r="BJ7" s="52"/>
       <c r="BK7" s="52"/>
@@ -39500,14 +39514,14 @@
       <c r="DH7" s="52"/>
       <c r="DI7" s="52"/>
       <c r="DJ7" s="52"/>
-      <c r="DK7" s="62"/>
+      <c r="DK7" s="52"/>
       <c r="DL7" s="62"/>
       <c r="DM7" s="62"/>
       <c r="DN7" s="62"/>
       <c r="DO7" s="62"/>
       <c r="DP7" s="62"/>
       <c r="DQ7" s="62"/>
-      <c r="DR7" s="44"/>
+      <c r="DR7" s="62"/>
       <c r="DS7" s="44"/>
       <c r="DT7" s="44"/>
       <c r="DU7" s="44"/>
@@ -39527,8 +39541,9 @@
       <c r="EI7" s="44"/>
       <c r="EJ7" s="44"/>
       <c r="EK7" s="44"/>
+      <c r="EL7" s="44"/>
     </row>
-    <row r="8" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="140"/>
       <c r="B8" s="131"/>
       <c r="C8" s="88" t="s">
@@ -39536,7 +39551,7 @@
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="52"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
@@ -39589,8 +39604,8 @@
       <c r="BD8" s="52"/>
       <c r="BE8" s="52"/>
       <c r="BF8" s="52"/>
-      <c r="BG8" s="84"/>
-      <c r="BH8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="84"/>
       <c r="BI8" s="52"/>
       <c r="BJ8" s="52"/>
       <c r="BK8" s="52"/>
@@ -39645,14 +39660,14 @@
       <c r="DH8" s="52"/>
       <c r="DI8" s="52"/>
       <c r="DJ8" s="52"/>
-      <c r="DK8" s="62"/>
+      <c r="DK8" s="52"/>
       <c r="DL8" s="62"/>
       <c r="DM8" s="62"/>
       <c r="DN8" s="62"/>
       <c r="DO8" s="62"/>
       <c r="DP8" s="62"/>
       <c r="DQ8" s="62"/>
-      <c r="DR8" s="44"/>
+      <c r="DR8" s="62"/>
       <c r="DS8" s="44"/>
       <c r="DT8" s="44"/>
       <c r="DU8" s="44"/>
@@ -39672,8 +39687,9 @@
       <c r="EI8" s="44"/>
       <c r="EJ8" s="44"/>
       <c r="EK8" s="44"/>
+      <c r="EL8" s="44"/>
     </row>
-    <row r="9" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="140"/>
       <c r="B9" s="131"/>
       <c r="C9" s="88" t="s">
@@ -39681,7 +39697,7 @@
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="50"/>
-      <c r="F9" s="52"/>
+      <c r="F9" s="50"/>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
@@ -39734,8 +39750,8 @@
       <c r="BD9" s="52"/>
       <c r="BE9" s="52"/>
       <c r="BF9" s="52"/>
-      <c r="BG9" s="84"/>
-      <c r="BH9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="84"/>
       <c r="BI9" s="52"/>
       <c r="BJ9" s="52"/>
       <c r="BK9" s="52"/>
@@ -39790,14 +39806,14 @@
       <c r="DH9" s="52"/>
       <c r="DI9" s="52"/>
       <c r="DJ9" s="52"/>
-      <c r="DK9" s="62"/>
+      <c r="DK9" s="52"/>
       <c r="DL9" s="62"/>
       <c r="DM9" s="62"/>
       <c r="DN9" s="62"/>
       <c r="DO9" s="62"/>
       <c r="DP9" s="62"/>
       <c r="DQ9" s="62"/>
-      <c r="DR9" s="44"/>
+      <c r="DR9" s="62"/>
       <c r="DS9" s="44"/>
       <c r="DT9" s="44"/>
       <c r="DU9" s="44"/>
@@ -39817,8 +39833,9 @@
       <c r="EI9" s="44"/>
       <c r="EJ9" s="44"/>
       <c r="EK9" s="44"/>
+      <c r="EL9" s="44"/>
     </row>
-    <row r="10" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="140"/>
       <c r="B10" s="131"/>
       <c r="C10" s="88" t="s">
@@ -39826,7 +39843,7 @@
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="50"/>
-      <c r="F10" s="52"/>
+      <c r="F10" s="50"/>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
@@ -39879,8 +39896,8 @@
       <c r="BD10" s="52"/>
       <c r="BE10" s="52"/>
       <c r="BF10" s="52"/>
-      <c r="BG10" s="84"/>
-      <c r="BH10" s="52"/>
+      <c r="BG10" s="52"/>
+      <c r="BH10" s="84"/>
       <c r="BI10" s="52"/>
       <c r="BJ10" s="52"/>
       <c r="BK10" s="52"/>
@@ -39935,14 +39952,14 @@
       <c r="DH10" s="52"/>
       <c r="DI10" s="52"/>
       <c r="DJ10" s="52"/>
-      <c r="DK10" s="62"/>
+      <c r="DK10" s="52"/>
       <c r="DL10" s="62"/>
       <c r="DM10" s="62"/>
       <c r="DN10" s="62"/>
       <c r="DO10" s="62"/>
       <c r="DP10" s="62"/>
       <c r="DQ10" s="62"/>
-      <c r="DR10" s="44"/>
+      <c r="DR10" s="62"/>
       <c r="DS10" s="44"/>
       <c r="DT10" s="44"/>
       <c r="DU10" s="44"/>
@@ -39962,8 +39979,9 @@
       <c r="EI10" s="44"/>
       <c r="EJ10" s="44"/>
       <c r="EK10" s="44"/>
+      <c r="EL10" s="44"/>
     </row>
-    <row r="11" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="140"/>
       <c r="B11" s="131"/>
       <c r="C11" s="87" t="s">
@@ -39971,7 +39989,7 @@
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="52"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="52"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
@@ -40024,8 +40042,8 @@
       <c r="BD11" s="52"/>
       <c r="BE11" s="52"/>
       <c r="BF11" s="52"/>
-      <c r="BG11" s="84"/>
-      <c r="BH11" s="52"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="84"/>
       <c r="BI11" s="52"/>
       <c r="BJ11" s="52"/>
       <c r="BK11" s="52"/>
@@ -40080,14 +40098,14 @@
       <c r="DH11" s="52"/>
       <c r="DI11" s="52"/>
       <c r="DJ11" s="52"/>
-      <c r="DK11" s="62"/>
+      <c r="DK11" s="52"/>
       <c r="DL11" s="62"/>
       <c r="DM11" s="62"/>
       <c r="DN11" s="62"/>
       <c r="DO11" s="62"/>
       <c r="DP11" s="62"/>
       <c r="DQ11" s="62"/>
-      <c r="DR11" s="44"/>
+      <c r="DR11" s="62"/>
       <c r="DS11" s="44"/>
       <c r="DT11" s="44"/>
       <c r="DU11" s="44"/>
@@ -40107,8 +40125,9 @@
       <c r="EI11" s="44"/>
       <c r="EJ11" s="44"/>
       <c r="EK11" s="44"/>
+      <c r="EL11" s="44"/>
     </row>
-    <row r="12" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="140"/>
       <c r="B12" s="131"/>
       <c r="C12" s="86" t="s">
@@ -40118,7 +40137,7 @@
         <v>162</v>
       </c>
       <c r="E12" s="50"/>
-      <c r="F12" s="52"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
@@ -40171,8 +40190,8 @@
       <c r="BD12" s="52"/>
       <c r="BE12" s="52"/>
       <c r="BF12" s="52"/>
-      <c r="BG12" s="84"/>
-      <c r="BH12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="84"/>
       <c r="BI12" s="52"/>
       <c r="BJ12" s="52"/>
       <c r="BK12" s="52"/>
@@ -40227,14 +40246,14 @@
       <c r="DH12" s="52"/>
       <c r="DI12" s="52"/>
       <c r="DJ12" s="52"/>
-      <c r="DK12" s="62"/>
+      <c r="DK12" s="52"/>
       <c r="DL12" s="62"/>
       <c r="DM12" s="62"/>
       <c r="DN12" s="62"/>
       <c r="DO12" s="62"/>
       <c r="DP12" s="62"/>
       <c r="DQ12" s="62"/>
-      <c r="DR12" s="44"/>
+      <c r="DR12" s="62"/>
       <c r="DS12" s="44"/>
       <c r="DT12" s="44"/>
       <c r="DU12" s="44"/>
@@ -40254,8 +40273,9 @@
       <c r="EI12" s="44"/>
       <c r="EJ12" s="44"/>
       <c r="EK12" s="44"/>
+      <c r="EL12" s="44"/>
     </row>
-    <row r="13" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="140"/>
       <c r="B13" s="131"/>
       <c r="C13" s="86" t="s">
@@ -40265,7 +40285,7 @@
         <v>162</v>
       </c>
       <c r="E13" s="50"/>
-      <c r="F13" s="52"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
@@ -40318,17 +40338,17 @@
       <c r="BD13" s="52"/>
       <c r="BE13" s="52"/>
       <c r="BF13" s="52"/>
-      <c r="BG13" s="84"/>
-      <c r="BH13" s="52"/>
+      <c r="BG13" s="52"/>
+      <c r="BH13" s="84"/>
       <c r="BI13" s="52"/>
       <c r="BJ13" s="52"/>
       <c r="BK13" s="52"/>
       <c r="BL13" s="52"/>
       <c r="BM13" s="52"/>
-      <c r="BN13" s="52" t="s">
+      <c r="BN13" s="52"/>
+      <c r="BO13" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="BO13" s="52"/>
       <c r="BP13" s="52"/>
       <c r="BQ13" s="52"/>
       <c r="BR13" s="52"/>
@@ -40376,14 +40396,14 @@
       <c r="DH13" s="52"/>
       <c r="DI13" s="52"/>
       <c r="DJ13" s="52"/>
-      <c r="DK13" s="62"/>
+      <c r="DK13" s="52"/>
       <c r="DL13" s="62"/>
       <c r="DM13" s="62"/>
       <c r="DN13" s="62"/>
       <c r="DO13" s="62"/>
       <c r="DP13" s="62"/>
       <c r="DQ13" s="62"/>
-      <c r="DR13" s="44"/>
+      <c r="DR13" s="62"/>
       <c r="DS13" s="44"/>
       <c r="DT13" s="44"/>
       <c r="DU13" s="44"/>
@@ -40403,8 +40423,9 @@
       <c r="EI13" s="44"/>
       <c r="EJ13" s="44"/>
       <c r="EK13" s="44"/>
+      <c r="EL13" s="44"/>
     </row>
-    <row r="14" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="140"/>
       <c r="B14" s="131"/>
       <c r="C14" s="86" t="s">
@@ -40412,7 +40433,7 @@
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="52"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -40465,8 +40486,8 @@
       <c r="BD14" s="52"/>
       <c r="BE14" s="52"/>
       <c r="BF14" s="52"/>
-      <c r="BG14" s="84"/>
-      <c r="BH14" s="52"/>
+      <c r="BG14" s="52"/>
+      <c r="BH14" s="84"/>
       <c r="BI14" s="52"/>
       <c r="BJ14" s="52"/>
       <c r="BK14" s="52"/>
@@ -40521,14 +40542,14 @@
       <c r="DH14" s="52"/>
       <c r="DI14" s="52"/>
       <c r="DJ14" s="52"/>
-      <c r="DK14" s="62"/>
+      <c r="DK14" s="52"/>
       <c r="DL14" s="62"/>
       <c r="DM14" s="62"/>
       <c r="DN14" s="62"/>
       <c r="DO14" s="62"/>
       <c r="DP14" s="62"/>
       <c r="DQ14" s="62"/>
-      <c r="DR14" s="44"/>
+      <c r="DR14" s="62"/>
       <c r="DS14" s="44"/>
       <c r="DT14" s="44"/>
       <c r="DU14" s="44"/>
@@ -40548,8 +40569,9 @@
       <c r="EI14" s="44"/>
       <c r="EJ14" s="44"/>
       <c r="EK14" s="44"/>
+      <c r="EL14" s="44"/>
     </row>
-    <row r="15" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="140"/>
       <c r="B15" s="131"/>
       <c r="C15" s="86" t="s">
@@ -40557,7 +40579,7 @@
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="52"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -40610,8 +40632,8 @@
       <c r="BD15" s="52"/>
       <c r="BE15" s="52"/>
       <c r="BF15" s="52"/>
-      <c r="BG15" s="84"/>
-      <c r="BH15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="84"/>
       <c r="BI15" s="52"/>
       <c r="BJ15" s="52"/>
       <c r="BK15" s="52"/>
@@ -40666,14 +40688,14 @@
       <c r="DH15" s="52"/>
       <c r="DI15" s="52"/>
       <c r="DJ15" s="52"/>
-      <c r="DK15" s="62"/>
+      <c r="DK15" s="52"/>
       <c r="DL15" s="62"/>
       <c r="DM15" s="62"/>
       <c r="DN15" s="62"/>
       <c r="DO15" s="62"/>
       <c r="DP15" s="62"/>
       <c r="DQ15" s="62"/>
-      <c r="DR15" s="44"/>
+      <c r="DR15" s="62"/>
       <c r="DS15" s="44"/>
       <c r="DT15" s="44"/>
       <c r="DU15" s="44"/>
@@ -40693,8 +40715,9 @@
       <c r="EI15" s="44"/>
       <c r="EJ15" s="44"/>
       <c r="EK15" s="44"/>
+      <c r="EL15" s="44"/>
     </row>
-    <row r="16" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="140"/>
       <c r="B16" s="131"/>
       <c r="C16" s="86" t="s">
@@ -40704,7 +40727,7 @@
         <v>162</v>
       </c>
       <c r="E16" s="50"/>
-      <c r="F16" s="52"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -40757,8 +40780,8 @@
       <c r="BD16" s="52"/>
       <c r="BE16" s="52"/>
       <c r="BF16" s="52"/>
-      <c r="BG16" s="84"/>
-      <c r="BH16" s="52"/>
+      <c r="BG16" s="52"/>
+      <c r="BH16" s="84"/>
       <c r="BI16" s="52"/>
       <c r="BJ16" s="52"/>
       <c r="BK16" s="52"/>
@@ -40813,14 +40836,14 @@
       <c r="DH16" s="52"/>
       <c r="DI16" s="52"/>
       <c r="DJ16" s="52"/>
-      <c r="DK16" s="62"/>
+      <c r="DK16" s="52"/>
       <c r="DL16" s="62"/>
       <c r="DM16" s="62"/>
       <c r="DN16" s="62"/>
       <c r="DO16" s="62"/>
       <c r="DP16" s="62"/>
       <c r="DQ16" s="62"/>
-      <c r="DR16" s="44"/>
+      <c r="DR16" s="62"/>
       <c r="DS16" s="44"/>
       <c r="DT16" s="44"/>
       <c r="DU16" s="44"/>
@@ -40840,8 +40863,9 @@
       <c r="EI16" s="44"/>
       <c r="EJ16" s="44"/>
       <c r="EK16" s="44"/>
+      <c r="EL16" s="44"/>
     </row>
-    <row r="17" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="140"/>
       <c r="B17" s="131"/>
       <c r="C17" s="85" t="s">
@@ -40849,7 +40873,7 @@
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="50"/>
-      <c r="F17" s="52"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -40902,8 +40926,8 @@
       <c r="BD17" s="52"/>
       <c r="BE17" s="52"/>
       <c r="BF17" s="52"/>
-      <c r="BG17" s="84"/>
-      <c r="BH17" s="52"/>
+      <c r="BG17" s="52"/>
+      <c r="BH17" s="84"/>
       <c r="BI17" s="52"/>
       <c r="BJ17" s="52"/>
       <c r="BK17" s="52"/>
@@ -40958,14 +40982,14 @@
       <c r="DH17" s="52"/>
       <c r="DI17" s="52"/>
       <c r="DJ17" s="52"/>
-      <c r="DK17" s="62"/>
+      <c r="DK17" s="52"/>
       <c r="DL17" s="62"/>
       <c r="DM17" s="62"/>
       <c r="DN17" s="62"/>
       <c r="DO17" s="62"/>
       <c r="DP17" s="62"/>
       <c r="DQ17" s="62"/>
-      <c r="DR17" s="44"/>
+      <c r="DR17" s="62"/>
       <c r="DS17" s="44"/>
       <c r="DT17" s="44"/>
       <c r="DU17" s="44"/>
@@ -40985,8 +41009,9 @@
       <c r="EI17" s="44"/>
       <c r="EJ17" s="44"/>
       <c r="EK17" s="44"/>
+      <c r="EL17" s="44"/>
     </row>
-    <row r="18" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="140"/>
       <c r="B18" s="131"/>
       <c r="C18" s="85" t="s">
@@ -40996,7 +41021,7 @@
         <v>162</v>
       </c>
       <c r="E18" s="50"/>
-      <c r="F18" s="52"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
@@ -41049,8 +41074,8 @@
       <c r="BD18" s="52"/>
       <c r="BE18" s="52"/>
       <c r="BF18" s="52"/>
-      <c r="BG18" s="84"/>
-      <c r="BH18" s="52"/>
+      <c r="BG18" s="52"/>
+      <c r="BH18" s="84"/>
       <c r="BI18" s="52"/>
       <c r="BJ18" s="52"/>
       <c r="BK18" s="52"/>
@@ -41105,14 +41130,14 @@
       <c r="DH18" s="52"/>
       <c r="DI18" s="52"/>
       <c r="DJ18" s="52"/>
-      <c r="DK18" s="62"/>
+      <c r="DK18" s="52"/>
       <c r="DL18" s="62"/>
       <c r="DM18" s="62"/>
       <c r="DN18" s="62"/>
       <c r="DO18" s="62"/>
       <c r="DP18" s="62"/>
       <c r="DQ18" s="62"/>
-      <c r="DR18" s="44"/>
+      <c r="DR18" s="62"/>
       <c r="DS18" s="44"/>
       <c r="DT18" s="44"/>
       <c r="DU18" s="44"/>
@@ -41132,8 +41157,9 @@
       <c r="EI18" s="44"/>
       <c r="EJ18" s="44"/>
       <c r="EK18" s="44"/>
+      <c r="EL18" s="44"/>
     </row>
-    <row r="19" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="140"/>
       <c r="B19" s="131"/>
       <c r="C19" s="44" t="s">
@@ -41143,7 +41169,7 @@
         <v>162</v>
       </c>
       <c r="E19" s="50"/>
-      <c r="F19" s="52"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -41196,8 +41222,8 @@
       <c r="BD19" s="52"/>
       <c r="BE19" s="52"/>
       <c r="BF19" s="52"/>
-      <c r="BG19" s="84"/>
-      <c r="BH19" s="52"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="84"/>
       <c r="BI19" s="52"/>
       <c r="BJ19" s="52"/>
       <c r="BK19" s="52"/>
@@ -41252,23 +41278,24 @@
       <c r="DH19" s="52"/>
       <c r="DI19" s="52"/>
       <c r="DJ19" s="52"/>
-      <c r="DK19" s="62"/>
+      <c r="DK19" s="52"/>
       <c r="DL19" s="62"/>
       <c r="DM19" s="62"/>
       <c r="DN19" s="62"/>
       <c r="DO19" s="62"/>
       <c r="DP19" s="62"/>
       <c r="DQ19" s="62"/>
+      <c r="DR19" s="62"/>
     </row>
-    <row r="20" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="140"/>
       <c r="B20" s="131"/>
       <c r="C20" s="44" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="50"/>
-      <c r="F20" s="52"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -41321,8 +41348,8 @@
       <c r="BD20" s="52"/>
       <c r="BE20" s="52"/>
       <c r="BF20" s="52"/>
-      <c r="BG20" s="84"/>
-      <c r="BH20" s="52"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="84"/>
       <c r="BI20" s="52"/>
       <c r="BJ20" s="52"/>
       <c r="BK20" s="52"/>
@@ -41377,23 +41404,24 @@
       <c r="DH20" s="52"/>
       <c r="DI20" s="52"/>
       <c r="DJ20" s="52"/>
-      <c r="DK20" s="62"/>
+      <c r="DK20" s="52"/>
       <c r="DL20" s="62"/>
       <c r="DM20" s="62"/>
       <c r="DN20" s="62"/>
       <c r="DO20" s="62"/>
       <c r="DP20" s="62"/>
       <c r="DQ20" s="62"/>
+      <c r="DR20" s="62"/>
     </row>
-    <row r="21" spans="1:141" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:142" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="141"/>
       <c r="B21" s="138"/>
       <c r="C21" s="44" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
-      <c r="F21" s="81"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="81"/>
       <c r="H21" s="81"/>
       <c r="I21" s="81"/>
@@ -41446,8 +41474,8 @@
       <c r="BD21" s="81"/>
       <c r="BE21" s="81"/>
       <c r="BF21" s="81"/>
-      <c r="BG21" s="82"/>
-      <c r="BH21" s="81"/>
+      <c r="BG21" s="81"/>
+      <c r="BH21" s="82"/>
       <c r="BI21" s="81"/>
       <c r="BJ21" s="81"/>
       <c r="BK21" s="81"/>
@@ -41502,15 +41530,16 @@
       <c r="DH21" s="81"/>
       <c r="DI21" s="81"/>
       <c r="DJ21" s="81"/>
-      <c r="DK21" s="80"/>
+      <c r="DK21" s="81"/>
       <c r="DL21" s="80"/>
       <c r="DM21" s="80"/>
       <c r="DN21" s="80"/>
       <c r="DO21" s="80"/>
       <c r="DP21" s="80"/>
       <c r="DQ21" s="80"/>
+      <c r="DR21" s="80"/>
     </row>
-    <row r="22" spans="1:141" s="75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="142" t="s">
         <v>198</v>
       </c>
@@ -41521,16 +41550,12 @@
       <c r="E22" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
       <c r="J22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41543,10 +41568,10 @@
       <c r="M22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="N22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="O22" s="52"/>
       <c r="P22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41559,9 +41584,7 @@
       <c r="S22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="T22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="T22" s="52"/>
       <c r="U22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41649,11 +41672,11 @@
       <c r="AW22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AX22" s="52"/>
+      <c r="AX22" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="AY22" s="52"/>
-      <c r="AZ22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ22" s="52"/>
       <c r="BA22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41672,24 +41695,24 @@
       <c r="BF22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BG22" s="52"/>
-      <c r="BH22" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH22" s="52"/>
+      <c r="BI22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ22" s="52"/>
       <c r="BK22" s="52" t="s">
         <v>162</v>
       </c>
       <c r="BL22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BM22" s="62"/>
-      <c r="BN22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BM22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN22" s="62"/>
       <c r="BO22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41699,11 +41722,11 @@
       <c r="BQ22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BR22" s="52"/>
+      <c r="BR22" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BS22" s="52"/>
-      <c r="BT22" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BT22" s="52"/>
       <c r="BU22" s="52" t="s">
         <v>162</v>
       </c>
@@ -41734,10 +41757,10 @@
       <c r="CD22" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CE22" s="77"/>
-      <c r="CF22" s="77" t="s">
-        <v>162</v>
-      </c>
+      <c r="CE22" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF22" s="77"/>
       <c r="CG22" s="77" t="s">
         <v>162</v>
       </c>
@@ -41756,7 +41779,9 @@
       <c r="CL22" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="CM22" s="77"/>
+      <c r="CM22" s="77" t="s">
+        <v>162</v>
+      </c>
       <c r="CN22" s="77"/>
       <c r="CO22" s="77"/>
       <c r="CP22" s="77"/>
@@ -41780,15 +41805,16 @@
       <c r="DH22" s="77"/>
       <c r="DI22" s="77"/>
       <c r="DJ22" s="77"/>
-      <c r="DK22" s="76"/>
+      <c r="DK22" s="77"/>
       <c r="DL22" s="76"/>
       <c r="DM22" s="76"/>
       <c r="DN22" s="76"/>
       <c r="DO22" s="76"/>
       <c r="DP22" s="76"/>
       <c r="DQ22" s="76"/>
+      <c r="DR22" s="76"/>
     </row>
-    <row r="23" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="135"/>
       <c r="C23" s="49" t="s">
         <v>196</v>
@@ -41797,35 +41823,29 @@
       <c r="E23" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="F23" s="50"/>
       <c r="G23" s="52"/>
-      <c r="H23" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
       <c r="J23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="K23" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="52"/>
       <c r="M23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="N23" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" s="52"/>
       <c r="P23" s="52" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="R23" s="52" t="s">
         <v>162</v>
@@ -41833,9 +41853,7 @@
       <c r="S23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="T23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="T23" s="52"/>
       <c r="U23" s="52" t="s">
         <v>162</v>
       </c>
@@ -41860,7 +41878,9 @@
       <c r="AB23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AC23" s="52"/>
+      <c r="AC23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="AD23" s="52"/>
       <c r="AE23" s="52"/>
       <c r="AF23" s="52"/>
@@ -41868,20 +41888,18 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="52"/>
       <c r="AJ23" s="52"/>
-      <c r="AK23" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="AM23" s="52"/>
       <c r="AN23" s="52"/>
       <c r="AO23" s="52"/>
       <c r="AP23" s="52"/>
-      <c r="AQ23" s="52" t="s">
+      <c r="AQ23" s="52"/>
+      <c r="AR23" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="AR23" s="52" t="s">
-        <v>162</v>
-      </c>
       <c r="AS23" s="52" t="s">
         <v>162</v>
       </c>
@@ -41891,7 +41909,9 @@
       <c r="AU23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AV23" s="52"/>
+      <c r="AV23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="AW23" s="52"/>
       <c r="AX23" s="52"/>
       <c r="AY23" s="52"/>
@@ -41900,34 +41920,34 @@
       <c r="BB23" s="52"/>
       <c r="BC23" s="52"/>
       <c r="BD23" s="52"/>
-      <c r="BE23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BE23" s="52"/>
       <c r="BF23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BG23" s="52"/>
+      <c r="BG23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BH23" s="52"/>
       <c r="BI23" s="52"/>
-      <c r="BJ23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BJ23" s="52"/>
       <c r="BK23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BL23" s="52"/>
-      <c r="BM23" s="62"/>
-      <c r="BN23" s="52"/>
-      <c r="BO23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BL23" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM23" s="52"/>
+      <c r="BN23" s="62"/>
+      <c r="BO23" s="52"/>
       <c r="BP23" s="52" t="s">
         <v>162</v>
       </c>
       <c r="BQ23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BR23" s="52"/>
+      <c r="BR23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BS23" s="52"/>
       <c r="BT23" s="52"/>
       <c r="BU23" s="52"/>
@@ -41942,13 +41962,11 @@
       <c r="CD23" s="52"/>
       <c r="CE23" s="52"/>
       <c r="CF23" s="52"/>
-      <c r="CG23" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH23" s="52"/>
-      <c r="CI23" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="CG23" s="52"/>
+      <c r="CH23" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI23" s="52"/>
       <c r="CJ23" s="52" t="s">
         <v>162</v>
       </c>
@@ -41958,7 +41976,9 @@
       <c r="CL23" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CM23" s="52"/>
+      <c r="CM23" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="CN23" s="52"/>
       <c r="CO23" s="52"/>
       <c r="CP23" s="52"/>
@@ -41982,15 +42002,16 @@
       <c r="DH23" s="52"/>
       <c r="DI23" s="52"/>
       <c r="DJ23" s="52"/>
-      <c r="DK23" s="62"/>
+      <c r="DK23" s="52"/>
       <c r="DL23" s="62"/>
       <c r="DM23" s="62"/>
       <c r="DN23" s="62"/>
       <c r="DO23" s="62"/>
       <c r="DP23" s="62"/>
       <c r="DQ23" s="62"/>
+      <c r="DR23" s="62"/>
     </row>
-    <row r="24" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="135"/>
       <c r="C24" s="49" t="s">
         <v>194</v>
@@ -41999,9 +42020,7 @@
       <c r="E24" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="F24" s="50"/>
       <c r="G24" s="48" t="s">
         <v>162</v>
       </c>
@@ -42014,10 +42033,10 @@
       <c r="J24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K24" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="48"/>
       <c r="M24" s="48" t="s">
         <v>162</v>
       </c>
@@ -42039,9 +42058,7 @@
       <c r="S24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="T24" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="T24" s="48"/>
       <c r="U24" s="48" t="s">
         <v>162</v>
       </c>
@@ -42108,24 +42125,24 @@
       <c r="AP24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AQ24" s="48"/>
+      <c r="AQ24" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AR24" s="48"/>
       <c r="AS24" s="48"/>
       <c r="AT24" s="48"/>
-      <c r="AU24" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AU24" s="48"/>
       <c r="AV24" s="48" t="s">
         <v>162</v>
       </c>
       <c r="AW24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AX24" s="48"/>
+      <c r="AX24" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AY24" s="48"/>
-      <c r="AZ24" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ24" s="48"/>
       <c r="BA24" s="48" t="s">
         <v>162</v>
       </c>
@@ -42144,24 +42161,24 @@
       <c r="BF24" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG24" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH24" s="52"/>
+      <c r="BI24" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ24" s="52"/>
       <c r="BK24" s="52" t="s">
         <v>162</v>
       </c>
       <c r="BL24" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BM24" s="62"/>
-      <c r="BN24" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BM24" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN24" s="62"/>
       <c r="BO24" s="52" t="s">
         <v>162</v>
       </c>
@@ -42171,11 +42188,11 @@
       <c r="BQ24" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BR24" s="52"/>
+      <c r="BR24" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BS24" s="52"/>
-      <c r="BT24" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BT24" s="52"/>
       <c r="BU24" s="52" t="s">
         <v>162</v>
       </c>
@@ -42206,10 +42223,10 @@
       <c r="CD24" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CE24" s="52"/>
-      <c r="CF24" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="CE24" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF24" s="52"/>
       <c r="CG24" s="52" t="s">
         <v>162</v>
       </c>
@@ -42228,7 +42245,9 @@
       <c r="CL24" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CM24" s="52"/>
+      <c r="CM24" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="CN24" s="52"/>
       <c r="CO24" s="52"/>
       <c r="CP24" s="52"/>
@@ -42252,15 +42271,16 @@
       <c r="DH24" s="52"/>
       <c r="DI24" s="52"/>
       <c r="DJ24" s="52"/>
-      <c r="DK24" s="62"/>
+      <c r="DK24" s="52"/>
       <c r="DL24" s="62"/>
       <c r="DM24" s="62"/>
       <c r="DN24" s="62"/>
       <c r="DO24" s="62"/>
       <c r="DP24" s="62"/>
       <c r="DQ24" s="62"/>
+      <c r="DR24" s="62"/>
     </row>
-    <row r="25" spans="1:141" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:142" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="135"/>
       <c r="C25" s="61" t="s">
@@ -42268,18 +42288,16 @@
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
-      <c r="F25" s="59"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="59"/>
-      <c r="H25" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="I25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
       <c r="J25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="K25" s="59"/>
+      <c r="K25" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
       <c r="N25" s="59"/>
@@ -42287,25 +42305,21 @@
       <c r="P25" s="59"/>
       <c r="Q25" s="59"/>
       <c r="R25" s="59"/>
-      <c r="S25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="S25" s="59"/>
       <c r="T25" s="59"/>
       <c r="U25" s="59"/>
       <c r="V25" s="59"/>
       <c r="W25" s="59"/>
-      <c r="X25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="X25" s="59"/>
       <c r="Y25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="Z25" s="59"/>
+      <c r="Z25" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="AA25" s="59"/>
       <c r="AB25" s="59"/>
-      <c r="AC25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="AC25" s="59"/>
       <c r="AD25" s="59" t="s">
         <v>162</v>
       </c>
@@ -42327,10 +42341,10 @@
       <c r="AJ25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="AK25" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL25" s="59"/>
       <c r="AM25" s="59" t="s">
         <v>162</v>
       </c>
@@ -42343,7 +42357,9 @@
       <c r="AP25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AQ25" s="59"/>
+      <c r="AQ25" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="AR25" s="59"/>
       <c r="AS25" s="59"/>
       <c r="AT25" s="59"/>
@@ -42353,37 +42369,37 @@
       <c r="AX25" s="59"/>
       <c r="AY25" s="59"/>
       <c r="AZ25" s="59"/>
-      <c r="BA25" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="BA25" s="59"/>
       <c r="BB25" s="59" t="s">
         <v>162</v>
       </c>
       <c r="BC25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BD25" s="59"/>
+      <c r="BD25" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="BE25" s="59"/>
       <c r="BF25" s="59"/>
-      <c r="BG25" s="58"/>
+      <c r="BG25" s="59"/>
       <c r="BH25" s="58"/>
       <c r="BI25" s="58"/>
       <c r="BJ25" s="58"/>
       <c r="BK25" s="58"/>
-      <c r="BL25" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="BL25" s="58"/>
+      <c r="BM25" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN25" s="57"/>
       <c r="BO25" s="58" t="s">
         <v>162</v>
       </c>
       <c r="BP25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="BQ25" s="58"/>
+      <c r="BQ25" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="BR25" s="58"/>
       <c r="BS25" s="58"/>
       <c r="BT25" s="58"/>
@@ -42398,13 +42414,13 @@
       <c r="CC25" s="58"/>
       <c r="CD25" s="58"/>
       <c r="CE25" s="58"/>
-      <c r="CF25" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="CF25" s="58"/>
       <c r="CG25" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="CH25" s="58"/>
+      <c r="CH25" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="CI25" s="58"/>
       <c r="CJ25" s="58"/>
       <c r="CK25" s="58"/>
@@ -42433,15 +42449,16 @@
       <c r="DH25" s="58"/>
       <c r="DI25" s="58"/>
       <c r="DJ25" s="58"/>
-      <c r="DK25" s="57"/>
+      <c r="DK25" s="58"/>
       <c r="DL25" s="57"/>
       <c r="DM25" s="57"/>
       <c r="DN25" s="57"/>
       <c r="DO25" s="57"/>
       <c r="DP25" s="57"/>
       <c r="DQ25" s="57"/>
+      <c r="DR25" s="57"/>
     </row>
-    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
       <c r="B26" s="136"/>
       <c r="C26" s="49" t="s">
@@ -42449,7 +42466,7 @@
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="51"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
@@ -42470,9 +42487,7 @@
       <c r="X26" s="47"/>
       <c r="Y26" s="47"/>
       <c r="Z26" s="47"/>
-      <c r="AA26" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="AA26" s="47"/>
       <c r="AB26" s="47" t="s">
         <v>162</v>
       </c>
@@ -42533,15 +42548,15 @@
       <c r="AU26" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX26" s="47"/>
+      <c r="AV26" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AY26" s="47"/>
-      <c r="AZ26" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ26" s="47"/>
       <c r="BA26" s="47" t="s">
         <v>162</v>
       </c>
@@ -42560,36 +42575,36 @@
       <c r="BF26" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BG26" s="54"/>
-      <c r="BH26" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI26" s="54"/>
-      <c r="BJ26" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG26" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH26" s="54"/>
+      <c r="BI26" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ26" s="54"/>
       <c r="BK26" s="54" t="s">
         <v>162</v>
       </c>
       <c r="BL26" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="BM26" s="53"/>
-      <c r="BN26" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO26" s="54"/>
-      <c r="BP26" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BM26" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN26" s="53"/>
+      <c r="BO26" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP26" s="54"/>
       <c r="BQ26" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="BR26" s="54"/>
+      <c r="BR26" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="BS26" s="54"/>
-      <c r="BT26" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BT26" s="54"/>
       <c r="BU26" s="54" t="s">
         <v>162</v>
       </c>
@@ -42620,17 +42635,19 @@
       <c r="CD26" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="CE26" s="54"/>
-      <c r="CF26" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="CE26" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF26" s="54"/>
       <c r="CG26" s="54" t="s">
         <v>162</v>
       </c>
       <c r="CH26" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="CI26" s="54"/>
+      <c r="CI26" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="CJ26" s="54"/>
       <c r="CK26" s="54"/>
       <c r="CL26" s="54"/>
@@ -42658,15 +42675,16 @@
       <c r="DH26" s="54"/>
       <c r="DI26" s="54"/>
       <c r="DJ26" s="54"/>
-      <c r="DK26" s="53"/>
+      <c r="DK26" s="54"/>
       <c r="DL26" s="53"/>
       <c r="DM26" s="53"/>
       <c r="DN26" s="53"/>
       <c r="DO26" s="53"/>
       <c r="DP26" s="53"/>
       <c r="DQ26" s="53"/>
+      <c r="DR26" s="53"/>
     </row>
-    <row r="27" spans="1:141" s="64" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:142" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132" t="s">
         <v>191</v>
       </c>
@@ -42675,27 +42693,27 @@
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="73"/>
-      <c r="F27" s="65"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="65"/>
-      <c r="H27" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="H27" s="65"/>
       <c r="I27" s="65" t="s">
         <v>162</v>
       </c>
       <c r="J27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="K27" s="65"/>
+      <c r="K27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
       <c r="O27" s="65"/>
       <c r="P27" s="65"/>
-      <c r="Q27" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="R27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="S27" s="65"/>
       <c r="T27" s="65"/>
       <c r="U27" s="65"/>
@@ -42707,25 +42725,23 @@
       <c r="AA27" s="65"/>
       <c r="AB27" s="65"/>
       <c r="AC27" s="65"/>
-      <c r="AD27" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="AD27" s="65"/>
       <c r="AE27" s="65" t="s">
         <v>162</v>
       </c>
       <c r="AF27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI27" s="65"/>
+      <c r="AG27" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="AJ27" s="65"/>
       <c r="AK27" s="65"/>
-      <c r="AL27" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="AL27" s="65"/>
       <c r="AM27" s="65" t="s">
         <v>162</v>
       </c>
@@ -42750,47 +42766,47 @@
       <c r="AT27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="AU27" s="65"/>
+      <c r="AU27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="AV27" s="65"/>
       <c r="AW27" s="65"/>
       <c r="AX27" s="65"/>
       <c r="AY27" s="65"/>
-      <c r="AZ27" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ27" s="65"/>
       <c r="BA27" s="65" t="s">
         <v>162</v>
       </c>
       <c r="BB27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="BC27" s="65"/>
+      <c r="BC27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="BD27" s="65"/>
       <c r="BE27" s="65"/>
       <c r="BF27" s="65"/>
       <c r="BG27" s="65"/>
-      <c r="BH27" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI27" s="65"/>
-      <c r="BJ27" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK27" s="65"/>
+      <c r="BH27" s="65"/>
+      <c r="BI27" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ27" s="65"/>
+      <c r="BK27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="BL27" s="65"/>
-      <c r="BN27" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO27" s="65"/>
+      <c r="BM27" s="65"/>
+      <c r="BO27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="BP27" s="65"/>
       <c r="BQ27" s="65"/>
       <c r="BR27" s="65"/>
       <c r="BS27" s="65"/>
       <c r="BT27" s="65"/>
       <c r="BU27" s="65"/>
-      <c r="BV27" s="65" t="s">
-        <v>162</v>
-      </c>
+      <c r="BV27" s="65"/>
       <c r="BW27" s="65" t="s">
         <v>162</v>
       </c>
@@ -42818,7 +42834,9 @@
       <c r="CE27" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="CF27" s="65"/>
+      <c r="CF27" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="CG27" s="65"/>
       <c r="CH27" s="65"/>
       <c r="CI27" s="65"/>
@@ -42849,29 +42867,28 @@
       <c r="DH27" s="65"/>
       <c r="DI27" s="65"/>
       <c r="DJ27" s="65"/>
+      <c r="DK27" s="65"/>
     </row>
-    <row r="28" spans="1:141" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:142" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="133"/>
       <c r="C28" s="72" t="s">
         <v>189</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="71"/>
-      <c r="F28" s="58"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="58"/>
-      <c r="H28" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="52"/>
+      <c r="K28" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="58"/>
       <c r="M28" s="52"/>
-      <c r="N28" s="58"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="58"/>
       <c r="P28" s="58"/>
       <c r="Q28" s="58"/>
@@ -42887,10 +42904,10 @@
       <c r="AA28" s="58"/>
       <c r="AB28" s="58"/>
       <c r="AC28" s="58"/>
-      <c r="AD28" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="AF28" s="58"/>
       <c r="AG28" s="58"/>
       <c r="AH28" s="58"/>
@@ -42924,7 +42941,7 @@
       <c r="BJ28" s="58"/>
       <c r="BK28" s="58"/>
       <c r="BL28" s="58"/>
-      <c r="BN28" s="58"/>
+      <c r="BM28" s="58"/>
       <c r="BO28" s="58"/>
       <c r="BP28" s="58"/>
       <c r="BQ28" s="58"/>
@@ -42973,27 +42990,28 @@
       <c r="DH28" s="58"/>
       <c r="DI28" s="58"/>
       <c r="DJ28" s="58"/>
+      <c r="DK28" s="58"/>
     </row>
-    <row r="29" spans="1:141" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:142" s="62" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="70"/>
       <c r="C29" s="69" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="52"/>
       <c r="E29" s="68"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
-      <c r="L29" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="L29" s="52"/>
       <c r="M29" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="N29" s="52"/>
+      <c r="N29" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="O29" s="52"/>
       <c r="P29" s="52"/>
       <c r="Q29" s="52"/>
@@ -43006,13 +43024,13 @@
       <c r="X29" s="52"/>
       <c r="Y29" s="52"/>
       <c r="Z29" s="52"/>
-      <c r="AA29" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="AA29" s="52"/>
       <c r="AB29" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="AC29" s="52"/>
+      <c r="AC29" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="AD29" s="52"/>
       <c r="AE29" s="52"/>
       <c r="AF29" s="52"/>
@@ -43048,7 +43066,7 @@
       <c r="BJ29" s="52"/>
       <c r="BK29" s="52"/>
       <c r="BL29" s="52"/>
-      <c r="BN29" s="52"/>
+      <c r="BM29" s="52"/>
       <c r="BO29" s="52"/>
       <c r="BP29" s="52"/>
       <c r="BQ29" s="52"/>
@@ -43071,10 +43089,10 @@
       <c r="CH29" s="52"/>
       <c r="CI29" s="52"/>
       <c r="CJ29" s="52"/>
-      <c r="CK29" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="CL29" s="52"/>
+      <c r="CK29" s="52"/>
+      <c r="CL29" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="CM29" s="52"/>
       <c r="CN29" s="52"/>
       <c r="CO29" s="52"/>
@@ -43099,8 +43117,9 @@
       <c r="DH29" s="52"/>
       <c r="DI29" s="52"/>
       <c r="DJ29" s="52"/>
+      <c r="DK29" s="52"/>
     </row>
-    <row r="30" spans="1:141" s="63" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:142" s="63" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="134" t="s">
         <v>187</v>
       </c>
@@ -43109,20 +43128,16 @@
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="66"/>
-      <c r="F30" s="55" t="s">
-        <v>162</v>
-      </c>
+      <c r="F30" s="66"/>
       <c r="G30" s="55"/>
-      <c r="H30" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="I30" s="55" t="s">
-        <v>162</v>
-      </c>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
       <c r="J30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="K30" s="55"/>
+      <c r="K30" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
       <c r="N30" s="55"/>
@@ -43140,9 +43155,7 @@
       <c r="Z30" s="55"/>
       <c r="AA30" s="55"/>
       <c r="AB30" s="55"/>
-      <c r="AC30" s="55" t="s">
-        <v>162</v>
-      </c>
+      <c r="AC30" s="55"/>
       <c r="AD30" s="55" t="s">
         <v>162</v>
       </c>
@@ -43158,7 +43171,9 @@
       <c r="AH30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="AI30" s="55"/>
+      <c r="AI30" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="AJ30" s="55"/>
       <c r="AK30" s="55"/>
       <c r="AL30" s="55"/>
@@ -43167,41 +43182,41 @@
       <c r="AO30" s="55"/>
       <c r="AP30" s="55"/>
       <c r="AQ30" s="55"/>
-      <c r="AR30" s="55" t="s">
-        <v>162</v>
-      </c>
+      <c r="AR30" s="55"/>
       <c r="AS30" s="55" t="s">
         <v>162</v>
       </c>
       <c r="AT30" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="AU30" s="55"/>
+      <c r="AU30" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="AV30" s="55"/>
       <c r="AW30" s="55"/>
       <c r="AX30" s="55"/>
       <c r="AY30" s="55"/>
       <c r="AZ30" s="55"/>
-      <c r="BA30" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB30" s="55"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="55" t="s">
+        <v>162</v>
+      </c>
       <c r="BC30" s="55"/>
       <c r="BD30" s="55"/>
       <c r="BE30" s="55"/>
       <c r="BF30" s="55"/>
-      <c r="BG30" s="65"/>
-      <c r="BH30" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI30" s="65"/>
-      <c r="BJ30" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="BK30" s="65"/>
+      <c r="BG30" s="55"/>
+      <c r="BH30" s="65"/>
+      <c r="BI30" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ30" s="65"/>
+      <c r="BK30" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="BL30" s="65"/>
-      <c r="BM30" s="64"/>
-      <c r="BN30" s="65"/>
+      <c r="BM30" s="65"/>
+      <c r="BN30" s="64"/>
       <c r="BO30" s="65"/>
       <c r="BP30" s="65"/>
       <c r="BQ30" s="65"/>
@@ -43220,10 +43235,10 @@
       <c r="CD30" s="65"/>
       <c r="CE30" s="65"/>
       <c r="CF30" s="65"/>
-      <c r="CG30" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH30" s="65"/>
+      <c r="CG30" s="65"/>
+      <c r="CH30" s="65" t="s">
+        <v>162</v>
+      </c>
       <c r="CI30" s="65"/>
       <c r="CJ30" s="65"/>
       <c r="CK30" s="65"/>
@@ -43252,45 +43267,44 @@
       <c r="DH30" s="65"/>
       <c r="DI30" s="65"/>
       <c r="DJ30" s="65"/>
-      <c r="DK30" s="64"/>
+      <c r="DK30" s="65"/>
       <c r="DL30" s="64"/>
       <c r="DM30" s="64"/>
       <c r="DN30" s="64"/>
       <c r="DO30" s="64"/>
       <c r="DP30" s="64"/>
       <c r="DQ30" s="64"/>
+      <c r="DR30" s="64"/>
     </row>
-    <row r="31" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="135"/>
       <c r="C31" s="49" t="s">
         <v>185</v>
       </c>
       <c r="D31" s="48"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="F31" s="50"/>
+      <c r="G31" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="48"/>
       <c r="I31" s="48" t="s">
         <v>162</v>
       </c>
       <c r="J31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="K31" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="48"/>
       <c r="M31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="N31" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" s="48"/>
       <c r="P31" s="48" t="s">
         <v>162</v>
       </c>
@@ -43303,9 +43317,7 @@
       <c r="S31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="T31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="T31" s="48"/>
       <c r="U31" s="48" t="s">
         <v>162</v>
       </c>
@@ -43348,12 +43360,12 @@
       <c r="AH31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AI31" s="48"/>
+      <c r="AI31" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AJ31" s="48"/>
       <c r="AK31" s="48"/>
-      <c r="AL31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AL31" s="48"/>
       <c r="AM31" s="48" t="s">
         <v>162</v>
       </c>
@@ -43381,15 +43393,15 @@
       <c r="AU31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AV31" s="48"/>
-      <c r="AW31" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX31" s="48"/>
+      <c r="AV31" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AY31" s="48"/>
-      <c r="AZ31" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ31" s="48"/>
       <c r="BA31" s="48" t="s">
         <v>162</v>
       </c>
@@ -43408,32 +43420,34 @@
       <c r="BF31" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="BG31" s="52"/>
-      <c r="BH31" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI31" s="52"/>
-      <c r="BJ31" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG31" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH31" s="52"/>
+      <c r="BI31" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ31" s="52"/>
       <c r="BK31" s="52" t="s">
         <v>162</v>
       </c>
       <c r="BL31" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BM31" s="62"/>
-      <c r="BN31" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO31" s="52"/>
-      <c r="BP31" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BM31" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN31" s="62"/>
+      <c r="BO31" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP31" s="52"/>
       <c r="BQ31" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BR31" s="52"/>
+      <c r="BR31" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BS31" s="52"/>
       <c r="BT31" s="52"/>
       <c r="BU31" s="52"/>
@@ -43448,13 +43462,13 @@
       <c r="CD31" s="52"/>
       <c r="CE31" s="52"/>
       <c r="CF31" s="52"/>
-      <c r="CG31" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="CG31" s="52"/>
       <c r="CH31" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CI31" s="52"/>
+      <c r="CI31" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="CJ31" s="52"/>
       <c r="CK31" s="52"/>
       <c r="CL31" s="52"/>
@@ -43482,30 +43496,31 @@
       <c r="DH31" s="52"/>
       <c r="DI31" s="52"/>
       <c r="DJ31" s="52"/>
-      <c r="DK31" s="62"/>
+      <c r="DK31" s="52"/>
       <c r="DL31" s="62"/>
       <c r="DM31" s="62"/>
       <c r="DN31" s="62"/>
       <c r="DO31" s="62"/>
       <c r="DP31" s="62"/>
       <c r="DQ31" s="62"/>
+      <c r="DR31" s="62"/>
     </row>
-    <row r="32" spans="1:141" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="135"/>
       <c r="C32" s="49" t="s">
         <v>184</v>
       </c>
       <c r="D32" s="48"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="48"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
-      <c r="K32" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="L32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
       <c r="O32" s="48"/>
@@ -43522,9 +43537,7 @@
       <c r="Z32" s="48"/>
       <c r="AA32" s="48"/>
       <c r="AB32" s="48"/>
-      <c r="AC32" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AC32" s="48"/>
       <c r="AD32" s="48" t="s">
         <v>162</v>
       </c>
@@ -43537,13 +43550,13 @@
       <c r="AG32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AH32" s="48"/>
+      <c r="AH32" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AI32" s="48"/>
       <c r="AJ32" s="48"/>
       <c r="AK32" s="48"/>
-      <c r="AL32" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AL32" s="48"/>
       <c r="AM32" s="48" t="s">
         <v>162</v>
       </c>
@@ -43559,59 +43572,61 @@
       <c r="AQ32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AR32" s="48"/>
+      <c r="AR32" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AS32" s="48"/>
       <c r="AT32" s="48"/>
-      <c r="AU32" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AU32" s="48"/>
       <c r="AV32" s="48" t="s">
         <v>162</v>
       </c>
       <c r="AW32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="AX32" s="48"/>
+      <c r="AX32" s="48" t="s">
+        <v>162</v>
+      </c>
       <c r="AY32" s="48"/>
-      <c r="AZ32" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ32" s="48"/>
       <c r="BA32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="BB32" s="48"/>
-      <c r="BC32" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="BB32" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BC32" s="48"/>
+      <c r="BD32" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE32" s="48"/>
       <c r="BF32" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="BG32" s="52"/>
-      <c r="BH32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI32" s="52"/>
-      <c r="BJ32" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG32" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH32" s="52"/>
+      <c r="BI32" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ32" s="52"/>
       <c r="BK32" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="BL32" s="52"/>
-      <c r="BM32" s="62"/>
-      <c r="BN32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO32" s="52"/>
+      <c r="BL32" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM32" s="52"/>
+      <c r="BN32" s="62"/>
+      <c r="BO32" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BP32" s="52"/>
-      <c r="BQ32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR32" s="52"/>
+      <c r="BQ32" s="52"/>
+      <c r="BR32" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="BS32" s="52"/>
       <c r="BT32" s="52"/>
       <c r="BU32" s="52"/>
@@ -43624,17 +43639,17 @@
       <c r="CB32" s="52"/>
       <c r="CC32" s="52"/>
       <c r="CD32" s="52"/>
-      <c r="CE32" s="52" t="s">
-        <v>162</v>
-      </c>
-      <c r="CF32" s="52"/>
-      <c r="CG32" s="52" t="s">
-        <v>162</v>
-      </c>
+      <c r="CE32" s="52"/>
+      <c r="CF32" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG32" s="52"/>
       <c r="CH32" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="CI32" s="52"/>
+      <c r="CI32" s="52" t="s">
+        <v>162</v>
+      </c>
       <c r="CJ32" s="52"/>
       <c r="CK32" s="52"/>
       <c r="CL32" s="52"/>
@@ -43662,61 +43677,58 @@
       <c r="DH32" s="52"/>
       <c r="DI32" s="52"/>
       <c r="DJ32" s="52"/>
-      <c r="DK32" s="62"/>
+      <c r="DK32" s="52"/>
       <c r="DL32" s="62"/>
       <c r="DM32" s="62"/>
       <c r="DN32" s="62"/>
       <c r="DO32" s="62"/>
       <c r="DP32" s="62"/>
       <c r="DQ32" s="62"/>
+      <c r="DR32" s="62"/>
     </row>
-    <row r="33" spans="2:129" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:130" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="136"/>
       <c r="C33" s="61" t="s">
         <v>183</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="60"/>
-      <c r="F33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="H33" s="59"/>
       <c r="I33" s="59" t="s">
         <v>162</v>
       </c>
       <c r="J33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="K33" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="59"/>
       <c r="M33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="N33" s="59"/>
+      <c r="N33" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="O33" s="59"/>
       <c r="P33" s="59"/>
       <c r="Q33" s="59"/>
-      <c r="R33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="R33" s="59"/>
       <c r="S33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="T33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="U33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="V33" s="59"/>
       <c r="W33" s="59"/>
       <c r="X33" s="59"/>
-      <c r="Y33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y33" s="59"/>
       <c r="Z33" s="59" t="s">
         <v>162</v>
       </c>
@@ -43750,10 +43762,10 @@
       <c r="AJ33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="AK33" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL33" s="59"/>
       <c r="AM33" s="59" t="s">
         <v>162</v>
       </c>
@@ -43787,11 +43799,11 @@
       <c r="AW33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="AX33" s="59"/>
+      <c r="AX33" s="59" t="s">
+        <v>162</v>
+      </c>
       <c r="AY33" s="59"/>
-      <c r="BA33" s="59" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ33" s="59"/>
       <c r="BB33" s="59" t="s">
         <v>162</v>
       </c>
@@ -43807,30 +43819,32 @@
       <c r="BF33" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI33" s="58"/>
-      <c r="BJ33" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG33" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH33" s="58"/>
+      <c r="BI33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ33" s="58"/>
       <c r="BK33" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="BL33" s="58"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO33" s="58"/>
-      <c r="BP33" s="58" t="s">
-        <v>162</v>
-      </c>
+      <c r="BL33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM33" s="58"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP33" s="58"/>
       <c r="BQ33" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="BR33" s="58"/>
+      <c r="BR33" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="BS33" s="58"/>
       <c r="BT33" s="58"/>
       <c r="BU33" s="58"/>
@@ -43846,10 +43860,10 @@
       <c r="CE33" s="58"/>
       <c r="CF33" s="58"/>
       <c r="CG33" s="58"/>
-      <c r="CH33" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="CI33" s="58"/>
+      <c r="CH33" s="58"/>
+      <c r="CI33" s="58" t="s">
+        <v>162</v>
+      </c>
       <c r="CJ33" s="58"/>
       <c r="CK33" s="58"/>
       <c r="CL33" s="58"/>
@@ -43877,15 +43891,16 @@
       <c r="DH33" s="58"/>
       <c r="DI33" s="58"/>
       <c r="DJ33" s="58"/>
-      <c r="DK33" s="57"/>
+      <c r="DK33" s="58"/>
       <c r="DL33" s="57"/>
       <c r="DM33" s="57"/>
       <c r="DN33" s="57"/>
       <c r="DO33" s="57"/>
       <c r="DP33" s="57"/>
       <c r="DQ33" s="57"/>
+      <c r="DR33" s="57"/>
     </row>
-    <row r="34" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B34" s="130" t="s">
         <v>182</v>
       </c>
@@ -43894,18 +43909,14 @@
       </c>
       <c r="D34" s="48"/>
       <c r="E34" s="51"/>
-      <c r="F34" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="F34" s="51"/>
       <c r="G34" s="47" t="s">
         <v>162</v>
       </c>
       <c r="H34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="I34" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="I34" s="47"/>
       <c r="J34" s="47" t="s">
         <v>162</v>
       </c>
@@ -43927,10 +43938,10 @@
       <c r="P34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="Q34" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="R34" s="47"/>
       <c r="S34" s="47" t="s">
         <v>162</v>
       </c>
@@ -43952,10 +43963,10 @@
       <c r="Y34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="Z34" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA34" s="47"/>
       <c r="AB34" s="47" t="s">
         <v>162</v>
       </c>
@@ -44016,16 +44027,16 @@
       <c r="AU34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX34" s="47"/>
+      <c r="AV34" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AY34" s="47"/>
-      <c r="AZ34" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA34" s="47" t="s">
+      <c r="AZ34" s="47"/>
+      <c r="BA34" s="55" t="s">
         <v>162</v>
       </c>
       <c r="BB34" s="47" t="s">
@@ -44043,36 +44054,36 @@
       <c r="BF34" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BG34" s="54"/>
-      <c r="BH34" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI34" s="54"/>
-      <c r="BJ34" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG34" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH34" s="54"/>
+      <c r="BI34" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ34" s="54"/>
       <c r="BK34" s="54" t="s">
         <v>162</v>
       </c>
       <c r="BL34" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="BM34" s="53"/>
-      <c r="BN34" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO34" s="54"/>
-      <c r="BP34" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BM34" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN34" s="53"/>
+      <c r="BO34" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="BP34" s="54"/>
       <c r="BQ34" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="BR34" s="54"/>
+      <c r="BR34" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="BS34" s="54"/>
-      <c r="BT34" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="BT34" s="54"/>
       <c r="BU34" s="54" t="s">
         <v>162</v>
       </c>
@@ -44103,10 +44114,10 @@
       <c r="CD34" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="CE34" s="54"/>
-      <c r="CF34" s="54" t="s">
-        <v>162</v>
-      </c>
+      <c r="CE34" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF34" s="54"/>
       <c r="CG34" s="54" t="s">
         <v>162</v>
       </c>
@@ -44125,7 +44136,9 @@
       <c r="CL34" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="CM34" s="54"/>
+      <c r="CM34" s="54" t="s">
+        <v>162</v>
+      </c>
       <c r="CN34" s="54"/>
       <c r="CO34" s="54"/>
       <c r="CP34" s="54"/>
@@ -44149,15 +44162,16 @@
       <c r="DH34" s="54"/>
       <c r="DI34" s="54"/>
       <c r="DJ34" s="54"/>
-      <c r="DK34" s="53"/>
+      <c r="DK34" s="54"/>
       <c r="DL34" s="53"/>
       <c r="DM34" s="53"/>
       <c r="DN34" s="53"/>
       <c r="DO34" s="53"/>
       <c r="DP34" s="53"/>
       <c r="DQ34" s="53"/>
+      <c r="DR34" s="53"/>
     </row>
-    <row r="35" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B35" s="131"/>
       <c r="C35" s="49" t="s">
         <v>180</v>
@@ -44166,9 +44180,7 @@
       <c r="E35" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F35" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="F35" s="51"/>
       <c r="G35" s="47" t="s">
         <v>162</v>
       </c>
@@ -44197,10 +44209,10 @@
         <v>162</v>
       </c>
       <c r="P35" s="47" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="47" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="R35" s="47" t="s">
         <v>162</v>
@@ -44298,11 +44310,11 @@
       <c r="AW35" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AX35" s="47"/>
+      <c r="AX35" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AY35" s="47"/>
-      <c r="AZ35" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ35" s="47"/>
       <c r="BA35" s="47" t="s">
         <v>162</v>
       </c>
@@ -44321,21 +44333,21 @@
       <c r="BF35" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BG35" s="47"/>
-      <c r="BH35" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI35" s="47"/>
-      <c r="BJ35" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG35" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH35" s="47"/>
+      <c r="BI35" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ35" s="47"/>
       <c r="BK35" s="47" t="s">
         <v>162</v>
       </c>
       <c r="BL35" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BN35" s="47" t="s">
+      <c r="BM35" s="47" t="s">
         <v>162</v>
       </c>
       <c r="BO35" s="47" t="s">
@@ -44410,7 +44422,9 @@
       <c r="CL35" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="CM35" s="47"/>
+      <c r="CM35" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="CN35" s="47"/>
       <c r="CO35" s="47"/>
       <c r="CP35" s="47"/>
@@ -44434,8 +44448,9 @@
       <c r="DH35" s="47"/>
       <c r="DI35" s="47"/>
       <c r="DJ35" s="47"/>
+      <c r="DK35" s="47"/>
     </row>
-    <row r="36" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B36" s="131"/>
       <c r="C36" s="49" t="s">
         <v>179</v>
@@ -44444,18 +44459,12 @@
       <c r="E36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
       <c r="H36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="I36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="I36" s="51"/>
       <c r="J36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44475,10 +44484,10 @@
         <v>162</v>
       </c>
       <c r="P36" s="51" t="s">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>162</v>
+        <v>373</v>
       </c>
       <c r="R36" s="51" t="s">
         <v>162</v>
@@ -44486,9 +44495,7 @@
       <c r="S36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="T36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="T36" s="51"/>
       <c r="U36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44555,10 +44562,10 @@
       <c r="AP36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="AQ36" s="51"/>
-      <c r="AR36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="AQ36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR36" s="51"/>
       <c r="AS36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44574,11 +44581,11 @@
       <c r="AW36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="AX36" s="51"/>
+      <c r="AX36" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="AY36" s="51"/>
-      <c r="AZ36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="AZ36" s="51"/>
       <c r="BA36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44597,29 +44604,29 @@
       <c r="BF36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="BG36" s="51"/>
-      <c r="BH36" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI36" s="51"/>
-      <c r="BJ36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="BG36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH36" s="51"/>
+      <c r="BI36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ36" s="51"/>
       <c r="BK36" s="51" t="s">
         <v>162</v>
       </c>
       <c r="BL36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="BN36" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO36" s="51"/>
+      <c r="BM36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO36" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="BP36" s="51"/>
       <c r="BQ36" s="51"/>
-      <c r="BR36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="BR36" s="51"/>
       <c r="BS36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44656,15 +44663,15 @@
       <c r="CD36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="CE36" s="51"/>
-      <c r="CF36" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG36" s="51"/>
+      <c r="CE36" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="CF36" s="51"/>
+      <c r="CG36" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="CH36" s="51"/>
-      <c r="CI36" s="51" t="s">
-        <v>162</v>
-      </c>
+      <c r="CI36" s="51"/>
       <c r="CJ36" s="51" t="s">
         <v>162</v>
       </c>
@@ -44674,7 +44681,9 @@
       <c r="CL36" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="CM36" s="51"/>
+      <c r="CM36" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="CN36" s="51"/>
       <c r="CO36" s="51"/>
       <c r="CP36" s="51"/>
@@ -44713,39 +44722,36 @@
       <c r="DW36" s="51"/>
       <c r="DX36" s="51"/>
       <c r="DY36" s="51"/>
+      <c r="DZ36" s="51"/>
     </row>
-    <row r="37" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B37" s="131"/>
       <c r="C37" s="49" t="s">
         <v>178</v>
       </c>
       <c r="D37" s="48"/>
       <c r="E37" s="51"/>
-      <c r="F37" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="F37" s="51"/>
       <c r="G37" s="47"/>
-      <c r="H37" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="K37" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="L37" s="47"/>
       <c r="M37" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="P37" s="47"/>
+      <c r="N37" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="Q37" s="47"/>
       <c r="R37" s="47"/>
       <c r="S37" s="47"/>
@@ -44753,13 +44759,13 @@
       <c r="U37" s="47"/>
       <c r="V37" s="47"/>
       <c r="W37" s="47"/>
-      <c r="X37" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="X37" s="47"/>
       <c r="Y37" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="Z37" s="47"/>
+      <c r="Z37" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AA37" s="47"/>
       <c r="AB37" s="47"/>
       <c r="AC37" s="47"/>
@@ -44798,7 +44804,7 @@
       <c r="BJ37" s="47"/>
       <c r="BK37" s="47"/>
       <c r="BL37" s="47"/>
-      <c r="BN37" s="47"/>
+      <c r="BM37" s="47"/>
       <c r="BO37" s="47"/>
       <c r="BP37" s="47"/>
       <c r="BQ37" s="47"/>
@@ -44847,15 +44853,16 @@
       <c r="DH37" s="47"/>
       <c r="DI37" s="47"/>
       <c r="DJ37" s="47"/>
+      <c r="DK37" s="47"/>
     </row>
-    <row r="38" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B38" s="131"/>
       <c r="C38" s="49" t="s">
         <v>177</v>
       </c>
       <c r="D38" s="48"/>
       <c r="E38" s="51"/>
-      <c r="F38" s="47"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
@@ -44868,20 +44875,20 @@
       <c r="P38" s="47"/>
       <c r="Q38" s="47"/>
       <c r="R38" s="47"/>
-      <c r="S38" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="U38" s="47"/>
       <c r="V38" s="47" t="s">
         <v>162</v>
       </c>
       <c r="W38" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="X38" s="47"/>
+      <c r="X38" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="Y38" s="47"/>
       <c r="Z38" s="47"/>
       <c r="AA38" s="47"/>
@@ -44972,8 +44979,9 @@
       <c r="DH38" s="47"/>
       <c r="DI38" s="47"/>
       <c r="DJ38" s="47"/>
+      <c r="DK38" s="47"/>
     </row>
-    <row r="39" spans="2:129" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="131"/>
       <c r="C39" s="49" t="s">
         <v>176</v>
@@ -44982,7 +44990,7 @@
       <c r="E39" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
@@ -45043,7 +45051,7 @@
       <c r="BL39" s="52"/>
       <c r="BM39" s="52"/>
       <c r="BN39" s="52"/>
-      <c r="BO39" s="48"/>
+      <c r="BO39" s="52"/>
       <c r="BP39" s="48"/>
       <c r="BQ39" s="48"/>
       <c r="BR39" s="48"/>
@@ -45091,8 +45099,9 @@
       <c r="DH39" s="48"/>
       <c r="DI39" s="48"/>
       <c r="DJ39" s="48"/>
+      <c r="DK39" s="48"/>
     </row>
-    <row r="40" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B40" s="131"/>
       <c r="C40" s="45" t="s">
         <v>175</v>
@@ -45119,10 +45128,10 @@
       <c r="W40" s="51"/>
       <c r="X40" s="51"/>
       <c r="Y40" s="51"/>
-      <c r="Z40" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51" t="s">
+        <v>162</v>
+      </c>
       <c r="AB40" s="51"/>
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
@@ -45180,14 +45189,14 @@
       <c r="CD40" s="51"/>
       <c r="CE40" s="51"/>
       <c r="CF40" s="51"/>
+      <c r="CG40" s="51"/>
     </row>
-    <row r="41" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B41" s="131"/>
       <c r="C41" s="49" t="s">
         <v>174</v>
       </c>
       <c r="D41" s="48"/>
-      <c r="F41" s="47"/>
       <c r="G41" s="47"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
@@ -45210,10 +45219,10 @@
       <c r="Z41" s="47"/>
       <c r="AA41" s="47"/>
       <c r="AB41" s="47"/>
-      <c r="AC41" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD41" s="47"/>
+      <c r="AC41" s="47"/>
+      <c r="AD41" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AE41" s="47"/>
       <c r="AF41" s="47"/>
       <c r="AG41" s="47"/>
@@ -45298,14 +45307,14 @@
       <c r="DH41" s="47"/>
       <c r="DI41" s="47"/>
       <c r="DJ41" s="47"/>
+      <c r="DK41" s="47"/>
     </row>
-    <row r="42" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B42" s="131"/>
       <c r="C42" s="49" t="s">
         <v>173</v>
       </c>
       <c r="D42" s="48"/>
-      <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
@@ -45329,10 +45338,10 @@
       <c r="AA42" s="47"/>
       <c r="AB42" s="47"/>
       <c r="AC42" s="47"/>
-      <c r="AD42" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE42" s="47"/>
+      <c r="AD42" s="47"/>
+      <c r="AE42" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AF42" s="47"/>
       <c r="AG42" s="47"/>
       <c r="AH42" s="47"/>
@@ -45416,14 +45425,14 @@
       <c r="DH42" s="47"/>
       <c r="DI42" s="47"/>
       <c r="DJ42" s="47"/>
+      <c r="DK42" s="47"/>
     </row>
-    <row r="43" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B43" s="131"/>
       <c r="C43" s="49" t="s">
         <v>172</v>
       </c>
       <c r="D43" s="48"/>
-      <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
@@ -45448,10 +45457,10 @@
       <c r="AB43" s="47"/>
       <c r="AC43" s="47"/>
       <c r="AD43" s="47"/>
-      <c r="AE43" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF43" s="47"/>
+      <c r="AE43" s="47"/>
+      <c r="AF43" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AG43" s="47"/>
       <c r="AH43" s="47"/>
       <c r="AI43" s="47"/>
@@ -45534,21 +45543,18 @@
       <c r="DH43" s="47"/>
       <c r="DI43" s="47"/>
       <c r="DJ43" s="47"/>
+      <c r="DK43" s="47"/>
     </row>
-    <row r="44" spans="2:129" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="131"/>
       <c r="C44" s="49" t="s">
         <v>171</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="50"/>
-      <c r="F44" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="F44" s="50"/>
       <c r="G44" s="48"/>
-      <c r="H44" s="48" t="s">
-        <v>162</v>
-      </c>
+      <c r="H44" s="48"/>
       <c r="I44" s="48"/>
       <c r="J44" s="48"/>
       <c r="K44" s="48"/>
@@ -45655,14 +45661,14 @@
       <c r="DH44" s="48"/>
       <c r="DI44" s="48"/>
       <c r="DJ44" s="48"/>
+      <c r="DK44" s="48"/>
     </row>
-    <row r="45" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B45" s="131"/>
       <c r="C45" s="49" t="s">
         <v>170</v>
       </c>
       <c r="D45" s="48"/>
-      <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
@@ -45688,10 +45694,10 @@
       <c r="AC45" s="47"/>
       <c r="AD45" s="47"/>
       <c r="AE45" s="47"/>
-      <c r="AF45" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG45" s="47"/>
+      <c r="AF45" s="47"/>
+      <c r="AG45" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AH45" s="47"/>
       <c r="AI45" s="47"/>
       <c r="AJ45" s="47"/>
@@ -45773,14 +45779,14 @@
       <c r="DH45" s="47"/>
       <c r="DI45" s="47"/>
       <c r="DJ45" s="47"/>
+      <c r="DK45" s="47"/>
     </row>
-    <row r="46" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B46" s="131"/>
       <c r="C46" s="49" t="s">
         <v>169</v>
       </c>
       <c r="D46" s="48"/>
-      <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
@@ -45807,10 +45813,10 @@
       <c r="AD46" s="47"/>
       <c r="AE46" s="47"/>
       <c r="AF46" s="47"/>
-      <c r="AG46" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH46" s="47"/>
+      <c r="AG46" s="47"/>
+      <c r="AH46" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="AI46" s="47"/>
       <c r="AJ46" s="47"/>
       <c r="AK46" s="47"/>
@@ -45891,14 +45897,14 @@
       <c r="DH46" s="47"/>
       <c r="DI46" s="47"/>
       <c r="DJ46" s="47"/>
+      <c r="DK46" s="47"/>
     </row>
-    <row r="47" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B47" s="131"/>
       <c r="C47" s="49" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="48"/>
-      <c r="F47" s="47"/>
       <c r="G47" s="47"/>
       <c r="H47" s="47"/>
       <c r="I47" s="47"/>
@@ -45959,10 +45965,10 @@
       <c r="BL47" s="47"/>
       <c r="BM47" s="47"/>
       <c r="BN47" s="47"/>
-      <c r="BO47" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BP47" s="47"/>
+      <c r="BO47" s="47"/>
+      <c r="BP47" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="BQ47" s="47"/>
       <c r="BR47" s="47"/>
       <c r="BS47" s="47"/>
@@ -46009,14 +46015,14 @@
       <c r="DH47" s="47"/>
       <c r="DI47" s="47"/>
       <c r="DJ47" s="47"/>
+      <c r="DK47" s="47"/>
     </row>
-    <row r="48" spans="2:129" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B48" s="131"/>
       <c r="C48" s="49" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="48"/>
-      <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
@@ -46061,10 +46067,10 @@
       <c r="AV48" s="47"/>
       <c r="AW48" s="47"/>
       <c r="AX48" s="47"/>
-      <c r="AY48" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ48" s="47"/>
+      <c r="AY48" s="47"/>
+      <c r="AZ48" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="BA48" s="47"/>
       <c r="BB48" s="47"/>
       <c r="BC48" s="47"/>
@@ -46127,14 +46133,14 @@
       <c r="DH48" s="47"/>
       <c r="DI48" s="47"/>
       <c r="DJ48" s="47"/>
+      <c r="DK48" s="47"/>
     </row>
-    <row r="49" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B49" s="131"/>
       <c r="C49" s="49" t="s">
         <v>166</v>
       </c>
       <c r="D49" s="48"/>
-      <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
       <c r="I49" s="47"/>
@@ -46181,10 +46187,10 @@
       <c r="AX49" s="47"/>
       <c r="AY49" s="47"/>
       <c r="AZ49" s="47"/>
-      <c r="BA49" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB49" s="47"/>
+      <c r="BA49" s="47"/>
+      <c r="BB49" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="BC49" s="47"/>
       <c r="BD49" s="47"/>
       <c r="BE49" s="47"/>
@@ -46245,14 +46251,14 @@
       <c r="DH49" s="47"/>
       <c r="DI49" s="47"/>
       <c r="DJ49" s="47"/>
+      <c r="DK49" s="47"/>
     </row>
-    <row r="50" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B50" s="131"/>
       <c r="C50" s="49" t="s">
         <v>165</v>
       </c>
       <c r="D50" s="48"/>
-      <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
@@ -46316,13 +46322,13 @@
       <c r="BO50" s="47"/>
       <c r="BP50" s="47"/>
       <c r="BQ50" s="47"/>
-      <c r="BR50" s="47" t="s">
-        <v>162</v>
-      </c>
+      <c r="BR50" s="47"/>
       <c r="BS50" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="BT50" s="47"/>
+      <c r="BT50" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="BU50" s="47"/>
       <c r="BV50" s="47"/>
       <c r="BW50" s="47"/>
@@ -46365,14 +46371,14 @@
       <c r="DH50" s="47"/>
       <c r="DI50" s="47"/>
       <c r="DJ50" s="47"/>
+      <c r="DK50" s="47"/>
     </row>
-    <row r="51" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B51" s="131"/>
       <c r="C51" s="49" t="s">
         <v>164</v>
       </c>
       <c r="D51" s="48"/>
-      <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
@@ -46451,10 +46457,10 @@
       <c r="CD51" s="47"/>
       <c r="CE51" s="47"/>
       <c r="CF51" s="47"/>
-      <c r="CG51" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH51" s="47"/>
+      <c r="CG51" s="47"/>
+      <c r="CH51" s="47" t="s">
+        <v>162</v>
+      </c>
       <c r="CI51" s="47"/>
       <c r="CJ51" s="47"/>
       <c r="CK51" s="47"/>
@@ -46483,13 +46489,17 @@
       <c r="DH51" s="47"/>
       <c r="DI51" s="47"/>
       <c r="DJ51" s="47"/>
+      <c r="DK51" s="47"/>
     </row>
-    <row r="52" spans="2:114" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:115" x14ac:dyDescent="0.25">
       <c r="B52" s="131"/>
       <c r="C52" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="CL52" s="43" t="s">
+      <c r="F52" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="CM52" s="43" t="s">
         <v>162</v>
       </c>
     </row>
@@ -46523,9 +46533,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="102" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="101" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="100" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="47" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="47" bestFit="1" customWidth="1"/>
@@ -46616,360 +46626,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
-        <v>233</v>
+      <c r="A1" s="120" t="s">
+        <v>220</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="120" t="s">
-        <v>332</v>
-      </c>
-      <c r="D1" s="120">
+      <c r="C1" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="119">
         <f t="shared" ref="D1:AI1" si="0">1+C1</f>
         <v>2</v>
       </c>
-      <c r="E1" s="120">
+      <c r="E1" s="119">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F1" s="120">
+      <c r="F1" s="119">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G1" s="120">
+      <c r="G1" s="119">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H1" s="120">
+      <c r="H1" s="119">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I1" s="120">
+      <c r="I1" s="119">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J1" s="120">
+      <c r="J1" s="119">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K1" s="120">
+      <c r="K1" s="119">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L1" s="120">
+      <c r="L1" s="119">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M1" s="120">
+      <c r="M1" s="119">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="N1" s="120">
+      <c r="N1" s="119">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="O1" s="120">
+      <c r="O1" s="119">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P1" s="120">
+      <c r="P1" s="119">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="Q1" s="120">
+      <c r="Q1" s="119">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R1" s="120">
+      <c r="R1" s="119">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S1" s="120">
+      <c r="S1" s="119">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T1" s="120">
+      <c r="T1" s="119">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U1" s="120">
+      <c r="U1" s="119">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V1" s="120">
+      <c r="V1" s="119">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W1" s="120">
+      <c r="W1" s="119">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X1" s="120">
+      <c r="X1" s="119">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y1" s="120">
+      <c r="Y1" s="119">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z1" s="120">
+      <c r="Z1" s="119">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA1" s="120">
+      <c r="AA1" s="119">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB1" s="120">
+      <c r="AB1" s="119">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC1" s="120">
+      <c r="AC1" s="119">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD1" s="120">
+      <c r="AD1" s="119">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE1" s="120">
+      <c r="AE1" s="119">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF1" s="120">
+      <c r="AF1" s="119">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG1" s="120">
+      <c r="AG1" s="119">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AH1" s="120">
+      <c r="AH1" s="119">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AI1" s="120">
+      <c r="AI1" s="119">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AJ1" s="120">
+      <c r="AJ1" s="119">
         <f t="shared" ref="AJ1:BO1" si="1">1+AI1</f>
         <v>34</v>
       </c>
-      <c r="AK1" s="120">
+      <c r="AK1" s="119">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AL1" s="120">
+      <c r="AL1" s="119">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AM1" s="120">
+      <c r="AM1" s="119">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AN1" s="120">
+      <c r="AN1" s="119">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AO1" s="120">
+      <c r="AO1" s="119">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AP1" s="120">
+      <c r="AP1" s="119">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AQ1" s="120">
+      <c r="AQ1" s="119">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AR1" s="120">
+      <c r="AR1" s="119">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AS1" s="120">
+      <c r="AS1" s="119">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AT1" s="120">
+      <c r="AT1" s="119">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AU1" s="120">
+      <c r="AU1" s="119">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AV1" s="120">
+      <c r="AV1" s="119">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AW1" s="120">
+      <c r="AW1" s="119">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AX1" s="120">
+      <c r="AX1" s="119">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AY1" s="120">
+      <c r="AY1" s="119">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="AZ1" s="120">
+      <c r="AZ1" s="119">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="BA1" s="120">
+      <c r="BA1" s="119">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="BB1" s="120">
+      <c r="BB1" s="119">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="BC1" s="120">
+      <c r="BC1" s="119">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="BD1" s="120">
+      <c r="BD1" s="119">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="BE1" s="120">
+      <c r="BE1" s="119">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="BF1" s="120">
+      <c r="BF1" s="119">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="BG1" s="120">
+      <c r="BG1" s="119">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="BH1" s="120">
+      <c r="BH1" s="119">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="BI1" s="120">
+      <c r="BI1" s="119">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="BJ1" s="120">
+      <c r="BJ1" s="119">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="BK1" s="120">
+      <c r="BK1" s="119">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="BL1" s="120">
+      <c r="BL1" s="119">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="BM1" s="120">
+      <c r="BM1" s="119">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="BN1" s="120">
+      <c r="BN1" s="119">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="BO1" s="120">
+      <c r="BO1" s="119">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="BP1" s="120">
+      <c r="BP1" s="119">
         <f t="shared" ref="BP1:CK1" si="2">1+BO1</f>
         <v>66</v>
       </c>
-      <c r="BQ1" s="120">
+      <c r="BQ1" s="119">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="BR1" s="120">
+      <c r="BR1" s="119">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="BS1" s="120">
+      <c r="BS1" s="119">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="BT1" s="120">
+      <c r="BT1" s="119">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="BU1" s="120">
+      <c r="BU1" s="119">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="BV1" s="120">
+      <c r="BV1" s="119">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="BW1" s="120">
+      <c r="BW1" s="119">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="BX1" s="120">
+      <c r="BX1" s="119">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="BY1" s="120">
+      <c r="BY1" s="119">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="BZ1" s="120">
+      <c r="BZ1" s="119">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="CA1" s="120">
+      <c r="CA1" s="119">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="CB1" s="120">
+      <c r="CB1" s="119">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="CC1" s="120">
+      <c r="CC1" s="119">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="CD1" s="120">
+      <c r="CD1" s="119">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="CE1" s="120">
+      <c r="CE1" s="119">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="CF1" s="120">
+      <c r="CF1" s="119">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="CG1" s="120">
+      <c r="CG1" s="119">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="CH1" s="120">
+      <c r="CH1" s="119">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="CI1" s="120">
+      <c r="CI1" s="119">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="CJ1" s="120">
+      <c r="CJ1" s="119">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="CK1" s="120">
+      <c r="CK1" s="119">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="CL1" s="120"/>
-      <c r="CM1" s="120"/>
-      <c r="CN1" s="120"/>
+      <c r="CL1" s="119"/>
+      <c r="CM1" s="119"/>
+      <c r="CN1" s="119"/>
       <c r="CO1" s="97"/>
       <c r="CP1" s="97"/>
       <c r="CQ1" s="97"/>
@@ -46984,17 +46994,17 @@
       <c r="CZ1" s="97"/>
       <c r="DA1" s="97"/>
     </row>
-    <row r="2" spans="1:105" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="114" t="s">
+    <row r="2" spans="1:105" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="113" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="91" t="s">
@@ -47043,7 +47053,7 @@
         <v>91</v>
       </c>
       <c r="T2" s="91" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="U2" s="91" t="s">
         <v>93</v>
@@ -47127,7 +47137,7 @@
         <v>119</v>
       </c>
       <c r="AV2" s="91" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AW2" s="91" t="s">
         <v>121</v>
@@ -47156,129 +47166,129 @@
       <c r="BE2" s="91" t="s">
         <v>129</v>
       </c>
-      <c r="BF2" s="117" t="s">
+      <c r="BF2" s="116" t="s">
         <v>130</v>
       </c>
       <c r="BG2" s="91" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="BH2" s="91" t="s">
         <v>132</v>
       </c>
       <c r="BI2" s="91" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="BJ2" s="91" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="BK2" s="91" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="BL2" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="BM2" s="116" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM2" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="BN2" s="115" t="s">
+      <c r="BN2" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="BO2" s="115" t="s">
+      <c r="BO2" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="BP2" s="115" t="s">
+      <c r="BP2" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="BQ2" s="115" t="s">
+      <c r="BQ2" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="BR2" s="115" t="s">
+      <c r="BR2" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="BS2" s="115" t="s">
+      <c r="BS2" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="BT2" s="115" t="s">
+      <c r="BT2" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="BU2" s="115" t="s">
+      <c r="BU2" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="BV2" s="115" t="s">
+      <c r="BV2" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="BW2" s="115" t="s">
+      <c r="BW2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="BX2" s="115" t="s">
+      <c r="BX2" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="BY2" s="115" t="s">
+      <c r="BY2" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="BZ2" s="115" t="s">
+      <c r="BZ2" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="CA2" s="115" t="s">
+      <c r="CA2" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="CB2" s="115" t="s">
+      <c r="CB2" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="CC2" s="115" t="s">
+      <c r="CC2" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="CD2" s="115" t="s">
+      <c r="CD2" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="CE2" s="115" t="s">
+      <c r="CE2" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="CF2" s="115" t="s">
+      <c r="CF2" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="CG2" s="115" t="s">
+      <c r="CG2" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="CH2" s="115" t="s">
+      <c r="CH2" s="114" t="s">
         <v>158</v>
       </c>
-      <c r="CI2" s="115" t="s">
+      <c r="CI2" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="CJ2" s="115" t="s">
+      <c r="CJ2" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="CK2" s="115" t="s">
+      <c r="CK2" s="114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:105" s="110" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="N3" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" s="110" t="s">
+    <row r="3" spans="1:105" s="109" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="110"/>
+      <c r="D3" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="109" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="C4" s="101"/>
+      <c r="A4" s="102" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="100"/>
       <c r="E4" s="52" t="s">
         <v>162</v>
       </c>
@@ -47335,26 +47345,26 @@
       <c r="BD4" s="52"/>
       <c r="BF4" s="52"/>
     </row>
-    <row r="5" spans="1:105" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>321</v>
+    <row r="5" spans="1:105" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>308</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="105"/>
-      <c r="G5" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="104"/>
+      <c r="G5" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="103" t="s">
-        <v>320</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="101"/>
+      <c r="A6" s="102" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="100"/>
       <c r="G6" s="48" t="s">
         <v>162</v>
       </c>
@@ -47368,319 +47378,319 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:105" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
-        <v>319</v>
+    <row r="7" spans="1:105" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>306</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="105"/>
+        <v>305</v>
+      </c>
+      <c r="C7" s="104"/>
     </row>
     <row r="8" spans="1:105" s="48" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>314</v>
-      </c>
-      <c r="C8" s="101"/>
+      <c r="A8" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="100"/>
       <c r="H8" s="48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:105" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
-        <v>317</v>
+    <row r="9" spans="1:105" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
+        <v>304</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" s="105"/>
-      <c r="I9" s="109" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="I9" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="101"/>
+      <c r="A10" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="100"/>
       <c r="J10" s="48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:105" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
-        <v>315</v>
+    <row r="11" spans="1:105" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>302</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="K11" s="109" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="K11" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>315</v>
-      </c>
-      <c r="B12" s="102" t="s">
-        <v>314</v>
+      <c r="A12" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>301</v>
       </c>
       <c r="L12" s="47" t="s">
         <v>162</v>
       </c>
       <c r="AT12" s="48"/>
     </row>
-    <row r="13" spans="1:105" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
-        <v>313</v>
+    <row r="13" spans="1:105" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
+        <v>300</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C13" s="105"/>
-      <c r="F13" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="M13" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ13" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="AQ13" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR13" s="109" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS13" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="F13" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ13" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ13" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR13" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS13" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="102" t="s">
         <v>298</v>
       </c>
+      <c r="B14" s="101" t="s">
+        <v>285</v>
+      </c>
     </row>
-    <row r="15" spans="1:105" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>310</v>
+    <row r="15" spans="1:105" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
+        <v>297</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="105"/>
-      <c r="O15" s="104" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="O15" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A16" s="103" t="s">
-        <v>309</v>
-      </c>
-      <c r="B16" s="102" t="s">
-        <v>294</v>
+      <c r="A16" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="101" t="s">
+        <v>281</v>
       </c>
       <c r="P16" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
-        <v>308</v>
+    <row r="17" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105" t="s">
+        <v>295</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="105"/>
-      <c r="R17" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="104"/>
+      <c r="R17" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>298</v>
+      <c r="A18" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="101" t="s">
+        <v>285</v>
       </c>
       <c r="I18" s="47" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="S18" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="109" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106" t="s">
-        <v>305</v>
+    <row r="19" spans="1:35" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105" t="s">
+        <v>292</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="T19" s="109" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="104"/>
+      <c r="T19" s="108" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="102" t="s">
-        <v>298</v>
+      <c r="A20" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="101" t="s">
+        <v>285</v>
       </c>
       <c r="U20" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="s">
-        <v>302</v>
+    <row r="21" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="105" t="s">
+        <v>289</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="105"/>
-      <c r="V21" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="104"/>
+      <c r="V21" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
-        <v>256</v>
-      </c>
-      <c r="B22" s="102" t="s">
-        <v>298</v>
+      <c r="A22" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="101" t="s">
+        <v>285</v>
       </c>
       <c r="W22" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="s">
-        <v>301</v>
+    <row r="23" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="105" t="s">
+        <v>288</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="C23" s="105"/>
-      <c r="X23" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="C23" s="104"/>
+      <c r="X23" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="102" t="s">
-        <v>298</v>
-      </c>
-      <c r="C24" s="101"/>
+      <c r="A24" s="102" t="s">
+        <v>287</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="100"/>
       <c r="Y24" s="48" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
-        <v>249</v>
+    <row r="25" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="105" t="s">
+        <v>236</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="Z25" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="104"/>
+      <c r="Z25" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="B26" s="102" t="s">
-        <v>298</v>
+      <c r="A26" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="101" t="s">
+        <v>285</v>
       </c>
       <c r="AA26" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="106" t="s">
-        <v>297</v>
+    <row r="27" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="105" t="s">
+        <v>284</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="AB27" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="C27" s="104"/>
+      <c r="AB27" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="102" t="s">
-        <v>294</v>
+      <c r="A28" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>281</v>
       </c>
       <c r="AC28" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
-        <v>295</v>
+    <row r="29" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="105" t="s">
+        <v>282</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="AD29" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF29" s="104" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" s="104"/>
+      <c r="AD29" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF29" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="s">
-        <v>293</v>
-      </c>
-      <c r="B30" s="102" t="s">
-        <v>292</v>
+      <c r="A30" s="102" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>279</v>
       </c>
       <c r="AE30" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
-        <v>291</v>
+    <row r="31" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="105" t="s">
+        <v>278</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C31" s="105"/>
-      <c r="AG31" s="104" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="104"/>
+      <c r="AG31" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="B32" s="102" t="s">
-        <v>288</v>
+      <c r="A32" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>275</v>
       </c>
       <c r="AH32" s="47" t="s">
         <v>162</v>
@@ -47689,30 +47699,30 @@
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
-        <v>287</v>
-      </c>
-      <c r="B33" s="108" t="s">
-        <v>286</v>
-      </c>
-      <c r="C33" s="107"/>
-      <c r="AK33" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL33" s="104" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM33" s="104" t="s">
+    <row r="33" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C33" s="106"/>
+      <c r="AK33" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL33" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM33" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" s="102" t="s">
-        <v>284</v>
+      <c r="A34" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34" s="101" t="s">
+        <v>271</v>
       </c>
       <c r="AN34" s="47" t="s">
         <v>162</v>
@@ -47727,48 +47737,48 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
-        <v>283</v>
+    <row r="35" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="105" t="s">
+        <v>270</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C35" s="105"/>
-      <c r="AT35" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="104"/>
+      <c r="AT35" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A36" s="103" t="s">
-        <v>282</v>
-      </c>
-      <c r="B36" s="102" t="s">
-        <v>267</v>
+      <c r="A36" s="102" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="AU36" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
-        <v>281</v>
+    <row r="37" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="105" t="s">
+        <v>268</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" s="105"/>
-      <c r="AV37" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="104"/>
+      <c r="AV37" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" s="102" t="s">
+      <c r="A38" s="102" t="s">
         <v>267</v>
       </c>
+      <c r="B38" s="101" t="s">
+        <v>254</v>
+      </c>
       <c r="AW38" s="47" t="s">
         <v>162</v>
       </c>
@@ -47776,208 +47786,208 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106" t="s">
-        <v>279</v>
+    <row r="39" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="105" t="s">
+        <v>266</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C39" s="105"/>
-      <c r="AZ39" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="104"/>
+      <c r="AZ39" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A40" s="103" t="s">
-        <v>277</v>
-      </c>
-      <c r="B40" s="102" t="s">
-        <v>236</v>
+      <c r="A40" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="BA40" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="106" t="s">
-        <v>276</v>
+    <row r="41" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="105" t="s">
+        <v>263</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="BB41" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" s="104"/>
+      <c r="BB41" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A42" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" s="102" t="s">
-        <v>274</v>
+      <c r="A42" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="101" t="s">
+        <v>261</v>
       </c>
       <c r="BC42" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
-        <v>272</v>
+    <row r="43" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="105" t="s">
+        <v>259</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="105"/>
-      <c r="BD43" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="104"/>
+      <c r="BD43" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A44" s="103" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="102" t="s">
-        <v>267</v>
+      <c r="A44" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="BD44" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="106" t="s">
-        <v>272</v>
+    <row r="45" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="105" t="s">
+        <v>259</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>271</v>
-      </c>
-      <c r="C45" s="105"/>
-      <c r="BE45" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="104"/>
+      <c r="BE45" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A46" s="103" t="s">
-        <v>270</v>
-      </c>
-      <c r="B46" s="102" t="s">
-        <v>267</v>
+      <c r="A46" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="BE46" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="106" t="s">
-        <v>269</v>
+    <row r="47" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="105" t="s">
+        <v>256</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="BF47" s="104" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="104"/>
+      <c r="BF47" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A48" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="B48" s="102" t="s">
-        <v>267</v>
+      <c r="A48" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>254</v>
       </c>
       <c r="BG48" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106" t="s">
-        <v>266</v>
+    <row r="49" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="105" t="s">
+        <v>253</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="BH49" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="BH49" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A50" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="102" t="s">
-        <v>265</v>
+      <c r="A50" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>252</v>
       </c>
       <c r="BI50" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="106" t="s">
-        <v>264</v>
+    <row r="51" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="105" t="s">
+        <v>251</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="C51" s="105"/>
-      <c r="BJ51" s="104" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="BJ51" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A52" s="103" t="s">
-        <v>262</v>
-      </c>
-      <c r="B52" s="102" t="s">
-        <v>261</v>
+      <c r="A52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" s="101" t="s">
+        <v>248</v>
       </c>
       <c r="BK52" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="106" t="s">
-        <v>260</v>
+    <row r="53" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="105" t="s">
+        <v>247</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" s="105"/>
-      <c r="BL53" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="104"/>
+      <c r="BL53" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A54" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="B54" s="102" t="s">
-        <v>258</v>
+      <c r="A54" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>245</v>
       </c>
       <c r="BM54" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106" t="s">
-        <v>256</v>
+    <row r="55" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="105" t="s">
+        <v>243</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="105"/>
-      <c r="BN55" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="104"/>
+      <c r="BN55" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A56" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" s="102" t="s">
-        <v>236</v>
+      <c r="A56" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="D56" s="47" t="s">
         <v>195</v>
@@ -47986,68 +47996,68 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="106" t="s">
-        <v>256</v>
+    <row r="57" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="105" t="s">
+        <v>243</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="105"/>
-      <c r="BP57" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="104"/>
+      <c r="BP57" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A58" s="103" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" s="102" t="s">
-        <v>236</v>
+      <c r="A58" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="BQ58" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="106" t="s">
-        <v>254</v>
+    <row r="59" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="105" t="s">
+        <v>241</v>
       </c>
       <c r="B59" s="16"/>
-      <c r="C59" s="105"/>
-      <c r="BR59" s="104" t="s">
+      <c r="C59" s="104"/>
+      <c r="BR59" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A60" s="103" t="s">
-        <v>253</v>
-      </c>
-      <c r="B60" s="102" t="s">
-        <v>252</v>
+      <c r="A60" s="102" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="101" t="s">
+        <v>239</v>
       </c>
       <c r="BS60" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="106" t="s">
-        <v>251</v>
+    <row r="61" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="105" t="s">
+        <v>238</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="105"/>
-      <c r="BT61" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" s="104"/>
+      <c r="BT61" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A62" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" s="102" t="s">
-        <v>248</v>
+      <c r="A62" s="102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="101" t="s">
+        <v>235</v>
       </c>
       <c r="BU62" s="47" t="s">
         <v>162</v>
@@ -48074,107 +48084,107 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:82" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="106" t="s">
-        <v>247</v>
+    <row r="63" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="105" t="s">
+        <v>234</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="105"/>
-      <c r="CC63" s="104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="104"/>
+      <c r="CC63" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A64" s="103" t="s">
-        <v>245</v>
-      </c>
-      <c r="B64" s="102" t="s">
-        <v>236</v>
+      <c r="A64" s="102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="CD64" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:89" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="106" t="s">
-        <v>244</v>
+    <row r="65" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="105" t="s">
+        <v>231</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C65" s="105"/>
-      <c r="CE65" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" s="104"/>
+      <c r="CE65" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A66" s="103" t="s">
-        <v>243</v>
-      </c>
-      <c r="B66" s="102" t="s">
-        <v>236</v>
+      <c r="A66" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="CF66" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:89" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="106" t="s">
-        <v>242</v>
+    <row r="67" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="105" t="s">
+        <v>229</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C67" s="105"/>
-      <c r="CG67" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C67" s="104"/>
+      <c r="CG67" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A68" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="102" t="s">
-        <v>236</v>
+      <c r="A68" s="102" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="CH68" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:89" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="106" t="s">
-        <v>239</v>
+    <row r="69" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="105" t="s">
+        <v>226</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="105"/>
-      <c r="CI69" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="104"/>
+      <c r="CI69" s="103" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A70" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="B70" s="102" t="s">
-        <v>236</v>
+      <c r="A70" s="102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" s="101" t="s">
+        <v>223</v>
       </c>
       <c r="CJ70" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:89" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="106" t="s">
-        <v>237</v>
+    <row r="71" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="105" t="s">
+        <v>224</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="C71" s="105"/>
-      <c r="CK71" s="104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="104"/>
+      <c r="CK71" s="103" t="s">
         <v>162</v>
       </c>
     </row>
@@ -48186,18 +48196,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC264C4-1330-4297-8A2B-AD60F263B73D}">
-  <dimension ref="A2:AH33"/>
+  <dimension ref="A2:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="127" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="126" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -48234,995 +48244,1064 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="128" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="122" t="s">
+      <c r="A2" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="121" t="s">
         <v>197</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="102" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="122" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="123" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="125" t="s">
+      <c r="J2" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="K2" s="121" t="s">
+      <c r="K2" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="126" t="s">
+      <c r="L2" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="103" t="s">
+      <c r="M2" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="N2" s="103" t="s">
+      <c r="N2" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="123" t="s">
+      <c r="O2" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="103" t="s">
+      <c r="P2" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="103" t="s">
+      <c r="Q2" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="R2" s="103" t="s">
+      <c r="R2" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="103" t="s">
+      <c r="S2" s="102" t="s">
         <v>178</v>
       </c>
-      <c r="T2" s="103" t="s">
+      <c r="T2" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="U2" s="103" t="s">
+      <c r="U2" s="102" t="s">
         <v>176</v>
       </c>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="W2" s="103" t="s">
+      <c r="W2" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="103" t="s">
+      <c r="X2" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="Y2" s="103" t="s">
+      <c r="Y2" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" s="103" t="s">
+      <c r="Z2" s="102" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="103" t="s">
+      <c r="AA2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="AB2" s="103" t="s">
+      <c r="AB2" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" s="103" t="s">
+      <c r="AC2" s="102" t="s">
         <v>168</v>
       </c>
-      <c r="AD2" s="103" t="s">
+      <c r="AD2" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="AE2" s="103" t="s">
+      <c r="AE2" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="AF2" s="103" t="s">
+      <c r="AF2" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="AG2" s="103" t="s">
+      <c r="AG2" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="AH2" s="100" t="s">
+      <c r="AH2" s="99" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
-      <c r="AG3" s="128"/>
-      <c r="AH3" s="128"/>
+      <c r="A3" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
     </row>
     <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
-      <c r="AG4" s="128"/>
-      <c r="AH4" s="128"/>
+      <c r="A4" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
+      <c r="A5" s="129" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="128"/>
-      <c r="Y6" s="128"/>
-      <c r="Z6" s="128"/>
-      <c r="AA6" s="128"/>
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
-      <c r="AF6" s="128"/>
-      <c r="AG6" s="128"/>
-      <c r="AH6" s="128"/>
+      <c r="A6" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="B7" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="128"/>
-      <c r="W7" s="128"/>
-      <c r="X7" s="128"/>
-      <c r="Y7" s="128"/>
-      <c r="Z7" s="128"/>
-      <c r="AA7" s="128"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
+      <c r="A7" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
-        <v>346</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="128"/>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="128"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
+      <c r="A8" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
     </row>
     <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="H9" s="128"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="128"/>
-      <c r="N9" s="128"/>
-      <c r="O9" s="128"/>
-      <c r="P9" s="128"/>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
+      <c r="A9" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
     </row>
     <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="128"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="128"/>
+      <c r="A10" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
     </row>
-    <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="126" t="s">
-        <v>343</v>
-      </c>
-      <c r="B11" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="128"/>
-      <c r="P11" s="128"/>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="128"/>
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="128"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="128"/>
+      <c r="A12" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
     </row>
     <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="H13" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="128"/>
+      <c r="A13" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="127"/>
     </row>
     <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="128"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="P14" s="128"/>
-      <c r="Q14" s="128"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="128"/>
-      <c r="AF14" s="128"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="128"/>
+      <c r="A14" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127"/>
+      <c r="H14" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
     </row>
     <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="124" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="127" t="s">
+      <c r="A15" s="102" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="128"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="128"/>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="128"/>
-      <c r="AF15" s="128"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="128"/>
+      <c r="B15" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="127"/>
     </row>
     <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="124" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="128"/>
-      <c r="AF16" s="128"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="128"/>
+      <c r="A16" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="128" t="s">
-        <v>162</v>
-      </c>
+      <c r="A17" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
     </row>
     <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="B18" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="128"/>
-      <c r="AF18" s="128"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="128" t="s">
+      <c r="A18" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="128"/>
-      <c r="AF19" s="128"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="128" t="s">
+      <c r="A19" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
-      <c r="M20" s="128"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="128"/>
-      <c r="P20" s="128"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="128"/>
-      <c r="AF20" s="128"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="128" t="s">
+      <c r="A20" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="128"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="128"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="128"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="128"/>
+      <c r="A21" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" s="127" t="s">
-        <v>337</v>
-      </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
+      <c r="A22" s="99" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
     </row>
     <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128" t="s">
-        <v>162</v>
-      </c>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
-      <c r="M23" s="128"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="128"/>
-      <c r="P23" s="128"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
+      <c r="A23" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
     </row>
     <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="103"/>
+      <c r="A24" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="127"/>
+      <c r="R24" s="127"/>
+      <c r="S24" s="127"/>
+      <c r="T24" s="127"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="127"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="127"/>
     </row>
     <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="103"/>
+      <c r="A25" s="102" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH25" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="103"/>
+      <c r="A26" s="102" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="T26" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="103"/>
+      <c r="A27" s="102" t="s">
+        <v>378</v>
+      </c>
+      <c r="B27" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="T27" s="127" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
+      <c r="A28" s="102"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="103"/>
+      <c r="A29" s="102"/>
     </row>
     <row r="30" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="103"/>
+      <c r="A30" s="102"/>
     </row>
     <row r="31" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="103"/>
+      <c r="A31" s="102"/>
     </row>
     <row r="32" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="103"/>
+      <c r="A32" s="102"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
+      <c r="A33" s="102"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49231,10 +49310,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F66C91-4BF6-4937-8467-CCC69562F4F2}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49242,374 +49321,413 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.85546875" customWidth="1"/>
-    <col min="23" max="23" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.85546875" customWidth="1"/>
+    <col min="24" max="24" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
         <v>358</v>
       </c>
+      <c r="B2" s="121" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="122" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="I2" s="123" t="s">
+        <v>334</v>
+      </c>
+      <c r="J2" s="120" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="102" t="s">
+        <v>331</v>
+      </c>
+      <c r="M2" s="102" t="s">
+        <v>332</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>335</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="123" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q2" s="102" t="s">
+        <v>338</v>
+      </c>
+      <c r="R2" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="S2" s="102" t="s">
+        <v>340</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="U2" s="99" t="s">
+        <v>342</v>
+      </c>
+      <c r="V2" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="W2" s="102" t="s">
+        <v>344</v>
+      </c>
+      <c r="X2" s="129" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y2" s="129" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+    <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="M3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="O3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="P3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="R3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="S3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="U3" s="126" t="s">
+        <v>347</v>
+      </c>
+      <c r="V3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="W3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="X3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y3" s="126" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="126" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="126" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="J4" s="126">
+        <v>1</v>
+      </c>
+      <c r="K4" s="126">
+        <v>1</v>
+      </c>
+      <c r="L4" s="126">
+        <v>1</v>
+      </c>
+      <c r="M4" s="126">
+        <v>1</v>
+      </c>
+      <c r="N4" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="O4" s="126" t="s">
+        <v>352</v>
+      </c>
+      <c r="P4" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q4" s="126" t="s">
+        <v>353</v>
+      </c>
+      <c r="R4" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="S4" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="T4" s="126">
+        <v>1</v>
+      </c>
+      <c r="U4" s="126" t="s">
+        <v>355</v>
+      </c>
+      <c r="V4" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="W4" s="126" t="s">
+        <v>357</v>
+      </c>
+      <c r="X4" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y4" s="126" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="122" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="G5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="126" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="126" t="s">
+        <v>367</v>
+      </c>
+      <c r="M5" s="126" t="s">
+        <v>368</v>
+      </c>
+      <c r="N5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="O5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="P5" s="126" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="R5" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="S5" s="126" t="s">
+        <v>369</v>
+      </c>
+      <c r="T5" s="126" t="s">
+        <v>370</v>
+      </c>
+      <c r="U5" s="126" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="122" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="103" t="s">
-        <v>336</v>
-      </c>
-      <c r="D2" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="123" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="103" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="124" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="124" t="s">
-        <v>347</v>
-      </c>
-      <c r="I2" s="121" t="s">
-        <v>342</v>
-      </c>
-      <c r="J2" s="126" t="s">
-        <v>343</v>
-      </c>
-      <c r="K2" s="103" t="s">
-        <v>344</v>
-      </c>
-      <c r="L2" s="103" t="s">
-        <v>345</v>
-      </c>
-      <c r="M2" s="103" t="s">
-        <v>348</v>
-      </c>
-      <c r="N2" s="124" t="s">
-        <v>349</v>
-      </c>
-      <c r="O2" s="124" t="s">
-        <v>350</v>
-      </c>
-      <c r="P2" s="103" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q2" s="103" t="s">
-        <v>352</v>
-      </c>
-      <c r="R2" s="103" t="s">
-        <v>353</v>
-      </c>
-      <c r="S2" s="103" t="s">
-        <v>354</v>
-      </c>
-      <c r="T2" s="100" t="s">
-        <v>355</v>
-      </c>
-      <c r="U2" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="V2" s="103" t="s">
-        <v>357</v>
+      <c r="V5" s="126" t="s">
+        <v>372</v>
+      </c>
+      <c r="W5" s="126" t="s">
+        <v>371</v>
+      </c>
+      <c r="X5" s="126" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y5" s="126" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="G3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="H3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="I3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="J3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="K3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="L3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="M3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="O3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="P3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="R3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="S3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="T3" s="127" t="s">
-        <v>360</v>
-      </c>
-      <c r="U3" s="127" t="s">
-        <v>359</v>
-      </c>
-      <c r="V3" s="127" t="s">
-        <v>359</v>
-      </c>
+    <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="123"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
-        <v>372</v>
-      </c>
-      <c r="B4" s="127" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>362</v>
-      </c>
-      <c r="D4" s="127" t="s">
-        <v>361</v>
-      </c>
-      <c r="E4" s="127" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="127" t="s">
-        <v>363</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="H4" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" s="127">
-        <v>1</v>
-      </c>
-      <c r="J4" s="127">
-        <v>1</v>
-      </c>
-      <c r="K4" s="127">
-        <v>1</v>
-      </c>
-      <c r="L4" s="127">
-        <v>1</v>
-      </c>
-      <c r="M4" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="N4" s="127" t="s">
-        <v>365</v>
-      </c>
-      <c r="O4" s="127" t="s">
-        <v>364</v>
-      </c>
-      <c r="P4" s="127" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q4" s="127" t="s">
-        <v>367</v>
-      </c>
-      <c r="R4" s="127" t="s">
-        <v>367</v>
-      </c>
-      <c r="S4" s="127">
-        <v>1</v>
-      </c>
-      <c r="T4" s="127" t="s">
-        <v>368</v>
-      </c>
-      <c r="U4" s="127" t="s">
-        <v>369</v>
-      </c>
-      <c r="V4" s="127" t="s">
-        <v>370</v>
-      </c>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="123" t="s">
-        <v>374</v>
-      </c>
-      <c r="B5" s="127" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" s="127" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>376</v>
-      </c>
-      <c r="E5" s="127" t="s">
-        <v>376</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="H5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="I5" s="127" t="s">
-        <v>378</v>
-      </c>
-      <c r="J5" s="127" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="127" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="127" t="s">
-        <v>381</v>
-      </c>
-      <c r="M5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="N5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="O5" s="127" t="s">
-        <v>377</v>
-      </c>
-      <c r="P5" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="R5" s="127" t="s">
-        <v>382</v>
-      </c>
-      <c r="S5" s="127" t="s">
-        <v>383</v>
-      </c>
-      <c r="T5" s="127" t="s">
-        <v>384</v>
-      </c>
-      <c r="U5" s="127" t="s">
-        <v>385</v>
-      </c>
-      <c r="V5" s="127" t="s">
-        <v>384</v>
-      </c>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="120"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="124"/>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
+      <c r="B9" s="125"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
+      <c r="B10" s="102"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="121"/>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
-      <c r="B9" s="126"/>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="103"/>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="123"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="B15" s="102"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="124"/>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="124"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="103"/>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="103"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="103"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="99"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
+      <c r="A22" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AE06F6BC-417A-49D9-B8A4-77351E8F5CCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E2FE5D8-C277-449F-BD0A-8683D480CE37}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -2110,12 +2110,12 @@
   </sheetPr>
   <dimension ref="A1:FE231"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="22">
         <v>2</v>
@@ -5148,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="M15" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" s="22">
         <v>1</v>
@@ -38038,8 +38038,8 @@
   </sheetPr>
   <dimension ref="A1:EL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="S21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AC21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="T38" sqref="T38"/>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5E2FE5D8-C277-449F-BD0A-8683D480CE37}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F49602A1-B6C2-4BA5-A591-65B04DBF77D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="382">
   <si>
     <t>Hôtel</t>
   </si>
@@ -1169,6 +1169,9 @@
   <si>
     <t>Conso</t>
   </si>
+  <si>
+    <t>Projet Immobilier</t>
+  </si>
 </sst>
 </file>
 
@@ -2111,11 +2114,11 @@
   <dimension ref="A1:FE231"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2191,8 @@
     <col min="76" max="76" width="17.140625" style="34" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="34.42578125" style="34" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="57.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="79" max="91" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" customWidth="1"/>
+    <col min="80" max="91" width="4.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:161" s="32" customFormat="1" x14ac:dyDescent="0.25">
@@ -2741,7 +2745,9 @@
       <c r="BZ2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="CA2" s="5"/>
+      <c r="CA2" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="CB2" s="5"/>
       <c r="CC2" s="5"/>
       <c r="CD2" s="5"/>
@@ -9425,7 +9431,9 @@
       <c r="BX40" s="19"/>
       <c r="BY40" s="19"/>
       <c r="BZ40" s="19"/>
-      <c r="CA40" s="39"/>
+      <c r="CA40" s="39">
+        <v>1</v>
+      </c>
       <c r="CB40" s="39"/>
       <c r="CC40" s="39"/>
       <c r="CD40" s="39"/>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F49602A1-B6C2-4BA5-A591-65B04DBF77D6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{743FD6B3-8D55-48E7-8194-0C4650101BDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="7275" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
     <sheet name="Ref couts" sheetId="5" r:id="rId2"/>
-    <sheet name="Ref revenus" sheetId="6" r:id="rId3"/>
+    <sheet name="Ref revenus" sheetId="13" r:id="rId3"/>
     <sheet name="Cout x Tableau" sheetId="7" r:id="rId4"/>
-    <sheet name="Tableau x Features" sheetId="11" r:id="rId5"/>
-    <sheet name="output" sheetId="12" r:id="rId6"/>
+    <sheet name="Rev x Tableau" sheetId="14" r:id="rId5"/>
+    <sheet name="Tableau x Features" sheetId="11" r:id="rId6"/>
+    <sheet name="Tableau x Features rev" sheetId="15" r:id="rId7"/>
+    <sheet name="output" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="427">
   <si>
     <t>Hôtel</t>
   </si>
@@ -1172,6 +1174,141 @@
   <si>
     <t>Projet Immobilier</t>
   </si>
+  <si>
+    <t>Frais de scolarité mensuels</t>
+  </si>
+  <si>
+    <t>Prix de vente par produit</t>
+  </si>
+  <si>
+    <t>Ventes en unités de produit</t>
+  </si>
+  <si>
+    <t>Prix du m2 par couple (zone - standig)</t>
+  </si>
+  <si>
+    <t>Capacité par couple (zone - standig)</t>
+  </si>
+  <si>
+    <t>Nombre d'unités vendues par type de médicament</t>
+  </si>
+  <si>
+    <t>Prix par type médicament</t>
+  </si>
+  <si>
+    <t>Parts par type de prestation</t>
+  </si>
+  <si>
+    <t>Prix par type de prestation</t>
+  </si>
+  <si>
+    <t>Durée moyenne de la prestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps d'ouverture journalier </t>
+  </si>
+  <si>
+    <t>Taux de remplissage (véhicules transport)</t>
+  </si>
+  <si>
+    <t>Frais (annuels par élève - transport)</t>
+  </si>
+  <si>
+    <t>Capacité (places élèves - transport)</t>
+  </si>
+  <si>
+    <t>Frais (annuels par élève - classes)</t>
+  </si>
+  <si>
+    <t>Taux de remplissage (classes)</t>
+  </si>
+  <si>
+    <t>Capacité (places élèves - classes)</t>
+  </si>
+  <si>
+    <t>Nombre de plats livrés</t>
+  </si>
+  <si>
+    <t>Frais variables facturés</t>
+  </si>
+  <si>
+    <t>Frais fixes facturés</t>
+  </si>
+  <si>
+    <t>Affluence de clients</t>
+  </si>
+  <si>
+    <t>Prix paniers moyens</t>
+  </si>
+  <si>
+    <t>Parts paniers moyens</t>
+  </si>
+  <si>
+    <t>Produits fabriqués vendus</t>
+  </si>
+  <si>
+    <t>Ventes de médicaments</t>
+  </si>
+  <si>
+    <t>Couple (zone - standing)</t>
+  </si>
+  <si>
+    <t>Médicament type</t>
+  </si>
+  <si>
+    <t>Consultation type</t>
+  </si>
+  <si>
+    <t>Taux de remplissage</t>
+  </si>
+  <si>
+    <t>Frais annuels de transport</t>
+  </si>
+  <si>
+    <t>Capacité totale</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>[Janv, Dec]</t>
+  </si>
+  <si>
+    <t>Pourecentage variable</t>
+  </si>
+  <si>
+    <t>Fixe facturé</t>
+  </si>
+  <si>
+    <t>Panier</t>
+  </si>
+  <si>
+    <t>A afficher sur les colonnes</t>
+  </si>
+  <si>
+    <t>Nbr de couples (zone - standing)</t>
+  </si>
+  <si>
+    <t>Nbr de type de médicaments</t>
+  </si>
+  <si>
+    <t>Nbr de type de consultations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nbr de niveaux </t>
+  </si>
+  <si>
+    <t>Nbr de niveaux</t>
+  </si>
+  <si>
+    <t>Nbr de paniers</t>
+  </si>
+  <si>
+    <t>Nombre de colonnes (à demander)</t>
+  </si>
+  <si>
+    <t>A  afficeher sur les lignes</t>
+  </si>
 </sst>
 </file>
 
@@ -1246,7 +1383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1274,6 +1411,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,7 +1591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1795,6 +1938,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1828,6 +1980,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2113,7 +2271,7 @@
   </sheetPr>
   <dimension ref="A1:FE231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -38830,10 +38988,10 @@
       <c r="DR2" s="90"/>
     </row>
     <row r="3" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="142" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="137"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="86" t="s">
         <v>194</v>
       </c>
@@ -38960,8 +39118,8 @@
       <c r="DR3" s="76"/>
     </row>
     <row r="4" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="131"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="86" t="s">
         <v>208</v>
       </c>
@@ -39108,8 +39266,8 @@
       <c r="EL4" s="44"/>
     </row>
     <row r="5" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="131"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="86" t="s">
         <v>196</v>
       </c>
@@ -39256,8 +39414,8 @@
       <c r="EL5" s="44"/>
     </row>
     <row r="6" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="131"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="86" t="s">
         <v>179</v>
       </c>
@@ -39404,8 +39562,8 @@
       <c r="EL6" s="44"/>
     </row>
     <row r="7" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="131"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="88" t="s">
         <v>207</v>
       </c>
@@ -39552,8 +39710,8 @@
       <c r="EL7" s="44"/>
     </row>
     <row r="8" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="131"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="88" t="s">
         <v>206</v>
       </c>
@@ -39698,8 +39856,8 @@
       <c r="EL8" s="44"/>
     </row>
     <row r="9" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="131"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="88" t="s">
         <v>205</v>
       </c>
@@ -39844,8 +40002,8 @@
       <c r="EL9" s="44"/>
     </row>
     <row r="10" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="131"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="88" t="s">
         <v>204</v>
       </c>
@@ -39990,8 +40148,8 @@
       <c r="EL10" s="44"/>
     </row>
     <row r="11" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="87" t="s">
         <v>203</v>
       </c>
@@ -40136,8 +40294,8 @@
       <c r="EL11" s="44"/>
     </row>
     <row r="12" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="131"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="86" t="s">
         <v>202</v>
       </c>
@@ -40284,8 +40442,8 @@
       <c r="EL12" s="44"/>
     </row>
     <row r="13" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="131"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="86" t="s">
         <v>201</v>
       </c>
@@ -40434,8 +40592,8 @@
       <c r="EL13" s="44"/>
     </row>
     <row r="14" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="131"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="86" t="s">
         <v>185</v>
       </c>
@@ -40580,8 +40738,8 @@
       <c r="EL14" s="44"/>
     </row>
     <row r="15" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="131"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="86" t="s">
         <v>184</v>
       </c>
@@ -40726,8 +40884,8 @@
       <c r="EL15" s="44"/>
     </row>
     <row r="16" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="131"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="86" t="s">
         <v>183</v>
       </c>
@@ -40874,8 +41032,8 @@
       <c r="EL16" s="44"/>
     </row>
     <row r="17" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="131"/>
+      <c r="A17" s="143"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="85" t="s">
         <v>179</v>
       </c>
@@ -41020,8 +41178,8 @@
       <c r="EL17" s="44"/>
     </row>
     <row r="18" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="131"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="134"/>
       <c r="C18" s="85" t="s">
         <v>200</v>
       </c>
@@ -41168,8 +41326,8 @@
       <c r="EL18" s="44"/>
     </row>
     <row r="19" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="131"/>
+      <c r="A19" s="143"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="44" t="s">
         <v>199</v>
       </c>
@@ -41296,8 +41454,8 @@
       <c r="DR19" s="62"/>
     </row>
     <row r="20" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="131"/>
+      <c r="A20" s="143"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="44" t="s">
         <v>221</v>
       </c>
@@ -41422,8 +41580,8 @@
       <c r="DR20" s="62"/>
     </row>
     <row r="21" spans="1:142" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="138"/>
+      <c r="A21" s="144"/>
+      <c r="B21" s="141"/>
       <c r="C21" s="44" t="s">
         <v>222</v>
       </c>
@@ -41548,7 +41706,7 @@
       <c r="DR21" s="80"/>
     </row>
     <row r="22" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="145" t="s">
         <v>198</v>
       </c>
       <c r="C22" s="78" t="s">
@@ -41823,7 +41981,7 @@
       <c r="DR22" s="76"/>
     </row>
     <row r="23" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="135"/>
+      <c r="B23" s="138"/>
       <c r="C23" s="49" t="s">
         <v>196</v>
       </c>
@@ -42020,7 +42178,7 @@
       <c r="DR23" s="62"/>
     </row>
     <row r="24" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="135"/>
+      <c r="B24" s="138"/>
       <c r="C24" s="49" t="s">
         <v>194</v>
       </c>
@@ -42290,7 +42448,7 @@
     </row>
     <row r="25" spans="1:142" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="135"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="61" t="s">
         <v>193</v>
       </c>
@@ -42468,7 +42626,7 @@
     </row>
     <row r="26" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="136"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="49" t="s">
         <v>192</v>
       </c>
@@ -42693,7 +42851,7 @@
       <c r="DR26" s="53"/>
     </row>
     <row r="27" spans="1:142" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="135" t="s">
         <v>191</v>
       </c>
       <c r="C27" s="74" t="s">
@@ -42878,7 +43036,7 @@
       <c r="DK27" s="65"/>
     </row>
     <row r="28" spans="1:142" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="133"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="72" t="s">
         <v>189</v>
       </c>
@@ -43128,7 +43286,7 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="1:142" s="63" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="137" t="s">
         <v>187</v>
       </c>
       <c r="C30" s="67" t="s">
@@ -43285,7 +43443,7 @@
       <c r="DR30" s="64"/>
     </row>
     <row r="31" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
+      <c r="B31" s="138"/>
       <c r="C31" s="49" t="s">
         <v>185</v>
       </c>
@@ -43514,7 +43672,7 @@
       <c r="DR31" s="62"/>
     </row>
     <row r="32" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="135"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="49" t="s">
         <v>184</v>
       </c>
@@ -43695,7 +43853,7 @@
       <c r="DR32" s="62"/>
     </row>
     <row r="33" spans="2:130" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="136"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="61" t="s">
         <v>183</v>
       </c>
@@ -43909,7 +44067,7 @@
       <c r="DR33" s="57"/>
     </row>
     <row r="34" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B34" s="130" t="s">
+      <c r="B34" s="133" t="s">
         <v>182</v>
       </c>
       <c r="C34" s="49" t="s">
@@ -44180,7 +44338,7 @@
       <c r="DR34" s="53"/>
     </row>
     <row r="35" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B35" s="131"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="49" t="s">
         <v>180</v>
       </c>
@@ -44459,7 +44617,7 @@
       <c r="DK35" s="47"/>
     </row>
     <row r="36" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B36" s="131"/>
+      <c r="B36" s="134"/>
       <c r="C36" s="49" t="s">
         <v>179</v>
       </c>
@@ -44733,7 +44891,7 @@
       <c r="DZ36" s="51"/>
     </row>
     <row r="37" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B37" s="131"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="49" t="s">
         <v>178</v>
       </c>
@@ -44864,7 +45022,7 @@
       <c r="DK37" s="47"/>
     </row>
     <row r="38" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B38" s="131"/>
+      <c r="B38" s="134"/>
       <c r="C38" s="49" t="s">
         <v>177</v>
       </c>
@@ -44990,7 +45148,7 @@
       <c r="DK38" s="47"/>
     </row>
     <row r="39" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="131"/>
+      <c r="B39" s="134"/>
       <c r="C39" s="49" t="s">
         <v>176</v>
       </c>
@@ -45110,7 +45268,7 @@
       <c r="DK39" s="48"/>
     </row>
     <row r="40" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B40" s="131"/>
+      <c r="B40" s="134"/>
       <c r="C40" s="45" t="s">
         <v>175</v>
       </c>
@@ -45200,7 +45358,7 @@
       <c r="CG40" s="51"/>
     </row>
     <row r="41" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B41" s="131"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="49" t="s">
         <v>174</v>
       </c>
@@ -45318,7 +45476,7 @@
       <c r="DK41" s="47"/>
     </row>
     <row r="42" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B42" s="131"/>
+      <c r="B42" s="134"/>
       <c r="C42" s="49" t="s">
         <v>173</v>
       </c>
@@ -45436,7 +45594,7 @@
       <c r="DK42" s="47"/>
     </row>
     <row r="43" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B43" s="131"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="49" t="s">
         <v>172</v>
       </c>
@@ -45554,7 +45712,7 @@
       <c r="DK43" s="47"/>
     </row>
     <row r="44" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="131"/>
+      <c r="B44" s="134"/>
       <c r="C44" s="49" t="s">
         <v>171</v>
       </c>
@@ -45672,7 +45830,7 @@
       <c r="DK44" s="48"/>
     </row>
     <row r="45" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B45" s="131"/>
+      <c r="B45" s="134"/>
       <c r="C45" s="49" t="s">
         <v>170</v>
       </c>
@@ -45790,7 +45948,7 @@
       <c r="DK45" s="47"/>
     </row>
     <row r="46" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B46" s="131"/>
+      <c r="B46" s="134"/>
       <c r="C46" s="49" t="s">
         <v>169</v>
       </c>
@@ -45908,7 +46066,7 @@
       <c r="DK46" s="47"/>
     </row>
     <row r="47" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B47" s="131"/>
+      <c r="B47" s="134"/>
       <c r="C47" s="49" t="s">
         <v>168</v>
       </c>
@@ -46026,7 +46184,7 @@
       <c r="DK47" s="47"/>
     </row>
     <row r="48" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B48" s="131"/>
+      <c r="B48" s="134"/>
       <c r="C48" s="49" t="s">
         <v>167</v>
       </c>
@@ -46144,7 +46302,7 @@
       <c r="DK48" s="47"/>
     </row>
     <row r="49" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B49" s="131"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="49" t="s">
         <v>166</v>
       </c>
@@ -46262,7 +46420,7 @@
       <c r="DK49" s="47"/>
     </row>
     <row r="50" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B50" s="131"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="49" t="s">
         <v>165</v>
       </c>
@@ -46382,7 +46540,7 @@
       <c r="DK50" s="47"/>
     </row>
     <row r="51" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B51" s="131"/>
+      <c r="B51" s="134"/>
       <c r="C51" s="49" t="s">
         <v>164</v>
       </c>
@@ -46500,7 +46658,7 @@
       <c r="DK51" s="47"/>
     </row>
     <row r="52" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B52" s="131"/>
+      <c r="B52" s="134"/>
       <c r="C52" s="45" t="s">
         <v>163</v>
       </c>
@@ -46526,22 +46684,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4938071-A5E6-4AA1-9549-5D9B685CA24D}">
-  <sheetPr codeName="Feuille4">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88050129-EFAE-4E87-9135-9901B257A37E}">
+  <sheetPr>
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:DA71"/>
+  <dimension ref="A1:DA72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="131" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" style="100" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="47" bestFit="1" customWidth="1"/>
@@ -46642,7 +46800,7 @@
         <v>319</v>
       </c>
       <c r="D1" s="119">
-        <f t="shared" ref="D1:AI1" si="0">1+C1</f>
+        <f t="shared" ref="D1:BO1" si="0">1+C1</f>
         <v>2</v>
       </c>
       <c r="E1" s="119">
@@ -46770,219 +46928,219 @@
         <v>33</v>
       </c>
       <c r="AJ1" s="119">
-        <f t="shared" ref="AJ1:BO1" si="1">1+AI1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AK1" s="119">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AL1" s="119">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AM1" s="119">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AN1" s="119">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AO1" s="119">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AP1" s="119">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="119">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AR1" s="119">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AS1" s="119">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="AT1" s="119">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="AU1" s="119">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="AV1" s="119">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="AW1" s="119">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="AX1" s="119">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="AY1" s="119">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="119">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="BA1" s="119">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="BB1" s="119">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="BC1" s="119">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="BD1" s="119">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="BE1" s="119">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="BF1" s="119">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="BG1" s="119">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="BH1" s="119">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="BI1" s="119">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="119">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="BK1" s="119">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="BL1" s="119">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="BM1" s="119">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="BN1" s="119">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="BO1" s="119">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="BP1" s="119">
+        <f t="shared" ref="BP1:CK1" si="1">1+BO1</f>
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="119">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="AL1" s="119">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="119">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="AM1" s="119">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="119">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AN1" s="119">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="119">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="AO1" s="119">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="119">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="AP1" s="119">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="119">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="119">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="119">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="AR1" s="119">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="119">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="AS1" s="119">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="119">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="AT1" s="119">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="119">
         <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="AU1" s="119">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="119">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="AV1" s="119">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="119">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="AW1" s="119">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="119">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="AX1" s="119">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="119">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="AY1" s="119">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="119">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="119">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="119">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="BA1" s="119">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="119">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="BB1" s="119">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="119">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="BC1" s="119">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="119">
         <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="BD1" s="119">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="119">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="BE1" s="119">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="119">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="BF1" s="119">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="BG1" s="119">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="BH1" s="119">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="BI1" s="119">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="119">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="BK1" s="119">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="BL1" s="119">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="BM1" s="119">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="BN1" s="119">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="BO1" s="119">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="BP1" s="119">
-        <f t="shared" ref="BP1:CK1" si="2">1+BO1</f>
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="119">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="BR1" s="119">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="BS1" s="119">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="BT1" s="119">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="BU1" s="119">
-        <f t="shared" si="2"/>
-        <v>71</v>
-      </c>
-      <c r="BV1" s="119">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="BW1" s="119">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="BX1" s="119">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="BY1" s="119">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="119">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="CA1" s="119">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="CB1" s="119">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="CC1" s="119">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="CD1" s="119">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="CE1" s="119">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="CF1" s="119">
-        <f t="shared" si="2"/>
-        <v>82</v>
-      </c>
-      <c r="CG1" s="119">
-        <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-      <c r="CH1" s="119">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="CI1" s="119">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="119">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
-      <c r="CK1" s="119">
-        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="CL1" s="119"/>
@@ -47289,8 +47447,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+    <row r="4" spans="1:105" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
         <v>309</v>
       </c>
       <c r="B4" s="101" t="s">
@@ -47365,24 +47523,24 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="102" t="s">
+    <row r="6" spans="1:105" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="131" t="s">
         <v>307</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="100"/>
-      <c r="G6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB6" s="48" t="s">
+      <c r="G6" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB6" s="132" t="s">
         <v>162</v>
       </c>
     </row>
@@ -47395,15 +47553,15 @@
       </c>
       <c r="C7" s="104"/>
     </row>
-    <row r="8" spans="1:105" s="48" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
+    <row r="8" spans="1:105" s="132" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="131" t="s">
         <v>302</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>301</v>
       </c>
       <c r="C8" s="100"/>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="132" t="s">
         <v>162</v>
       </c>
     </row>
@@ -47419,15 +47577,15 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:105" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+    <row r="10" spans="1:105" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="131" t="s">
         <v>303</v>
       </c>
       <c r="B10" s="101" t="s">
         <v>285</v>
       </c>
       <c r="C10" s="100"/>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="132" t="s">
         <v>162</v>
       </c>
     </row>
@@ -47444,7 +47602,7 @@
       </c>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="131" t="s">
         <v>302</v>
       </c>
       <c r="B12" s="101" t="s">
@@ -47453,7 +47611,7 @@
       <c r="L12" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="AT12" s="48"/>
+      <c r="AT12" s="132"/>
     </row>
     <row r="13" spans="1:105" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
@@ -47483,7 +47641,7 @@
       </c>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="131" t="s">
         <v>298</v>
       </c>
       <c r="B14" s="101" t="s">
@@ -47502,697 +47660,707 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+    <row r="16" spans="1:105" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="104"/>
+      <c r="O16" s="103" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B17" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="P16" s="47" t="s">
+      <c r="P17" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105" t="s">
+    <row r="18" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="R17" s="103" t="s">
+      <c r="C18" s="104"/>
+      <c r="R18" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="131" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B19" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I19" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="S18" s="47" t="s">
+      <c r="S19" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105" t="s">
+    <row r="20" spans="1:33" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="105" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="T19" s="108" t="s">
+      <c r="C20" s="104"/>
+      <c r="T20" s="108" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="131" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B21" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="U20" s="47" t="s">
+      <c r="U21" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+    <row r="22" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="105" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="V21" s="103" t="s">
+      <c r="C22" s="104"/>
+      <c r="V22" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B23" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="W22" s="47" t="s">
+      <c r="W23" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
+    <row r="24" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="105" t="s">
         <v>288</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="X23" s="103" t="s">
+      <c r="C24" s="104"/>
+      <c r="X24" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+    <row r="25" spans="1:33" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B25" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="C24" s="100"/>
-      <c r="Y24" s="48" t="s">
+      <c r="C25" s="100"/>
+      <c r="Y25" s="132" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="105" t="s">
+    <row r="26" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="Z25" s="103" t="s">
+      <c r="C26" s="104"/>
+      <c r="Z26" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="102" t="s">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B27" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="AA26" s="47" t="s">
+      <c r="AA27" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="105" t="s">
+    <row r="28" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="105" t="s">
         <v>284</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="AB27" s="103" t="s">
+      <c r="C28" s="104"/>
+      <c r="AB28" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="131" t="s">
         <v>283</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B29" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="AC28" s="47" t="s">
+      <c r="AC29" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="105" t="s">
+    <row r="30" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="105" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B30" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="C29" s="104"/>
-      <c r="AD29" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF29" s="103" t="s">
+      <c r="C30" s="104"/>
+      <c r="AD30" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF30" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="B30" s="101" t="s">
+      <c r="B31" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="AE30" s="47" t="s">
+      <c r="AE31" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:35" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="s">
+    <row r="32" spans="1:33" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="105" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B32" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="C31" s="104"/>
-      <c r="AG31" s="103" t="s">
+      <c r="C32" s="104"/>
+      <c r="AG32" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="102" t="s">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A33" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B33" s="101" t="s">
         <v>275</v>
       </c>
-      <c r="AH32" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI32" s="47" t="s">
+      <c r="AH33" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI33" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="105" t="s">
+    <row r="34" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="105" t="s">
         <v>274</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B34" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="AK33" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL33" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM33" s="103" t="s">
+      <c r="C34" s="106"/>
+      <c r="AK34" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL34" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM34" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35" s="131" t="s">
         <v>272</v>
       </c>
-      <c r="B34" s="101" t="s">
+      <c r="B35" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="AN34" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO34" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP34" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AY34" s="47" t="s">
+      <c r="AN35" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO35" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP35" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY35" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="105" t="s">
+    <row r="36" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="105" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="104"/>
-      <c r="AT35" s="103" t="s">
+      <c r="C36" s="104"/>
+      <c r="AT36" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A36" s="102" t="s">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A37" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="101" t="s">
+      <c r="B37" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="AU36" s="47" t="s">
+      <c r="AU37" s="47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+    <row r="38" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="105" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="AV37" s="103" t="s">
+      <c r="C38" s="104"/>
+      <c r="AV38" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A38" s="102" t="s">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A39" s="131" t="s">
         <v>267</v>
       </c>
-      <c r="B38" s="101" t="s">
+      <c r="B39" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="AW38" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX38" s="47" t="s">
+      <c r="AW39" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX39" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="105" t="s">
+    <row r="40" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="105" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C39" s="104"/>
-      <c r="AZ39" s="103" t="s">
+      <c r="C40" s="104"/>
+      <c r="AZ40" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A41" s="131" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="101" t="s">
+      <c r="B41" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="BA40" s="47" t="s">
+      <c r="BA41" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="105" t="s">
+    <row r="42" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="BB41" s="103" t="s">
+      <c r="C42" s="104"/>
+      <c r="BB42" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A43" s="131" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B43" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="BC42" s="47" t="s">
+      <c r="BC43" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="105" t="s">
+    <row r="44" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B44" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="BD43" s="103" t="s">
+      <c r="C44" s="104"/>
+      <c r="BD44" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A45" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="101" t="s">
+      <c r="B45" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="BD44" s="47" t="s">
+      <c r="BD45" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="105" t="s">
+    <row r="46" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="105" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B46" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="BE45" s="103" t="s">
+      <c r="C46" s="104"/>
+      <c r="BE46" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A46" s="102" t="s">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A47" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="B47" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="BE46" s="47" t="s">
+      <c r="BE47" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="105" t="s">
+    <row r="48" spans="1:58" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B48" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="BF47" s="103" t="s">
+      <c r="C48" s="104"/>
+      <c r="BF48" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A48" s="102" t="s">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A49" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="B48" s="101" t="s">
+      <c r="B49" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="BG48" s="47" t="s">
+      <c r="BG49" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="105" t="s">
+    <row r="50" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B50" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="104"/>
-      <c r="BH49" s="103" t="s">
+      <c r="C50" s="104"/>
+      <c r="BH50" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A50" s="102" t="s">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A51" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="B50" s="101" t="s">
+      <c r="B51" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="BI50" s="47" t="s">
+      <c r="BI51" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="51" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="105" t="s">
+    <row r="52" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="105" t="s">
         <v>251</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B52" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="BJ51" s="103" t="s">
+      <c r="C52" s="104"/>
+      <c r="BJ52" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A52" s="102" t="s">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A53" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="B52" s="101" t="s">
+      <c r="B53" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="BK52" s="47" t="s">
+      <c r="BK53" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="105" t="s">
+    <row r="54" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="BL53" s="103" t="s">
+      <c r="C54" s="104"/>
+      <c r="BL54" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A54" s="102" t="s">
+    <row r="55" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A55" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="B54" s="101" t="s">
+      <c r="B55" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="BM54" s="47" t="s">
+      <c r="BM55" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="105" t="s">
+    <row r="56" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B56" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="BN55" s="103" t="s">
+      <c r="C56" s="104"/>
+      <c r="BN56" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A56" s="102" t="s">
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A57" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="B56" s="101" t="s">
+      <c r="B57" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D57" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="BO56" s="47" t="s">
+      <c r="BO57" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="105" t="s">
+    <row r="58" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B58" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="104"/>
-      <c r="BP57" s="103" t="s">
+      <c r="C58" s="104"/>
+      <c r="BP58" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="58" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A59" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="B58" s="101" t="s">
+      <c r="B59" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="BQ58" s="47" t="s">
+      <c r="BQ59" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="105" t="s">
+    <row r="60" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="104"/>
-      <c r="BR59" s="103" t="s">
+      <c r="B60" s="16"/>
+      <c r="C60" s="104"/>
+      <c r="BR60" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A60" s="102" t="s">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A61" s="131" t="s">
         <v>240</v>
       </c>
-      <c r="B60" s="101" t="s">
+      <c r="B61" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="BS60" s="47" t="s">
+      <c r="BS61" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="105" t="s">
+    <row r="62" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B62" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="104"/>
-      <c r="BT61" s="103" t="s">
+      <c r="C62" s="104"/>
+      <c r="BT62" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="62" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A62" s="102" t="s">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A63" s="131" t="s">
         <v>236</v>
       </c>
-      <c r="B62" s="101" t="s">
+      <c r="B63" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="BU62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BV62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BW62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BY62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="BZ62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="CA62" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB62" s="47" t="s">
+      <c r="BU63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BV63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BW63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BY63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="BZ63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="CA63" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB63" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:82" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="105" t="s">
+    <row r="64" spans="1:81" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B64" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C63" s="104"/>
-      <c r="CC63" s="103" t="s">
+      <c r="C64" s="104"/>
+      <c r="CC64" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="64" spans="1:82" x14ac:dyDescent="0.25">
-      <c r="A64" s="102" t="s">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A65" s="131" t="s">
         <v>232</v>
       </c>
-      <c r="B64" s="101" t="s">
+      <c r="B65" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="CD64" s="47" t="s">
+      <c r="CD65" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="105" t="s">
+    <row r="66" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="105" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B66" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="104"/>
-      <c r="CE65" s="103" t="s">
+      <c r="C66" s="104"/>
+      <c r="CE66" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A66" s="102" t="s">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A67" s="131" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="101" t="s">
+      <c r="B67" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="CF66" s="47" t="s">
+      <c r="CF67" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="105" t="s">
+    <row r="68" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="105" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B68" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="CG67" s="103" t="s">
+      <c r="C68" s="104"/>
+      <c r="CG68" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A69" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="B68" s="101" t="s">
+      <c r="B69" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="CH68" s="47" t="s">
+      <c r="CH69" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="105" t="s">
+    <row r="70" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C69" s="104"/>
-      <c r="CI69" s="103" t="s">
+      <c r="C70" s="104"/>
+      <c r="CI70" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="A70" s="102" t="s">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A71" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B71" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="CJ70" s="47" t="s">
+      <c r="CJ71" s="47" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="105" t="s">
+    <row r="72" spans="1:89" s="103" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="105" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C71" s="104"/>
-      <c r="CK71" s="103" t="s">
+      <c r="C72" s="104"/>
+      <c r="CK72" s="103" t="s">
         <v>162</v>
       </c>
     </row>
@@ -49317,6 +49485,1180 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E925546-A3FC-4F49-B4CD-DD5AA0C7E6A5}">
+  <dimension ref="A2:AH38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.42578125" style="126" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" customWidth="1"/>
+    <col min="13" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="41" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="131" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="120" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" s="130" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="99"/>
+    </row>
+    <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="127"/>
+      <c r="AE3" s="127"/>
+      <c r="AF3" s="127"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+    </row>
+    <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="131" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="127"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="127"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="127"/>
+      <c r="Z5" s="127"/>
+      <c r="AA5" s="127"/>
+      <c r="AB5" s="127"/>
+      <c r="AC5" s="127"/>
+      <c r="AD5" s="127"/>
+      <c r="AE5" s="127"/>
+      <c r="AF5" s="127"/>
+      <c r="AG5" s="127"/>
+      <c r="AH5" s="127"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="122" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="131" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="127"/>
+      <c r="P7" s="127"/>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="127"/>
+      <c r="T7" s="127"/>
+      <c r="U7" s="127"/>
+      <c r="V7" s="127"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="127"/>
+      <c r="Y7" s="127"/>
+      <c r="Z7" s="127"/>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="127"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="127"/>
+      <c r="AE7" s="127"/>
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="127"/>
+    </row>
+    <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="S8" s="127"/>
+      <c r="T8" s="127"/>
+      <c r="U8" s="127"/>
+      <c r="V8" s="127"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="127"/>
+      <c r="Y8" s="127"/>
+      <c r="Z8" s="127"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="127"/>
+      <c r="AC8" s="127"/>
+      <c r="AD8" s="127"/>
+      <c r="AE8" s="127"/>
+      <c r="AF8" s="127"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="127"/>
+    </row>
+    <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="123" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
+      <c r="Z9" s="127"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="127"/>
+      <c r="AC9" s="127"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="127"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="120" t="s">
+        <v>397</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+      <c r="V10" s="127"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="127"/>
+      <c r="Y10" s="127"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="127"/>
+      <c r="AC10" s="127"/>
+      <c r="AD10" s="127"/>
+      <c r="AE10" s="127"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="127"/>
+    </row>
+    <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="146" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="127"/>
+      <c r="U11" s="127"/>
+      <c r="V11" s="127"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="127"/>
+      <c r="Y11" s="127"/>
+      <c r="Z11" s="127"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="127"/>
+      <c r="AC11" s="127"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="127"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="127"/>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="131" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
+    </row>
+    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="131" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="127"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="127"/>
+      <c r="R13" s="127"/>
+      <c r="S13" s="127"/>
+      <c r="T13" s="127"/>
+      <c r="U13" s="127"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="127"/>
+      <c r="Y13" s="127"/>
+      <c r="Z13" s="127"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="127"/>
+      <c r="AC13" s="127"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="127"/>
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="127"/>
+    </row>
+    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="127"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+      <c r="S14" s="127"/>
+      <c r="T14" s="127"/>
+      <c r="U14" s="127"/>
+      <c r="V14" s="127"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="127"/>
+      <c r="Y14" s="127"/>
+      <c r="Z14" s="127"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="127"/>
+      <c r="AC14" s="127"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="127"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="127"/>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="B15" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
+      <c r="S15" s="127"/>
+      <c r="T15" s="127"/>
+      <c r="U15" s="127"/>
+      <c r="V15" s="127"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="127"/>
+      <c r="Y15" s="127"/>
+      <c r="Z15" s="127"/>
+      <c r="AA15" s="127"/>
+      <c r="AB15" s="127"/>
+      <c r="AC15" s="127"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="127"/>
+      <c r="AF15" s="127"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="127"/>
+    </row>
+    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="123" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="127"/>
+      <c r="AA16" s="127"/>
+      <c r="AB16" s="127"/>
+      <c r="AC16" s="127"/>
+      <c r="AD16" s="127"/>
+      <c r="AE16" s="127"/>
+      <c r="AF16" s="127"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="127"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="127"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="127"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="127"/>
+      <c r="AD17" s="127"/>
+      <c r="AE17" s="127"/>
+      <c r="AF17" s="127"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+    </row>
+    <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="131" t="s">
+        <v>389</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="127"/>
+      <c r="AA18" s="127"/>
+      <c r="AB18" s="127"/>
+      <c r="AC18" s="127"/>
+      <c r="AD18" s="127"/>
+      <c r="AE18" s="127"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="127"/>
+    </row>
+    <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
+      <c r="Z19" s="127"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
+      <c r="AC19" s="127"/>
+      <c r="AD19" s="127"/>
+      <c r="AE19" s="127"/>
+      <c r="AF19" s="127"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="127"/>
+    </row>
+    <row r="20" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="131" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="127"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="127"/>
+      <c r="O20" s="127"/>
+      <c r="P20" s="127"/>
+      <c r="Q20" s="127"/>
+      <c r="R20" s="127"/>
+      <c r="S20" s="127"/>
+      <c r="T20" s="127"/>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="127"/>
+      <c r="X20" s="127"/>
+      <c r="Y20" s="127"/>
+      <c r="Z20" s="127"/>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="127"/>
+      <c r="AC20" s="127"/>
+      <c r="AD20" s="127"/>
+      <c r="AE20" s="127"/>
+      <c r="AF20" s="127"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="127"/>
+    </row>
+    <row r="21" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="127"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="127"/>
+      <c r="R21" s="127"/>
+      <c r="S21" s="127"/>
+      <c r="T21" s="127"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="127"/>
+      <c r="Y21" s="127"/>
+      <c r="Z21" s="127"/>
+      <c r="AA21" s="127"/>
+      <c r="AB21" s="127"/>
+      <c r="AC21" s="127"/>
+      <c r="AD21" s="127"/>
+      <c r="AE21" s="127"/>
+      <c r="AF21" s="127"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="127"/>
+    </row>
+    <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="127"/>
+      <c r="X22" s="127"/>
+      <c r="Y22" s="127"/>
+      <c r="Z22" s="127"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="127"/>
+      <c r="AD22" s="127"/>
+      <c r="AE22" s="127"/>
+      <c r="AF22" s="127"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="127"/>
+    </row>
+    <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="126" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="127"/>
+      <c r="L23" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="127"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="127"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+    </row>
+    <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="131" t="s">
+        <v>383</v>
+      </c>
+      <c r="B24" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="127"/>
+      <c r="L24" s="127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="131"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
+      <c r="L25" s="127"/>
+    </row>
+    <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="131"/>
+      <c r="G26">
+        <f>1+F26</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>1+G26</f>
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <f>1+H26</f>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <f>1+I26</f>
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <f>1+J26</f>
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <f>1+K26</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="131"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+    </row>
+    <row r="28" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="131"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="131"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+    </row>
+    <row r="30" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="131"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+    </row>
+    <row r="31" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="131"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+    </row>
+    <row r="32" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="131"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="99"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="127"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="127"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="127"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F66C91-4BF6-4937-8467-CCC69562F4F2}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
@@ -49739,7 +51081,492 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D7511-1CB3-4266-9F76-64EB07FEA44B}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>402</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="131" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="123" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2" s="123" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="120" t="s">
+        <v>397</v>
+      </c>
+      <c r="J2" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="K2" s="131" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" s="131" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" s="131" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" s="123" t="s">
+        <v>392</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>391</v>
+      </c>
+      <c r="P2" s="131" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q2" s="131" t="s">
+        <v>389</v>
+      </c>
+      <c r="R2" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="S2" s="131" t="s">
+        <v>387</v>
+      </c>
+      <c r="T2" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="U2" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="V2" s="131" t="s">
+        <v>384</v>
+      </c>
+      <c r="W2" s="131" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="M3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="126">
+        <v>1</v>
+      </c>
+      <c r="O3" s="126">
+        <v>1</v>
+      </c>
+      <c r="P3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="R3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="S3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="T3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="U3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="V3" s="126" t="s">
+        <v>346</v>
+      </c>
+      <c r="W3" s="126" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="126" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>424</v>
+      </c>
+      <c r="D4" s="126">
+        <v>12</v>
+      </c>
+      <c r="E4" s="126">
+        <v>1</v>
+      </c>
+      <c r="F4" s="126">
+        <v>1</v>
+      </c>
+      <c r="G4" s="126">
+        <v>12</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>423</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>422</v>
+      </c>
+      <c r="K4" s="126">
+        <v>1</v>
+      </c>
+      <c r="L4" s="126">
+        <v>1</v>
+      </c>
+      <c r="M4" s="126">
+        <v>1</v>
+      </c>
+      <c r="N4" s="126">
+        <v>1</v>
+      </c>
+      <c r="O4" s="126">
+        <v>1</v>
+      </c>
+      <c r="P4" s="126" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q4" s="126" t="s">
+        <v>421</v>
+      </c>
+      <c r="R4" s="126" t="s">
+        <v>420</v>
+      </c>
+      <c r="S4" s="126" t="s">
+        <v>420</v>
+      </c>
+      <c r="T4" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="U4" s="126" t="s">
+        <v>419</v>
+      </c>
+      <c r="V4" s="126" t="s">
+        <v>357</v>
+      </c>
+      <c r="W4" s="126" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="126" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="126" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="I5" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="J5" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="K5" s="126" t="s">
+        <v>412</v>
+      </c>
+      <c r="L5" s="126" t="s">
+        <v>411</v>
+      </c>
+      <c r="M5" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="N5" s="126" t="s">
+        <v>392</v>
+      </c>
+      <c r="O5" s="126" t="s">
+        <v>391</v>
+      </c>
+      <c r="P5" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q5" s="126" t="s">
+        <v>409</v>
+      </c>
+      <c r="R5" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="S5" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="T5" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="U5" s="126" t="s">
+        <v>407</v>
+      </c>
+      <c r="V5" s="126" t="s">
+        <v>371</v>
+      </c>
+      <c r="W5" s="126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="131"/>
+      <c r="B6" s="123"/>
+      <c r="M6" s="148"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="123"/>
+      <c r="B7" s="123"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="123"/>
+      <c r="B8" s="120"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="120"/>
+      <c r="B9" s="130"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="130"/>
+      <c r="B10" s="131">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>1+B10</f>
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>1+C10</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>1+D10</f>
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <f>1+E10</f>
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <f>1+F10</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <f>1+G10</f>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <f>1+H10</f>
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <f>1+I10</f>
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <f>1+J10</f>
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f>1+K10</f>
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <f>1+L10</f>
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <f>1+M10</f>
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <f>1+N10</f>
+        <v>14</v>
+      </c>
+      <c r="P10">
+        <f>1+O10</f>
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <f>1+P10</f>
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <f>1+Q10</f>
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <f>1+R10</f>
+        <v>18</v>
+      </c>
+      <c r="T10">
+        <f>1+S10</f>
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <f>1+T10</f>
+        <v>20</v>
+      </c>
+      <c r="V10">
+        <f>1+U10</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="131"/>
+      <c r="B11" s="131"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="131"/>
+      <c r="B12" s="131"/>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="131"/>
+      <c r="B13" s="123"/>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="123"/>
+      <c r="B14" s="123"/>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="123"/>
+      <c r="B15" s="131"/>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="131"/>
+      <c r="B19" s="99"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="99"/>
+      <c r="B20" s="131"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="131"/>
+      <c r="B21" s="131"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="131"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="147"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F208D20-BF5C-49F2-A875-2E9A13AC02F3}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9740FDCC-11B0-43E6-9F48-E0F726605676}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A1B5239-8246-4079-A01F-2A6FC1C51441}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="419">
   <si>
     <t>Hôtel</t>
   </si>
@@ -1043,9 +1043,6 @@
     <t>Nbr Type espaces</t>
   </si>
   <si>
-    <t>Nbr Type de poste</t>
-  </si>
-  <si>
     <t>Nbr Type de postes</t>
   </si>
   <si>
@@ -1259,9 +1256,6 @@
     <t>Nbr de type de consultations</t>
   </si>
   <si>
-    <t xml:space="preserve">Nbr de niveaux </t>
-  </si>
-  <si>
     <t>Nbr de niveaux</t>
   </si>
   <si>
@@ -1287,6 +1281,9 @@
   </si>
   <si>
     <t>Capacité</t>
+  </si>
+  <si>
+    <t>Nbr de types de chambres</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2253,7 @@
   </sheetPr>
   <dimension ref="A1:EU231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -2649,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>9</v>
@@ -2721,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>32</v>
@@ -2817,7 +2814,7 @@
         <v>62</v>
       </c>
       <c r="BQ2" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
@@ -16596,7 +16593,7 @@
     </row>
     <row r="90" spans="2:151" x14ac:dyDescent="0.25">
       <c r="C90" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -16751,7 +16748,7 @@
     </row>
     <row r="91" spans="2:151" x14ac:dyDescent="0.25">
       <c r="C91" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -36159,7 +36156,7 @@
         <v>64</v>
       </c>
       <c r="F2" s="93" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>65</v>
@@ -39472,7 +39469,7 @@
         <v>150</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R23" s="52" t="s">
         <v>150</v>
@@ -41839,7 +41836,7 @@
         <v>150</v>
       </c>
       <c r="Q35" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R35" s="47" t="s">
         <v>150</v>
@@ -42114,7 +42111,7 @@
         <v>150</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R36" s="51" t="s">
         <v>150</v>
@@ -45123,12 +45120,12 @@
     </row>
     <row r="16" spans="1:105" s="103" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="104"/>
       <c r="O16" s="103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
@@ -46068,7 +46065,7 @@
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B5" s="126" t="s">
         <v>310</v>
@@ -46888,7 +46885,7 @@
     </row>
     <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" s="126" t="s">
         <v>312</v>
@@ -46899,7 +46896,7 @@
     </row>
     <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B26" s="126" t="s">
         <v>310</v>
@@ -46910,7 +46907,7 @@
     </row>
     <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27" s="126" t="s">
         <v>312</v>
@@ -47023,13 +47020,13 @@
         <v>277</v>
       </c>
       <c r="J2" s="124" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K2" s="120" t="s">
         <v>262</v>
       </c>
       <c r="L2" s="130" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M2" s="138" t="s">
         <v>297</v>
@@ -47058,7 +47055,7 @@
     </row>
     <row r="3" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B3" s="126" t="s">
         <v>312</v>
@@ -47102,7 +47099,7 @@
     </row>
     <row r="4" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="126" t="s">
         <v>312</v>
@@ -47146,7 +47143,7 @@
     </row>
     <row r="5" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="126" t="s">
         <v>312</v>
@@ -47188,7 +47185,7 @@
     </row>
     <row r="6" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" s="126" t="s">
         <v>312</v>
@@ -47230,7 +47227,7 @@
     </row>
     <row r="7" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B7" s="126" t="s">
         <v>312</v>
@@ -47272,7 +47269,7 @@
     </row>
     <row r="8" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B8" s="126" t="s">
         <v>312</v>
@@ -47314,7 +47311,7 @@
     </row>
     <row r="9" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" s="126" t="s">
         <v>310</v>
@@ -47356,7 +47353,7 @@
     </row>
     <row r="10" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="120" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B10" s="126" t="s">
         <v>312</v>
@@ -47398,7 +47395,7 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="126" t="s">
         <v>312</v>
@@ -47440,7 +47437,7 @@
     </row>
     <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B12" s="126" t="s">
         <v>310</v>
@@ -47482,7 +47479,7 @@
     </row>
     <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="126" t="s">
         <v>312</v>
@@ -47524,7 +47521,7 @@
     </row>
     <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B14" s="126" t="s">
         <v>312</v>
@@ -47566,7 +47563,7 @@
     </row>
     <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="126" t="s">
         <v>310</v>
@@ -47612,7 +47609,7 @@
     </row>
     <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="123" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B16" s="126" t="s">
         <v>310</v>
@@ -47658,7 +47655,7 @@
     </row>
     <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B17" s="126" t="s">
         <v>312</v>
@@ -47704,7 +47701,7 @@
     </row>
     <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B18" s="126" t="s">
         <v>312</v>
@@ -47750,7 +47747,7 @@
     </row>
     <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B19" s="126" t="s">
         <v>312</v>
@@ -47792,7 +47789,7 @@
     </row>
     <row r="20" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B20" s="126" t="s">
         <v>312</v>
@@ -47834,7 +47831,7 @@
     </row>
     <row r="21" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="126" t="s">
         <v>310</v>
@@ -47876,7 +47873,7 @@
     </row>
     <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B22" s="126" t="s">
         <v>312</v>
@@ -47918,7 +47915,7 @@
     </row>
     <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B23" s="126" t="s">
         <v>312</v>
@@ -47960,7 +47957,7 @@
     </row>
     <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B24" s="126" t="s">
         <v>310</v>
@@ -47977,7 +47974,7 @@
     </row>
     <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="123" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B25" s="126" t="s">
         <v>310</v>
@@ -47995,7 +47992,7 @@
     </row>
     <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B26" s="126" t="s">
         <v>312</v>
@@ -48030,7 +48027,7 @@
     </row>
     <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="137" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B27" s="126" t="s">
         <v>312</v>
@@ -48149,8 +48146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F66C91-4BF6-4937-8467-CCC69562F4F2}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48189,7 +48186,7 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="121" t="s">
         <v>309</v>
@@ -48198,7 +48195,7 @@
         <v>311</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" s="102" t="s">
         <v>314</v>
@@ -48258,15 +48255,15 @@
         <v>332</v>
       </c>
       <c r="X2" s="129" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="129" t="s">
         <v>365</v>
-      </c>
-      <c r="Y2" s="129" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="126" t="s">
         <v>334</v>
@@ -48343,7 +48340,7 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B4" s="126" t="s">
         <v>337</v>
@@ -48364,10 +48361,10 @@
         <v>338</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I4" s="126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J4" s="126">
         <v>1</v>
@@ -48382,117 +48379,117 @@
         <v>1</v>
       </c>
       <c r="N4" s="126" t="s">
+        <v>338</v>
+      </c>
+      <c r="O4" s="126" t="s">
         <v>339</v>
       </c>
-      <c r="O4" s="126" t="s">
+      <c r="P4" s="126" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q4" s="126" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="126" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q4" s="126" t="s">
+      <c r="R4" s="126" t="s">
         <v>341</v>
       </c>
-      <c r="R4" s="126" t="s">
-        <v>342</v>
-      </c>
       <c r="S4" s="126" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="T4" s="126">
         <v>1</v>
       </c>
       <c r="U4" s="126" t="s">
+        <v>342</v>
+      </c>
+      <c r="V4" s="126" t="s">
         <v>343</v>
       </c>
-      <c r="V4" s="126" t="s">
+      <c r="W4" s="126" t="s">
         <v>344</v>
       </c>
-      <c r="W4" s="126" t="s">
-        <v>345</v>
-      </c>
       <c r="X4" s="126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y4" s="126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="C5" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>349</v>
+      </c>
+      <c r="E5" s="126" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="F5" s="126" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="126" t="s">
-        <v>350</v>
-      </c>
-      <c r="E5" s="126" t="s">
+      <c r="G5" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="H5" s="126" t="s">
         <v>351</v>
       </c>
-      <c r="G5" s="126" t="s">
+      <c r="I5" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="J5" s="126" t="s">
         <v>352</v>
       </c>
-      <c r="H5" s="126" t="s">
-        <v>352</v>
-      </c>
-      <c r="I5" s="126" t="s">
-        <v>352</v>
-      </c>
-      <c r="J5" s="126" t="s">
+      <c r="K5" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="K5" s="126" t="s">
+      <c r="L5" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="M5" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="M5" s="126" t="s">
+      <c r="N5" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="O5" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="P5" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="N5" s="126" t="s">
-        <v>352</v>
-      </c>
-      <c r="O5" s="126" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="126" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q5" s="126" t="s">
+      <c r="R5" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="S5" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="T5" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="R5" s="126" t="s">
-        <v>357</v>
-      </c>
-      <c r="S5" s="126" t="s">
-        <v>357</v>
-      </c>
-      <c r="T5" s="126" t="s">
+      <c r="U5" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="U5" s="126" t="s">
+      <c r="V5" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="V5" s="126" t="s">
-        <v>360</v>
-      </c>
       <c r="W5" s="126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X5" s="126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y5" s="126" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -48572,8 +48569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44D7511-1CB3-4266-9F76-64EB07FEA44B}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48616,87 +48613,87 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" s="131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E2" s="122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F2" s="131" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="123" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H2" s="123" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I2" s="120" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J2" s="130" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K2" s="131" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L2" s="131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M2" s="131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N2" s="123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O2" s="123" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P2" s="131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q2" s="131" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R2" s="131" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S2" s="131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T2" s="99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="U2" s="99" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="V2" s="131" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="W2" s="131" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X2" s="123" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Y2" s="120" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z2" s="137" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B3" s="126" t="s">
         <v>334</v>
@@ -48776,13 +48773,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="131" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B4" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D4" s="126">
         <v>12</v>
@@ -48797,13 +48794,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I4" s="126" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J4" s="126" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K4" s="126">
         <v>1</v>
@@ -48821,117 +48818,117 @@
         <v>1</v>
       </c>
       <c r="P4" s="126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="Q4" s="126" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R4" s="126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S4" s="126" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T4" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="U4" s="126" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V4" s="126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W4" s="126" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="X4" s="126" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Y4" s="126" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="Z4" s="126" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" s="126" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="126" t="s">
+        <v>403</v>
+      </c>
+      <c r="F5" s="126" t="s">
         <v>402</v>
       </c>
-      <c r="E5" s="126" t="s">
-        <v>404</v>
-      </c>
-      <c r="F5" s="126" t="s">
-        <v>403</v>
-      </c>
       <c r="G5" s="126" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I5" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J5" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K5" s="126" t="s">
+        <v>399</v>
+      </c>
+      <c r="L5" s="126" t="s">
+        <v>398</v>
+      </c>
+      <c r="M5" s="126" t="s">
+        <v>397</v>
+      </c>
+      <c r="N5" s="126" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="126" t="s">
+        <v>378</v>
+      </c>
+      <c r="P5" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q5" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="R5" s="126" t="s">
+        <v>395</v>
+      </c>
+      <c r="S5" s="126" t="s">
+        <v>395</v>
+      </c>
+      <c r="T5" s="126" t="s">
+        <v>394</v>
+      </c>
+      <c r="U5" s="126" t="s">
+        <v>394</v>
+      </c>
+      <c r="V5" s="126" t="s">
+        <v>358</v>
+      </c>
+      <c r="W5" s="126" t="s">
+        <v>358</v>
+      </c>
+      <c r="X5" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="L5" s="126" t="s">
-        <v>399</v>
-      </c>
-      <c r="M5" s="126" t="s">
-        <v>398</v>
-      </c>
-      <c r="N5" s="126" t="s">
-        <v>380</v>
-      </c>
-      <c r="O5" s="126" t="s">
-        <v>379</v>
-      </c>
-      <c r="P5" s="126" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q5" s="126" t="s">
-        <v>397</v>
-      </c>
-      <c r="R5" s="126" t="s">
-        <v>396</v>
-      </c>
-      <c r="S5" s="126" t="s">
-        <v>396</v>
-      </c>
-      <c r="T5" s="126" t="s">
-        <v>395</v>
-      </c>
-      <c r="U5" s="126" t="s">
-        <v>395</v>
-      </c>
-      <c r="V5" s="126" t="s">
-        <v>359</v>
-      </c>
-      <c r="W5" s="126" t="s">
-        <v>359</v>
-      </c>
-      <c r="X5" s="126" t="s">
-        <v>401</v>
-      </c>
       <c r="Y5" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z5" s="126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -49097,7 +49094,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H27" sqref="H16:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{01310F94-50E6-413A-8216-8ADBFFF01F98}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94C4F845-21A1-419E-B440-CB2714010CE3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7110" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="429">
   <si>
     <t>Hôtel</t>
   </si>
@@ -1295,9 +1295,6 @@
     <t>Bien type</t>
   </si>
   <si>
-    <t xml:space="preserve">Pourcentage avance </t>
-  </si>
-  <si>
     <t>Quantité achetée par type de MP</t>
   </si>
   <si>
@@ -1311,6 +1308,18 @@
   </si>
   <si>
     <t>Projet Immobilier</t>
+  </si>
+  <si>
+    <t>Affluence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cout MP utilisée </t>
+  </si>
+  <si>
+    <t>Cout MP Restauration</t>
+  </si>
+  <si>
+    <t>Mois Eclatement</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1636,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2023,6 +2032,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2351,7 +2363,7 @@
   </sheetPr>
   <dimension ref="A1:EU231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BP3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
@@ -2712,7 +2724,7 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
     </row>
-    <row r="2" spans="1:151" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -2912,7 +2924,7 @@
         <v>62</v>
       </c>
       <c r="BQ2" s="139" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
@@ -35758,13 +35770,13 @@
   <sheetPr codeName="Feuille3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:EL52"/>
+  <dimension ref="A1:EL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="BH30" sqref="BH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36544,10 +36556,10 @@
       <c r="DR2" s="90"/>
     </row>
     <row r="3" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="158"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="86" t="s">
         <v>182</v>
       </c>
@@ -36674,8 +36686,8 @@
       <c r="DR3" s="76"/>
     </row>
     <row r="4" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="161"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="162"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="86" t="s">
         <v>196</v>
       </c>
@@ -36822,8 +36834,8 @@
       <c r="EL4" s="44"/>
     </row>
     <row r="5" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="153"/>
       <c r="C5" s="86" t="s">
         <v>184</v>
       </c>
@@ -36970,8 +36982,8 @@
       <c r="EL5" s="44"/>
     </row>
     <row r="6" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="161"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="162"/>
+      <c r="B6" s="153"/>
       <c r="C6" s="86" t="s">
         <v>167</v>
       </c>
@@ -37118,8 +37130,8 @@
       <c r="EL6" s="44"/>
     </row>
     <row r="7" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="161"/>
-      <c r="B7" s="152"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="88" t="s">
         <v>195</v>
       </c>
@@ -37266,8 +37278,8 @@
       <c r="EL7" s="44"/>
     </row>
     <row r="8" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="161"/>
-      <c r="B8" s="152"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="153"/>
       <c r="C8" s="88" t="s">
         <v>194</v>
       </c>
@@ -37412,8 +37424,8 @@
       <c r="EL8" s="44"/>
     </row>
     <row r="9" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="161"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="153"/>
       <c r="C9" s="88" t="s">
         <v>193</v>
       </c>
@@ -37558,8 +37570,8 @@
       <c r="EL9" s="44"/>
     </row>
     <row r="10" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="162"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="88" t="s">
         <v>192</v>
       </c>
@@ -37704,8 +37716,8 @@
       <c r="EL10" s="44"/>
     </row>
     <row r="11" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="162"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="87" t="s">
         <v>191</v>
       </c>
@@ -37850,8 +37862,8 @@
       <c r="EL11" s="44"/>
     </row>
     <row r="12" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="162"/>
+      <c r="B12" s="153"/>
       <c r="C12" s="86" t="s">
         <v>190</v>
       </c>
@@ -37998,8 +38010,8 @@
       <c r="EL12" s="44"/>
     </row>
     <row r="13" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="152"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="153"/>
       <c r="C13" s="86" t="s">
         <v>189</v>
       </c>
@@ -38148,8 +38160,8 @@
       <c r="EL13" s="44"/>
     </row>
     <row r="14" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="161"/>
-      <c r="B14" s="152"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="86" t="s">
         <v>173</v>
       </c>
@@ -38294,8 +38306,8 @@
       <c r="EL14" s="44"/>
     </row>
     <row r="15" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="152"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="86" t="s">
         <v>172</v>
       </c>
@@ -38440,8 +38452,8 @@
       <c r="EL15" s="44"/>
     </row>
     <row r="16" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="152"/>
+      <c r="A16" s="162"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="86" t="s">
         <v>171</v>
       </c>
@@ -38588,8 +38600,8 @@
       <c r="EL16" s="44"/>
     </row>
     <row r="17" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="161"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="162"/>
+      <c r="B17" s="153"/>
       <c r="C17" s="85" t="s">
         <v>167</v>
       </c>
@@ -38734,8 +38746,8 @@
       <c r="EL17" s="44"/>
     </row>
     <row r="18" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="152"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="85" t="s">
         <v>188</v>
       </c>
@@ -38882,8 +38894,8 @@
       <c r="EL18" s="44"/>
     </row>
     <row r="19" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="153"/>
       <c r="C19" s="44" t="s">
         <v>187</v>
       </c>
@@ -39010,8 +39022,8 @@
       <c r="DR19" s="62"/>
     </row>
     <row r="20" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="152"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="44" t="s">
         <v>209</v>
       </c>
@@ -39136,8 +39148,8 @@
       <c r="DR20" s="62"/>
     </row>
     <row r="21" spans="1:142" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="159"/>
+      <c r="A21" s="163"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="44" t="s">
         <v>210</v>
       </c>
@@ -39262,7 +39274,7 @@
       <c r="DR21" s="80"/>
     </row>
     <row r="22" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="164" t="s">
         <v>186</v>
       </c>
       <c r="C22" s="78" t="s">
@@ -39539,7 +39551,7 @@
       <c r="DR22" s="76"/>
     </row>
     <row r="23" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="156"/>
+      <c r="B23" s="157"/>
       <c r="C23" s="49" t="s">
         <v>184</v>
       </c>
@@ -39578,12 +39590,8 @@
         <v>150</v>
       </c>
       <c r="T23" s="52"/>
-      <c r="U23" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="V23" s="52" t="s">
-        <v>150</v>
-      </c>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
       <c r="W23" s="52" t="s">
         <v>150</v>
       </c>
@@ -39651,9 +39659,7 @@
       <c r="BG23" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="BH23" s="52" t="s">
-        <v>150</v>
-      </c>
+      <c r="BH23" s="52"/>
       <c r="BI23" s="52"/>
       <c r="BJ23" s="52"/>
       <c r="BK23" s="52" t="s">
@@ -39738,7 +39744,7 @@
       <c r="DR23" s="62"/>
     </row>
     <row r="24" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="156"/>
+      <c r="B24" s="157"/>
       <c r="C24" s="49" t="s">
         <v>182</v>
       </c>
@@ -40010,7 +40016,7 @@
     </row>
     <row r="25" spans="1:142" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="156"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="61" t="s">
         <v>181</v>
       </c>
@@ -40190,7 +40196,7 @@
     </row>
     <row r="26" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="157"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="49" t="s">
         <v>180</v>
       </c>
@@ -40417,20 +40423,18 @@
       <c r="DR26" s="53"/>
     </row>
     <row r="27" spans="1:142" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="154" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>178</v>
+        <v>426</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
-      <c r="I27" s="65" t="s">
-        <v>150</v>
-      </c>
+      <c r="I27" s="65"/>
       <c r="J27" s="65" t="s">
         <v>150</v>
       </c>
@@ -40604,7 +40608,7 @@
       <c r="DK27" s="65"/>
     </row>
     <row r="28" spans="1:142" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="154"/>
+      <c r="B28" s="155"/>
       <c r="C28" s="72" t="s">
         <v>177</v>
       </c>
@@ -40854,7 +40858,7 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="1:142" s="63" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="156" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="67" t="s">
@@ -40940,9 +40944,7 @@
       <c r="BE30" s="55"/>
       <c r="BF30" s="55"/>
       <c r="BG30" s="55"/>
-      <c r="BH30" s="65" t="s">
-        <v>150</v>
-      </c>
+      <c r="BH30" s="65"/>
       <c r="BI30" s="65" t="s">
         <v>150</v>
       </c>
@@ -41013,7 +41015,7 @@
       <c r="DR30" s="64"/>
     </row>
     <row r="31" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="156"/>
+      <c r="B31" s="157"/>
       <c r="C31" s="49" t="s">
         <v>173</v>
       </c>
@@ -41244,7 +41246,7 @@
       <c r="DR31" s="62"/>
     </row>
     <row r="32" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="156"/>
+      <c r="B32" s="157"/>
       <c r="C32" s="49" t="s">
         <v>172</v>
       </c>
@@ -41425,7 +41427,7 @@
       <c r="DR32" s="62"/>
     </row>
     <row r="33" spans="2:130" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="157"/>
+      <c r="B33" s="158"/>
       <c r="C33" s="61" t="s">
         <v>171</v>
       </c>
@@ -41641,7 +41643,7 @@
       <c r="DR33" s="57"/>
     </row>
     <row r="34" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="152" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="49" t="s">
@@ -41914,7 +41916,7 @@
       <c r="DR34" s="53"/>
     </row>
     <row r="35" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B35" s="152"/>
+      <c r="B35" s="153"/>
       <c r="C35" s="49" t="s">
         <v>168</v>
       </c>
@@ -42193,7 +42195,7 @@
       <c r="DK35" s="47"/>
     </row>
     <row r="36" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B36" s="152"/>
+      <c r="B36" s="153"/>
       <c r="C36" s="49" t="s">
         <v>167</v>
       </c>
@@ -42238,12 +42240,8 @@
         <v>150</v>
       </c>
       <c r="T36" s="51"/>
-      <c r="U36" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="V36" s="51" t="s">
-        <v>150</v>
-      </c>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
       <c r="W36" s="51" t="s">
         <v>150</v>
       </c>
@@ -42467,7 +42465,7 @@
       <c r="DZ36" s="51"/>
     </row>
     <row r="37" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B37" s="152"/>
+      <c r="B37" s="153"/>
       <c r="C37" s="49" t="s">
         <v>166</v>
       </c>
@@ -42598,7 +42596,7 @@
       <c r="DK37" s="47"/>
     </row>
     <row r="38" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B38" s="152"/>
+      <c r="B38" s="153"/>
       <c r="C38" s="49" t="s">
         <v>165</v>
       </c>
@@ -42724,7 +42722,7 @@
       <c r="DK38" s="47"/>
     </row>
     <row r="39" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="152"/>
+      <c r="B39" s="153"/>
       <c r="C39" s="49" t="s">
         <v>164</v>
       </c>
@@ -42844,7 +42842,7 @@
       <c r="DK39" s="48"/>
     </row>
     <row r="40" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B40" s="152"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="45" t="s">
         <v>163</v>
       </c>
@@ -42934,7 +42932,7 @@
       <c r="CG40" s="51"/>
     </row>
     <row r="41" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B41" s="152"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="49" t="s">
         <v>162</v>
       </c>
@@ -43052,7 +43050,7 @@
       <c r="DK41" s="47"/>
     </row>
     <row r="42" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B42" s="152"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="49" t="s">
         <v>161</v>
       </c>
@@ -43170,7 +43168,7 @@
       <c r="DK42" s="47"/>
     </row>
     <row r="43" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B43" s="152"/>
+      <c r="B43" s="153"/>
       <c r="C43" s="49" t="s">
         <v>160</v>
       </c>
@@ -43288,7 +43286,7 @@
       <c r="DK43" s="47"/>
     </row>
     <row r="44" spans="2:130" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="152"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="49" t="s">
         <v>159</v>
       </c>
@@ -43406,7 +43404,7 @@
       <c r="DK44" s="48"/>
     </row>
     <row r="45" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B45" s="152"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="49" t="s">
         <v>158</v>
       </c>
@@ -43524,7 +43522,7 @@
       <c r="DK45" s="47"/>
     </row>
     <row r="46" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B46" s="152"/>
+      <c r="B46" s="153"/>
       <c r="C46" s="49" t="s">
         <v>157</v>
       </c>
@@ -43642,7 +43640,7 @@
       <c r="DK46" s="47"/>
     </row>
     <row r="47" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B47" s="152"/>
+      <c r="B47" s="153"/>
       <c r="C47" s="49" t="s">
         <v>156</v>
       </c>
@@ -43760,7 +43758,7 @@
       <c r="DK47" s="47"/>
     </row>
     <row r="48" spans="2:130" x14ac:dyDescent="0.25">
-      <c r="B48" s="152"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="49" t="s">
         <v>155</v>
       </c>
@@ -43878,7 +43876,7 @@
       <c r="DK48" s="47"/>
     </row>
     <row r="49" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B49" s="152"/>
+      <c r="B49" s="153"/>
       <c r="C49" s="49" t="s">
         <v>154</v>
       </c>
@@ -43996,7 +43994,7 @@
       <c r="DK49" s="47"/>
     </row>
     <row r="50" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B50" s="152"/>
+      <c r="B50" s="153"/>
       <c r="C50" s="49" t="s">
         <v>153</v>
       </c>
@@ -44116,7 +44114,7 @@
       <c r="DK50" s="47"/>
     </row>
     <row r="51" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B51" s="152"/>
+      <c r="B51" s="153"/>
       <c r="C51" s="49" t="s">
         <v>152</v>
       </c>
@@ -44234,7 +44232,7 @@
       <c r="DK51" s="47"/>
     </row>
     <row r="52" spans="2:115" x14ac:dyDescent="0.25">
-      <c r="B52" s="152"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="45" t="s">
         <v>151</v>
       </c>
@@ -44242,6 +44240,14 @@
         <v>150</v>
       </c>
       <c r="CM52" s="43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="2:115" x14ac:dyDescent="0.25">
+      <c r="C53" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="I53" s="51" t="s">
         <v>150</v>
       </c>
     </row>
@@ -44261,13 +44267,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AH34"/>
+  <dimension ref="A2:AI34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44280,35 +44286,36 @@
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="41" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="36" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="41" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>304</v>
       </c>
@@ -44333,86 +44340,89 @@
       <c r="H2" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="I2" s="143" t="s">
+      <c r="I2" s="151" t="s">
+        <v>427</v>
+      </c>
+      <c r="J2" s="143" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="123" t="s">
+      <c r="K2" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="119" t="s">
+      <c r="L2" s="119" t="s">
         <v>176</v>
       </c>
-      <c r="L2" s="124" t="s">
+      <c r="M2" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="N2" s="101" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="O2" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="O2" s="121" t="s">
+      <c r="P2" s="121" t="s">
         <v>171</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="Q2" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="R2" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="S2" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="T2" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="U2" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="U2" s="101" t="s">
+      <c r="V2" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="98" t="s">
+      <c r="W2" s="98" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="101" t="s">
+      <c r="X2" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="Y2" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" s="101" t="s">
+      <c r="Z2" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="Z2" s="101" t="s">
+      <c r="AA2" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="AA2" s="101" t="s">
+      <c r="AB2" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="AB2" s="101" t="s">
+      <c r="AC2" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="AC2" s="101" t="s">
+      <c r="AD2" s="101" t="s">
         <v>156</v>
       </c>
-      <c r="AD2" s="101" t="s">
+      <c r="AE2" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="AE2" s="101" t="s">
+      <c r="AF2" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" s="101" t="s">
+      <c r="AG2" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="AG2" s="101" t="s">
+      <c r="AH2" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="AH2" s="98" t="s">
+      <c r="AI2" s="98" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
         <v>305</v>
       </c>
@@ -44452,8 +44462,9 @@
       <c r="AF3" s="126"/>
       <c r="AG3" s="126"/>
       <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
         <v>307</v>
       </c>
@@ -44493,8 +44504,9 @@
       <c r="AF4" s="126"/>
       <c r="AG4" s="126"/>
       <c r="AH4" s="126"/>
+      <c r="AI4" s="126"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
         <v>353</v>
       </c>
@@ -44534,8 +44546,9 @@
       <c r="AF5" s="126"/>
       <c r="AG5" s="126"/>
       <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
         <v>310</v>
       </c>
@@ -44555,10 +44568,10 @@
       <c r="N6" s="126"/>
       <c r="O6" s="126"/>
       <c r="P6" s="126"/>
-      <c r="Q6" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="R6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="S6" s="126"/>
       <c r="T6" s="126"/>
       <c r="U6" s="126"/>
@@ -44574,11 +44587,12 @@
       <c r="AE6" s="126"/>
       <c r="AF6" s="126"/>
       <c r="AG6" s="126"/>
-      <c r="AH6" s="126" t="s">
+      <c r="AH6" s="126"/>
+      <c r="AI6" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
         <v>311</v>
       </c>
@@ -44598,10 +44612,10 @@
       <c r="N7" s="126"/>
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
-      <c r="Q7" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="R7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="S7" s="126"/>
       <c r="T7" s="126"/>
       <c r="U7" s="126"/>
@@ -44617,11 +44631,12 @@
       <c r="AE7" s="126"/>
       <c r="AF7" s="126"/>
       <c r="AG7" s="126"/>
-      <c r="AH7" s="126" t="s">
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
         <v>312</v>
       </c>
@@ -44637,10 +44652,10 @@
       <c r="J8" s="126"/>
       <c r="K8" s="126"/>
       <c r="L8" s="126"/>
-      <c r="M8" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="N8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
       <c r="Q8" s="126"/>
@@ -44661,8 +44676,9 @@
       <c r="AF8" s="126"/>
       <c r="AG8" s="126"/>
       <c r="AH8" s="126"/>
+      <c r="AI8" s="126"/>
     </row>
-    <row r="9" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>317</v>
       </c>
@@ -44678,10 +44694,10 @@
       <c r="J9" s="126"/>
       <c r="K9" s="126"/>
       <c r="L9" s="126"/>
-      <c r="M9" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="N9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
       <c r="Q9" s="126"/>
@@ -44702,8 +44718,9 @@
       <c r="AF9" s="126"/>
       <c r="AG9" s="126"/>
       <c r="AH9" s="126"/>
+      <c r="AI9" s="126"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
         <v>318</v>
       </c>
@@ -44741,8 +44758,9 @@
       <c r="AF10" s="126"/>
       <c r="AG10" s="126"/>
       <c r="AH10" s="126"/>
+      <c r="AI10" s="126"/>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
         <v>313</v>
       </c>
@@ -44758,10 +44776,10 @@
       <c r="J11" s="126"/>
       <c r="K11" s="126"/>
       <c r="L11" s="126"/>
-      <c r="M11" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="N11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
       <c r="Q11" s="126"/>
@@ -44782,8 +44800,9 @@
       <c r="AF11" s="126"/>
       <c r="AG11" s="126"/>
       <c r="AH11" s="126"/>
+      <c r="AI11" s="126"/>
     </row>
-    <row r="12" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>314</v>
       </c>
@@ -44823,8 +44842,9 @@
       <c r="AF12" s="126"/>
       <c r="AG12" s="126"/>
       <c r="AH12" s="126"/>
+      <c r="AI12" s="126"/>
     </row>
-    <row r="13" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
         <v>315</v>
       </c>
@@ -44843,10 +44863,10 @@
       <c r="M13" s="126"/>
       <c r="N13" s="126"/>
       <c r="O13" s="126"/>
-      <c r="P13" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="126"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="R13" s="126"/>
       <c r="S13" s="126"/>
       <c r="T13" s="126"/>
@@ -44864,8 +44884,9 @@
       <c r="AF13" s="126"/>
       <c r="AG13" s="126"/>
       <c r="AH13" s="126"/>
+      <c r="AI13" s="126"/>
     </row>
-    <row r="14" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
         <v>316</v>
       </c>
@@ -44905,8 +44926,9 @@
       <c r="AF14" s="126"/>
       <c r="AG14" s="126"/>
       <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
     </row>
-    <row r="15" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
         <v>319</v>
       </c>
@@ -44924,10 +44946,10 @@
       <c r="L15" s="126"/>
       <c r="M15" s="126"/>
       <c r="N15" s="126"/>
-      <c r="O15" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="P15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="Q15" s="126"/>
       <c r="R15" s="126"/>
       <c r="S15" s="126"/>
@@ -44946,8 +44968,9 @@
       <c r="AF15" s="126"/>
       <c r="AG15" s="126"/>
       <c r="AH15" s="126"/>
+      <c r="AI15" s="126"/>
     </row>
-    <row r="16" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
         <v>320</v>
       </c>
@@ -44985,8 +45008,9 @@
       <c r="AF16" s="126"/>
       <c r="AG16" s="126"/>
       <c r="AH16" s="126"/>
+      <c r="AI16" s="126"/>
     </row>
-    <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
         <v>321</v>
       </c>
@@ -45004,10 +45028,10 @@
       <c r="L17" s="126"/>
       <c r="M17" s="126"/>
       <c r="N17" s="126"/>
-      <c r="O17" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="126"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="Q17" s="126"/>
       <c r="R17" s="126"/>
       <c r="S17" s="126"/>
@@ -45026,8 +45050,9 @@
       <c r="AF17" s="126"/>
       <c r="AG17" s="126"/>
       <c r="AH17" s="126"/>
+      <c r="AI17" s="126"/>
     </row>
-    <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="101" t="s">
         <v>322</v>
       </c>
@@ -45064,11 +45089,12 @@
       <c r="AE18" s="126"/>
       <c r="AF18" s="126"/>
       <c r="AG18" s="126"/>
-      <c r="AH18" s="126" t="s">
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="101" t="s">
         <v>323</v>
       </c>
@@ -45105,11 +45131,12 @@
       <c r="AE19" s="126"/>
       <c r="AF19" s="126"/>
       <c r="AG19" s="126"/>
-      <c r="AH19" s="126" t="s">
+      <c r="AH19" s="126"/>
+      <c r="AI19" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
         <v>324</v>
       </c>
@@ -45146,11 +45173,12 @@
       <c r="AE20" s="126"/>
       <c r="AF20" s="126"/>
       <c r="AG20" s="126"/>
-      <c r="AH20" s="126" t="s">
+      <c r="AH20" s="126"/>
+      <c r="AI20" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
         <v>325</v>
       </c>
@@ -45187,13 +45215,14 @@
       <c r="AE21" s="126"/>
       <c r="AF21" s="126"/>
       <c r="AG21" s="126"/>
-      <c r="AH21" s="126" t="s">
+      <c r="AH21" s="126"/>
+      <c r="AI21" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="148" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B22" s="125" t="s">
         <v>306</v>
@@ -45206,7 +45235,9 @@
       <c r="I22" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="J22" s="126"/>
+      <c r="J22" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="K22" s="126"/>
       <c r="L22" s="126"/>
       <c r="M22" s="126"/>
@@ -45231,8 +45262,9 @@
       <c r="AF22" s="126"/>
       <c r="AG22" s="126"/>
       <c r="AH22" s="126"/>
+      <c r="AI22" s="126"/>
     </row>
-    <row r="23" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="142" t="s">
         <v>326</v>
       </c>
@@ -45247,7 +45279,9 @@
       <c r="I23" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="126"/>
+      <c r="J23" s="126" t="s">
+        <v>150</v>
+      </c>
       <c r="K23" s="126"/>
       <c r="L23" s="126"/>
       <c r="M23" s="126"/>
@@ -45272,8 +45306,9 @@
       <c r="AF23" s="126"/>
       <c r="AG23" s="126"/>
       <c r="AH23" s="126"/>
+      <c r="AI23" s="126"/>
     </row>
-    <row r="24" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="101" t="s">
         <v>327</v>
       </c>
@@ -45311,53 +45346,54 @@
       <c r="AF24" s="126"/>
       <c r="AG24" s="126"/>
       <c r="AH24" s="126"/>
+      <c r="AI24" s="126"/>
     </row>
-    <row r="25" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="101" t="s">
         <v>352</v>
       </c>
       <c r="B25" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="AH25" s="126" t="s">
+      <c r="AI25" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
         <v>354</v>
       </c>
       <c r="B26" s="125" t="s">
         <v>306</v>
       </c>
-      <c r="T26" s="126" t="s">
+      <c r="U26" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="101" t="s">
         <v>355</v>
       </c>
       <c r="B27" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="T27" s="126" t="s">
+      <c r="U27" s="126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
     </row>
-    <row r="29" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="101"/>
     </row>
-    <row r="30" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
     </row>
-    <row r="31" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="101"/>
     </row>
-    <row r="32" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="101"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -45375,7 +45411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
@@ -45475,7 +45511,7 @@
         <v>325</v>
       </c>
       <c r="U2" s="148" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="V2" s="142" t="s">
         <v>326</v>
@@ -45706,10 +45742,10 @@
         <v>348</v>
       </c>
       <c r="U5" s="125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V5" s="125" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W5" s="125" t="s">
         <v>349</v>
@@ -47497,7 +47533,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48720,7 +48756,7 @@
     </row>
     <row r="33" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B33" s="125" t="s">
         <v>306</v>
@@ -48763,7 +48799,7 @@
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="125" t="s">
         <v>308</v>
@@ -48952,8 +48988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48987,7 +49023,7 @@
     <col min="30" max="30" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.7109375" customWidth="1"/>
     <col min="34" max="34" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -49090,10 +49126,10 @@
         <v>404</v>
       </c>
       <c r="AD2" s="148" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE2" s="148" t="s">
         <v>423</v>
-      </c>
-      <c r="AE2" s="148" t="s">
-        <v>424</v>
       </c>
       <c r="AF2" s="148" t="s">
         <v>415</v>
@@ -49122,7 +49158,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="E3" s="125" t="s">
         <v>329</v>
@@ -49429,7 +49465,7 @@
         <v>415</v>
       </c>
       <c r="AG5" s="125" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AH5" s="125" t="s">
         <v>419</v>

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94C4F845-21A1-419E-B440-CB2714010CE3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6F44478-EA99-444D-B505-A79A17AC1A17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7110" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7110" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -567,9 +567,6 @@
   </si>
   <si>
     <t>Cout MP obsolète</t>
-  </si>
-  <si>
-    <t>Cout MP utilisée</t>
   </si>
   <si>
     <t>Couts de MP</t>
@@ -1320,6 +1317,9 @@
   </si>
   <si>
     <t>Mois Eclatement</t>
+  </si>
+  <si>
+    <t>Chambre</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="140" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>9</v>
@@ -2828,7 +2828,7 @@
         <v>31</v>
       </c>
       <c r="AK2" s="141" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL2" s="7" t="s">
         <v>32</v>
@@ -2924,7 +2924,7 @@
         <v>62</v>
       </c>
       <c r="BQ2" s="139" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BR2" s="5"/>
       <c r="BS2" s="5"/>
@@ -9498,7 +9498,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -16703,7 +16703,7 @@
     </row>
     <row r="90" spans="2:151" x14ac:dyDescent="0.25">
       <c r="C90" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
@@ -16858,7 +16858,7 @@
     </row>
     <row r="91" spans="2:151" x14ac:dyDescent="0.25">
       <c r="C91" s="149" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
@@ -35773,10 +35773,10 @@
   <dimension ref="A1:EL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="BG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH30" sqref="BH30"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -35878,7 +35878,7 @@
     <row r="1" spans="1:142" x14ac:dyDescent="0.25">
       <c r="B1" s="98"/>
       <c r="C1" s="69" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D1" s="97">
         <v>1</v>
@@ -36266,13 +36266,13 @@
         <v>64</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>65</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I2" s="77" t="s">
         <v>67</v>
@@ -36383,13 +36383,13 @@
         <v>102</v>
       </c>
       <c r="AS2" s="77" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT2" s="77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU2" s="77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AV2" s="77" t="s">
         <v>106</v>
@@ -36398,13 +36398,13 @@
         <v>107</v>
       </c>
       <c r="AX2" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AY2" s="77" t="s">
         <v>109</v>
       </c>
       <c r="AZ2" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BA2" s="77" t="s">
         <v>111</v>
@@ -36428,25 +36428,25 @@
         <v>117</v>
       </c>
       <c r="BH2" s="149" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BI2" s="77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BJ2" s="77" t="s">
         <v>120</v>
       </c>
       <c r="BK2" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BL2" s="77" t="s">
         <v>122</v>
       </c>
       <c r="BM2" s="77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BN2" s="77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BO2" s="77" t="s">
         <v>125</v>
@@ -36557,11 +36557,11 @@
     </row>
     <row r="3" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="159"/>
       <c r="C3" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D3" s="48" t="s">
         <v>150</v>
@@ -36689,7 +36689,7 @@
       <c r="A4" s="162"/>
       <c r="B4" s="153"/>
       <c r="C4" s="86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>150</v>
@@ -36837,7 +36837,7 @@
       <c r="A5" s="162"/>
       <c r="B5" s="153"/>
       <c r="C5" s="86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>150</v>
@@ -37133,7 +37133,7 @@
       <c r="A7" s="162"/>
       <c r="B7" s="153"/>
       <c r="C7" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>150</v>
@@ -37281,7 +37281,7 @@
       <c r="A8" s="162"/>
       <c r="B8" s="153"/>
       <c r="C8" s="88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="48"/>
       <c r="E8" s="50"/>
@@ -37427,7 +37427,7 @@
       <c r="A9" s="162"/>
       <c r="B9" s="153"/>
       <c r="C9" s="88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="50"/>
@@ -37573,7 +37573,7 @@
       <c r="A10" s="162"/>
       <c r="B10" s="153"/>
       <c r="C10" s="88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D10" s="48"/>
       <c r="E10" s="50"/>
@@ -37719,7 +37719,7 @@
       <c r="A11" s="162"/>
       <c r="B11" s="153"/>
       <c r="C11" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="50"/>
@@ -37865,7 +37865,7 @@
       <c r="A12" s="162"/>
       <c r="B12" s="153"/>
       <c r="C12" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>150</v>
@@ -38013,7 +38013,7 @@
       <c r="A13" s="162"/>
       <c r="B13" s="153"/>
       <c r="C13" s="86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>150</v>
@@ -38081,7 +38081,7 @@
       <c r="BM13" s="52"/>
       <c r="BN13" s="52"/>
       <c r="BO13" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BP13" s="52"/>
       <c r="BQ13" s="52"/>
@@ -38749,7 +38749,7 @@
       <c r="A18" s="162"/>
       <c r="B18" s="153"/>
       <c r="C18" s="85" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>150</v>
@@ -38897,7 +38897,7 @@
       <c r="A19" s="162"/>
       <c r="B19" s="153"/>
       <c r="C19" s="44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>150</v>
@@ -39025,7 +39025,7 @@
       <c r="A20" s="162"/>
       <c r="B20" s="153"/>
       <c r="C20" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="50"/>
@@ -39151,7 +39151,7 @@
       <c r="A21" s="163"/>
       <c r="B21" s="160"/>
       <c r="C21" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="83"/>
       <c r="E21" s="83"/>
@@ -39275,10 +39275,10 @@
     </row>
     <row r="22" spans="1:142" s="75" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="164" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="48"/>
       <c r="E22" s="50" t="s">
@@ -39553,7 +39553,7 @@
     <row r="23" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="157"/>
       <c r="C23" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="50" t="s">
@@ -39581,7 +39581,7 @@
         <v>150</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R23" s="52" t="s">
         <v>150</v>
@@ -39630,7 +39630,7 @@
       <c r="AP23" s="52"/>
       <c r="AQ23" s="52"/>
       <c r="AR23" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AS23" s="52" t="s">
         <v>150</v>
@@ -39746,7 +39746,7 @@
     <row r="24" spans="1:142" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="157"/>
       <c r="C24" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="50" t="s">
@@ -40018,7 +40018,7 @@
       <c r="A25" s="44"/>
       <c r="B25" s="157"/>
       <c r="C25" s="61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
@@ -40198,7 +40198,7 @@
       <c r="A26" s="56"/>
       <c r="B26" s="158"/>
       <c r="C26" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="51"/>
@@ -40424,10 +40424,10 @@
     </row>
     <row r="27" spans="1:142" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D27" s="65"/>
       <c r="E27" s="73"/>
@@ -42231,7 +42231,7 @@
         <v>150</v>
       </c>
       <c r="Q36" s="51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R36" s="51" t="s">
         <v>150</v>
@@ -44245,7 +44245,7 @@
     </row>
     <row r="53" spans="2:115" x14ac:dyDescent="0.25">
       <c r="C53" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I53" s="51" t="s">
         <v>150</v>
@@ -44269,11 +44269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AI34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44317,34 +44317,34 @@
   <sheetData>
     <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E2" s="101" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H2" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I2" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J2" s="143" t="s">
-        <v>178</v>
+        <v>425</v>
       </c>
       <c r="K2" s="123" t="s">
         <v>177</v>
@@ -44424,10 +44424,10 @@
     </row>
     <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="125" t="s">
         <v>305</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>306</v>
       </c>
       <c r="C3" s="126"/>
       <c r="D3" s="126"/>
@@ -44466,10 +44466,10 @@
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="125" t="s">
         <v>307</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>308</v>
       </c>
       <c r="C4" s="126"/>
       <c r="D4" s="126"/>
@@ -44508,10 +44508,10 @@
     </row>
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="126"/>
       <c r="D5" s="126"/>
@@ -44550,10 +44550,10 @@
     </row>
     <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
@@ -44594,10 +44594,10 @@
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
@@ -44638,10 +44638,10 @@
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="101" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C8" s="126"/>
       <c r="D8" s="126"/>
@@ -44680,10 +44680,10 @@
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -44722,10 +44722,10 @@
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="122" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="126"/>
@@ -44762,10 +44762,10 @@
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -44804,10 +44804,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="126"/>
       <c r="D12" s="126" t="s">
@@ -44846,10 +44846,10 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -44888,10 +44888,10 @@
     </row>
     <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -44930,10 +44930,10 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -44972,10 +44972,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -45012,10 +45012,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -45054,10 +45054,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -45096,10 +45096,10 @@
     </row>
     <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -45138,10 +45138,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -45180,10 +45180,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -45222,10 +45222,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="148" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -45266,10 +45266,10 @@
     </row>
     <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="142" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
@@ -45310,10 +45310,10 @@
     </row>
     <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
@@ -45350,10 +45350,10 @@
     </row>
     <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AI25" s="126" t="s">
         <v>150</v>
@@ -45361,10 +45361,10 @@
     </row>
     <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U26" s="126" t="s">
         <v>150</v>
@@ -45372,10 +45372,10 @@
     </row>
     <row r="27" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="101" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U27" s="126" t="s">
         <v>150</v>
@@ -45411,8 +45411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45446,190 +45446,190 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="120" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="101" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="101" t="s">
+        <v>309</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>316</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>317</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="101" t="s">
+        <v>318</v>
+      </c>
+      <c r="O2" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="P2" s="122" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="101" t="s">
+        <v>324</v>
+      </c>
+      <c r="U2" s="148" t="s">
+        <v>419</v>
+      </c>
+      <c r="V2" s="142" t="s">
+        <v>325</v>
+      </c>
+      <c r="W2" s="101" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2" s="128" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="101" t="s">
-        <v>312</v>
-      </c>
-      <c r="H2" s="122" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="119" t="s">
-        <v>313</v>
-      </c>
-      <c r="K2" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="L2" s="101" t="s">
-        <v>315</v>
-      </c>
-      <c r="M2" s="101" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="101" t="s">
-        <v>319</v>
-      </c>
-      <c r="O2" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="P2" s="122" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q2" s="101" t="s">
-        <v>322</v>
-      </c>
-      <c r="R2" s="101" t="s">
-        <v>323</v>
-      </c>
-      <c r="S2" s="101" t="s">
-        <v>324</v>
-      </c>
-      <c r="T2" s="101" t="s">
-        <v>325</v>
-      </c>
-      <c r="U2" s="148" t="s">
-        <v>420</v>
-      </c>
-      <c r="V2" s="142" t="s">
-        <v>326</v>
-      </c>
-      <c r="W2" s="101" t="s">
-        <v>327</v>
-      </c>
-      <c r="X2" s="128" t="s">
+      <c r="Y2" s="128" t="s">
         <v>354</v>
-      </c>
-      <c r="Y2" s="128" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="101" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="P3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V3" s="125">
         <v>1</v>
       </c>
       <c r="W3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B4" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="H4" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="I4" s="125" t="s">
         <v>331</v>
-      </c>
-      <c r="E4" s="125" t="s">
-        <v>330</v>
-      </c>
-      <c r="F4" s="125" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="I4" s="125" t="s">
-        <v>332</v>
       </c>
       <c r="J4" s="125">
         <v>1</v>
@@ -45644,117 +45644,117 @@
         <v>1</v>
       </c>
       <c r="N4" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="O4" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="O4" s="125" t="s">
+      <c r="R4" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="P4" s="125" t="s">
+      <c r="S4" s="125" t="s">
         <v>332</v>
-      </c>
-      <c r="Q4" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="R4" s="125" t="s">
-        <v>333</v>
-      </c>
-      <c r="S4" s="125" t="s">
-        <v>333</v>
       </c>
       <c r="T4" s="125">
         <v>1</v>
       </c>
       <c r="U4" s="125" t="s">
+        <v>333</v>
+      </c>
+      <c r="V4" s="125" t="s">
+        <v>333</v>
+      </c>
+      <c r="W4" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="V4" s="125" t="s">
-        <v>334</v>
-      </c>
-      <c r="W4" s="125" t="s">
-        <v>335</v>
-      </c>
       <c r="X4" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Y4" s="125" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="125" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="C5" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="125" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="125" t="s">
+      <c r="F5" s="125" t="s">
         <v>340</v>
       </c>
-      <c r="D5" s="125" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="125" t="s">
+      <c r="G5" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="H5" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="G5" s="125" t="s">
+      <c r="I5" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="J5" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="H5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="J5" s="125" t="s">
+      <c r="K5" s="125" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="125" t="s">
+      <c r="L5" s="125" t="s">
         <v>344</v>
       </c>
-      <c r="L5" s="125" t="s">
+      <c r="M5" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="M5" s="125" t="s">
+      <c r="N5" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="O5" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="P5" s="125" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q5" s="125" t="s">
         <v>346</v>
       </c>
-      <c r="N5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="O5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="P5" s="125" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q5" s="125" t="s">
+      <c r="R5" s="125" t="s">
+        <v>346</v>
+      </c>
+      <c r="S5" s="125" t="s">
+        <v>346</v>
+      </c>
+      <c r="T5" s="125" t="s">
         <v>347</v>
       </c>
-      <c r="R5" s="125" t="s">
-        <v>347</v>
-      </c>
-      <c r="S5" s="125" t="s">
-        <v>347</v>
-      </c>
-      <c r="T5" s="125" t="s">
+      <c r="U5" s="125" t="s">
+        <v>420</v>
+      </c>
+      <c r="V5" s="125" t="s">
+        <v>420</v>
+      </c>
+      <c r="W5" s="125" t="s">
         <v>348</v>
       </c>
-      <c r="U5" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="V5" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="W5" s="125" t="s">
-        <v>349</v>
-      </c>
       <c r="X5" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Y5" s="125" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -45941,11 +45941,11 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A1" s="119" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="118">
         <f t="shared" ref="D1:BP1" si="0">1+C1</f>
@@ -46313,10 +46313,10 @@
     </row>
     <row r="2" spans="1:106" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="112" t="s">
         <v>63</v>
@@ -46328,13 +46328,13 @@
         <v>65</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G2" s="144" t="s">
         <v>67</v>
       </c>
       <c r="H2" s="144" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I2" s="91" t="s">
         <v>68</v>
@@ -46445,10 +46445,10 @@
         <v>103</v>
       </c>
       <c r="AS2" s="91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AT2" s="91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU2" s="91" t="s">
         <v>106</v>
@@ -46457,13 +46457,13 @@
         <v>107</v>
       </c>
       <c r="AW2" s="91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AX2" s="91" t="s">
         <v>109</v>
       </c>
       <c r="AY2" s="91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AZ2" s="91" t="s">
         <v>111</v>
@@ -46490,22 +46490,22 @@
         <v>118</v>
       </c>
       <c r="BH2" s="91" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BI2" s="91" t="s">
         <v>120</v>
       </c>
       <c r="BJ2" s="91" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BK2" s="91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BL2" s="91" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BM2" s="144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BN2" s="114" t="s">
         <v>125</v>
@@ -46585,10 +46585,10 @@
     </row>
     <row r="3" spans="1:106" s="108" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C3" s="109"/>
       <c r="D3" s="108" t="s">
@@ -46603,10 +46603,10 @@
     </row>
     <row r="4" spans="1:106" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="99"/>
       <c r="E4" s="52" t="s">
@@ -46668,10 +46668,10 @@
     </row>
     <row r="5" spans="1:106" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C5" s="103"/>
       <c r="G5" s="107" t="s">
@@ -46680,10 +46680,10 @@
     </row>
     <row r="6" spans="1:106" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="99"/>
       <c r="H6" s="137"/>
@@ -46699,19 +46699,19 @@
     </row>
     <row r="7" spans="1:106" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="103"/>
     </row>
     <row r="8" spans="1:106" s="131" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="99"/>
       <c r="H8" s="137"/>
@@ -46721,10 +46721,10 @@
     </row>
     <row r="9" spans="1:106" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="103"/>
       <c r="J9" s="107" t="s">
@@ -46733,10 +46733,10 @@
     </row>
     <row r="10" spans="1:106" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="99"/>
       <c r="H10" s="137"/>
@@ -46746,10 +46746,10 @@
     </row>
     <row r="11" spans="1:106" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C11" s="103"/>
       <c r="L11" s="107" t="s">
@@ -46758,10 +46758,10 @@
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" s="130" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="100" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M12" s="47" t="s">
         <v>150</v>
@@ -46770,10 +46770,10 @@
     </row>
     <row r="13" spans="1:106" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="103"/>
       <c r="F13" s="107" t="s">
@@ -46797,10 +46797,10 @@
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" s="130" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H14" s="47" t="s">
         <v>150</v>
@@ -46808,10 +46808,10 @@
     </row>
     <row r="15" spans="1:106" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="103"/>
       <c r="P15" s="102" t="s">
@@ -46820,17 +46820,17 @@
     </row>
     <row r="16" spans="1:106" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="104" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="103"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="47" t="s">
         <v>150</v>
@@ -46838,10 +46838,10 @@
     </row>
     <row r="18" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="103"/>
       <c r="S18" s="102" t="s">
@@ -46850,13 +46850,13 @@
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T19" s="47" t="s">
         <v>150</v>
@@ -46864,10 +46864,10 @@
     </row>
     <row r="20" spans="1:34" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="103"/>
       <c r="U20" s="107" t="s">
@@ -46876,10 +46876,10 @@
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="V21" s="47" t="s">
         <v>150</v>
@@ -46887,10 +46887,10 @@
     </row>
     <row r="22" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C22" s="103"/>
       <c r="W22" s="102" t="s">
@@ -46899,10 +46899,10 @@
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="X23" s="47" t="s">
         <v>150</v>
@@ -46910,10 +46910,10 @@
     </row>
     <row r="24" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="104" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C24" s="103"/>
       <c r="Y24" s="102" t="s">
@@ -46922,10 +46922,10 @@
     </row>
     <row r="25" spans="1:34" s="131" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="130" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="99"/>
       <c r="H25" s="137"/>
@@ -46935,10 +46935,10 @@
     </row>
     <row r="26" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C26" s="103"/>
       <c r="AA26" s="102" t="s">
@@ -46947,10 +46947,10 @@
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="130" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AB27" s="47" t="s">
         <v>150</v>
@@ -46958,10 +46958,10 @@
     </row>
     <row r="28" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C28" s="103"/>
       <c r="AC28" s="102" t="s">
@@ -46970,10 +46970,10 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="130" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD29" s="47" t="s">
         <v>150</v>
@@ -46981,10 +46981,10 @@
     </row>
     <row r="30" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C30" s="103"/>
       <c r="AE30" s="102" t="s">
@@ -46996,10 +46996,10 @@
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="130" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF31" s="47" t="s">
         <v>150</v>
@@ -47007,10 +47007,10 @@
     </row>
     <row r="32" spans="1:34" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C32" s="103"/>
       <c r="AH32" s="102" t="s">
@@ -47019,10 +47019,10 @@
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="130" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AI33" s="47" t="s">
         <v>150</v>
@@ -47033,10 +47033,10 @@
     </row>
     <row r="34" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="106" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="105"/>
       <c r="AL34" s="102" t="s">
@@ -47051,10 +47051,10 @@
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AO35" s="47" t="s">
         <v>150</v>
@@ -47065,10 +47065,10 @@
     </row>
     <row r="36" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="103"/>
       <c r="AU36" s="102" t="s">
@@ -47077,21 +47077,21 @@
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AV37" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" s="103"/>
       <c r="AW38" s="102" t="s">
@@ -47100,10 +47100,10 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AX39" s="47" t="s">
         <v>150</v>
@@ -47114,10 +47114,10 @@
     </row>
     <row r="40" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="104" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C40" s="103"/>
       <c r="BA40" s="102" t="s">
@@ -47126,10 +47126,10 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BB41" s="47" t="s">
         <v>150</v>
@@ -47137,10 +47137,10 @@
     </row>
     <row r="42" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="104" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42" s="103"/>
       <c r="BC42" s="102" t="s">
@@ -47149,10 +47149,10 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" s="100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BD43" s="47" t="s">
         <v>150</v>
@@ -47160,10 +47160,10 @@
     </row>
     <row r="44" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="104" t="s">
+        <v>246</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>248</v>
       </c>
       <c r="C44" s="103"/>
       <c r="BE44" s="102" t="s">
@@ -47172,10 +47172,10 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BE45" s="47" t="s">
         <v>150</v>
@@ -47183,10 +47183,10 @@
     </row>
     <row r="46" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C46" s="103"/>
       <c r="BF46" s="102" t="s">
@@ -47195,10 +47195,10 @@
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BF47" s="47" t="s">
         <v>150</v>
@@ -47206,10 +47206,10 @@
     </row>
     <row r="48" spans="1:59" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="104" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="103"/>
       <c r="BG48" s="102" t="s">
@@ -47218,10 +47218,10 @@
     </row>
     <row r="49" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A49" s="130" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" s="100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BH49" s="47" t="s">
         <v>150</v>
@@ -47229,10 +47229,10 @@
     </row>
     <row r="50" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="103"/>
       <c r="BI50" s="102" t="s">
@@ -47241,10 +47241,10 @@
     </row>
     <row r="51" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A51" s="130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" s="100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BJ51" s="47" t="s">
         <v>150</v>
@@ -47252,10 +47252,10 @@
     </row>
     <row r="52" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="103"/>
       <c r="BK52" s="102" t="s">
@@ -47264,10 +47264,10 @@
     </row>
     <row r="53" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A53" s="130" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="100" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BL53" s="47" t="s">
         <v>150</v>
@@ -47275,19 +47275,19 @@
     </row>
     <row r="54" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C54" s="103"/>
     </row>
     <row r="55" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A55" s="130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BN55" s="47" t="s">
         <v>150</v>
@@ -47295,10 +47295,10 @@
     </row>
     <row r="56" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C56" s="103"/>
       <c r="BO56" s="102" t="s">
@@ -47307,13 +47307,13 @@
     </row>
     <row r="57" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A57" s="130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BP57" s="47" t="s">
         <v>150</v>
@@ -47321,10 +47321,10 @@
     </row>
     <row r="58" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="103"/>
       <c r="BQ58" s="102" t="s">
@@ -47333,10 +47333,10 @@
     </row>
     <row r="59" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A59" s="130" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B59" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BR59" s="47" t="s">
         <v>150</v>
@@ -47344,7 +47344,7 @@
     </row>
     <row r="60" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="103"/>
@@ -47354,10 +47354,10 @@
     </row>
     <row r="61" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A61" s="130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B61" s="100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BT61" s="47" t="s">
         <v>150</v>
@@ -47365,10 +47365,10 @@
     </row>
     <row r="62" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="104" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C62" s="103"/>
       <c r="BU62" s="102" t="s">
@@ -47377,10 +47377,10 @@
     </row>
     <row r="63" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" s="100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BV63" s="47" t="s">
         <v>150</v>
@@ -47409,10 +47409,10 @@
     </row>
     <row r="64" spans="1:82" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="103"/>
       <c r="CD64" s="102" t="s">
@@ -47421,10 +47421,10 @@
     </row>
     <row r="65" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A65" s="130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CE65" s="47" t="s">
         <v>150</v>
@@ -47432,10 +47432,10 @@
     </row>
     <row r="66" spans="1:90" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C66" s="103"/>
       <c r="CF66" s="102" t="s">
@@ -47444,10 +47444,10 @@
     </row>
     <row r="67" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A67" s="130" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CG67" s="47" t="s">
         <v>150</v>
@@ -47455,10 +47455,10 @@
     </row>
     <row r="68" spans="1:90" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="103"/>
       <c r="CH68" s="102" t="s">
@@ -47467,10 +47467,10 @@
     </row>
     <row r="69" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A69" s="130" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CI69" s="47" t="s">
         <v>150</v>
@@ -47478,10 +47478,10 @@
     </row>
     <row r="70" spans="1:90" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C70" s="103"/>
       <c r="CJ70" s="102" t="s">
@@ -47490,10 +47490,10 @@
     </row>
     <row r="71" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A71" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B71" s="100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="CK71" s="47" t="s">
         <v>150</v>
@@ -47501,10 +47501,10 @@
     </row>
     <row r="72" spans="1:90" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C72" s="103"/>
       <c r="CL72" s="102" t="s">
@@ -47513,7 +47513,7 @@
     </row>
     <row r="73" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A73" s="130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BM73" s="47" t="s">
         <v>150</v>
@@ -47576,46 +47576,46 @@
   <sheetData>
     <row r="2" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C2" s="145" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E2" s="142" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="142" t="s">
         <v>284</v>
       </c>
-      <c r="F2" s="142" t="s">
-        <v>285</v>
-      </c>
       <c r="G2" s="146" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H2" s="142" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J2" s="130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K2" s="104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L2" s="142" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M2" s="143" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="N2" s="142" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O2" s="130"/>
       <c r="P2" s="121"/>
@@ -47641,10 +47641,10 @@
     </row>
     <row r="3" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="120" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C3" s="126" t="s">
         <v>150</v>
@@ -47686,10 +47686,10 @@
     </row>
     <row r="4" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="126" t="s">
         <v>150</v>
@@ -47731,10 +47731,10 @@
     </row>
     <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="126" t="s">
         <v>150</v>
@@ -47774,10 +47774,10 @@
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="126"/>
       <c r="D6" s="126" t="s">
@@ -47817,10 +47817,10 @@
     </row>
     <row r="7" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="126"/>
       <c r="D7" s="126" t="s">
@@ -47860,10 +47860,10 @@
     </row>
     <row r="8" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="122" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C8" s="126"/>
       <c r="D8" s="126"/>
@@ -47901,10 +47901,10 @@
     </row>
     <row r="9" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -47944,10 +47944,10 @@
     </row>
     <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="126"/>
@@ -47987,10 +47987,10 @@
     </row>
     <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -48030,10 +48030,10 @@
     </row>
     <row r="12" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="130" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B12" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="126"/>
       <c r="D12" s="126"/>
@@ -48073,10 +48073,10 @@
     </row>
     <row r="13" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -48116,10 +48116,10 @@
     </row>
     <row r="14" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -48159,10 +48159,10 @@
     </row>
     <row r="15" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -48208,10 +48208,10 @@
     </row>
     <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="122" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B16" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -48255,10 +48255,10 @@
     </row>
     <row r="17" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="130" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -48302,10 +48302,10 @@
     </row>
     <row r="18" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="130" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B18" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -48349,10 +48349,10 @@
     </row>
     <row r="19" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="130" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -48390,10 +48390,10 @@
     </row>
     <row r="20" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="130" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -48431,10 +48431,10 @@
     </row>
     <row r="21" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -48472,10 +48472,10 @@
     </row>
     <row r="22" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B22" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -48513,10 +48513,10 @@
     </row>
     <row r="23" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B23" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
@@ -48556,10 +48556,10 @@
     </row>
     <row r="24" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="130" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B24" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F24" s="126"/>
       <c r="G24" s="126"/>
@@ -48574,10 +48574,10 @@
     </row>
     <row r="25" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="122" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B25" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F25" s="126"/>
       <c r="G25" s="126"/>
@@ -48593,10 +48593,10 @@
     </row>
     <row r="26" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B26" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N26" s="126" t="s">
         <v>150</v>
@@ -48604,10 +48604,10 @@
     </row>
     <row r="27" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="136" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B27" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F27" s="126"/>
       <c r="G27" s="126"/>
@@ -48622,10 +48622,10 @@
     </row>
     <row r="28" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="122" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B28" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F28" s="126"/>
       <c r="G28" s="126"/>
@@ -48638,10 +48638,10 @@
     </row>
     <row r="29" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="138" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B29" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F29" s="126"/>
       <c r="G29" s="126"/>
@@ -48654,10 +48654,10 @@
     </row>
     <row r="30" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B30" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F30" s="126"/>
       <c r="G30" s="126"/>
@@ -48670,10 +48670,10 @@
     </row>
     <row r="31" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="138" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C31" s="126"/>
       <c r="D31" s="126"/>
@@ -48713,10 +48713,10 @@
     </row>
     <row r="32" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="138" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" s="126"/>
       <c r="D32" s="126"/>
@@ -48756,10 +48756,10 @@
     </row>
     <row r="33" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="126"/>
       <c r="D33" s="126"/>
@@ -48799,10 +48799,10 @@
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="98" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C34" s="126"/>
       <c r="D34" s="126"/>
@@ -48842,10 +48842,10 @@
     </row>
     <row r="35" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B35" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C35" s="126"/>
       <c r="D35" s="126"/>
@@ -48885,10 +48885,10 @@
     </row>
     <row r="36" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" s="126"/>
       <c r="D36" s="126"/>
@@ -48928,10 +48928,10 @@
     </row>
     <row r="37" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="147" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C37" s="126"/>
       <c r="D37" s="126"/>
@@ -48988,8 +48988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49031,7 +49031,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="127" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1" s="37"/>
       <c r="N1" s="135"/>
@@ -49039,117 +49039,117 @@
     </row>
     <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F2" s="130" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G2" s="122" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H2" s="143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J2" s="143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K2" s="142" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L2" s="142" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M2" s="142" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N2" s="143" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O2" s="143" t="s">
+        <v>410</v>
+      </c>
+      <c r="P2" s="142" t="s">
         <v>411</v>
       </c>
-      <c r="P2" s="142" t="s">
+      <c r="Q2" s="142" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" s="142" t="s">
-        <v>413</v>
-      </c>
       <c r="R2" s="143" t="s">
+        <v>405</v>
+      </c>
+      <c r="S2" s="142" t="s">
         <v>406</v>
       </c>
-      <c r="S2" s="142" t="s">
+      <c r="T2" s="142" t="s">
         <v>407</v>
       </c>
-      <c r="T2" s="142" t="s">
+      <c r="U2" s="142" t="s">
+        <v>409</v>
+      </c>
+      <c r="V2" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="U2" s="142" t="s">
-        <v>410</v>
-      </c>
-      <c r="V2" s="142" t="s">
-        <v>409</v>
-      </c>
       <c r="W2" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="X2" s="98" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y2" s="130" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="130" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA2" s="143" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB2" s="142" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC2" s="143" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD2" s="148" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE2" s="148" t="s">
+        <v>422</v>
+      </c>
+      <c r="AF2" s="148" t="s">
+        <v>414</v>
+      </c>
+      <c r="AG2" s="148" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH2" s="148" t="s">
+        <v>416</v>
+      </c>
+      <c r="AI2" s="142" t="s">
         <v>359</v>
       </c>
-      <c r="AA2" s="143" t="s">
-        <v>402</v>
-      </c>
-      <c r="AB2" s="142" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC2" s="143" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD2" s="148" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE2" s="148" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF2" s="148" t="s">
-        <v>415</v>
-      </c>
-      <c r="AG2" s="148" t="s">
-        <v>416</v>
-      </c>
-      <c r="AH2" s="148" t="s">
-        <v>417</v>
-      </c>
-      <c r="AI2" s="142" t="s">
-        <v>360</v>
-      </c>
       <c r="AJ2" s="142" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3" s="125">
         <v>1</v>
@@ -49158,34 +49158,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="125" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N3" s="125">
         <v>1</v>
@@ -49209,34 +49209,34 @@
         <v>1</v>
       </c>
       <c r="U3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="X3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Y3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Z3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AB3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AC3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AD3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AE3" s="125">
         <v>1</v>
@@ -49251,21 +49251,21 @@
         <v>1</v>
       </c>
       <c r="AI3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ3" s="125" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" s="125" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D4" s="125">
         <v>12</v>
@@ -49280,13 +49280,13 @@
         <v>12</v>
       </c>
       <c r="H4" s="125" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I4" s="125" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J4" s="125" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K4" s="125">
         <v>1</v>
@@ -49304,52 +49304,52 @@
         <v>1</v>
       </c>
       <c r="P4" s="125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="125" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R4" s="150">
         <v>1</v>
       </c>
       <c r="S4" s="150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="T4" s="150" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="U4" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V4" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W4" s="125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X4" s="125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Z4" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA4" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AB4" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC4" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AD4" s="125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AE4" s="125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF4" s="125">
         <v>1</v>
@@ -49358,123 +49358,123 @@
         <v>1</v>
       </c>
       <c r="AH4" s="125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI4" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AJ4" s="125" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="121" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B5" s="125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C5" s="125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D5" s="125" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E5" s="125" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F5" s="125" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H5" s="125" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I5" s="125" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J5" s="125" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K5" s="125" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L5" s="125" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M5" s="125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N5" s="125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O5" s="125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P5" s="125" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="125" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R5" s="150" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S5" s="150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T5" s="150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U5" s="125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="V5" s="125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W5" s="125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="X5" s="125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Y5" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Z5" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AA5" s="125" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="AB5" s="125" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="AC5" s="125" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="AD5" s="125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AE5" s="125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF5" s="125" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG5" s="125" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AH5" s="125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AI5" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AJ5" s="125" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">

--- a/module classe projet/ModulePrincipal/References.xlsx
+++ b/module classe projet/ModulePrincipal/References.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6F44478-EA99-444D-B505-A79A17AC1A17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C6A7293-4E02-41A3-B474-D82982FEEF62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7110" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7110" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref activite" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="429">
   <si>
     <t>Hôtel</t>
   </si>
@@ -35772,11 +35772,11 @@
   </sheetPr>
   <dimension ref="A1:EL53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="AP36" sqref="AP36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -39854,9 +39854,7 @@
       <c r="AO24" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AP24" s="48" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP24" s="48"/>
       <c r="AQ24" s="48" t="s">
         <v>150</v>
       </c>
@@ -40088,9 +40086,7 @@
       <c r="AO25" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AP25" s="59" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP25" s="59"/>
       <c r="AQ25" s="59" t="s">
         <v>150</v>
       </c>
@@ -40266,9 +40262,7 @@
       <c r="AO26" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AP26" s="47" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP26" s="47"/>
       <c r="AQ26" s="47" t="s">
         <v>150</v>
       </c>
@@ -40487,9 +40481,7 @@
       <c r="AO27" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="AP27" s="65" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP27" s="65"/>
       <c r="AQ27" s="65" t="s">
         <v>150</v>
       </c>
@@ -41113,9 +41105,7 @@
       <c r="AO31" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AP31" s="48" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP31" s="48"/>
       <c r="AQ31" s="48" t="s">
         <v>150</v>
       </c>
@@ -41306,9 +41296,7 @@
       <c r="AO32" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AP32" s="48" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP32" s="48"/>
       <c r="AQ32" s="48" t="s">
         <v>150</v>
       </c>
@@ -41515,9 +41503,7 @@
       <c r="AO33" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="AP33" s="59" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP33" s="59"/>
       <c r="AQ33" s="59" t="s">
         <v>150</v>
       </c>
@@ -41751,9 +41737,7 @@
       <c r="AO34" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AP34" s="47" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP34" s="47"/>
       <c r="AQ34" s="47" t="s">
         <v>150</v>
       </c>
@@ -42030,9 +42014,7 @@
       <c r="AO35" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="AP35" s="47" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP35" s="47"/>
       <c r="AQ35" s="47" t="s">
         <v>150</v>
       </c>
@@ -42299,9 +42281,7 @@
       <c r="AO36" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AP36" s="51" t="s">
-        <v>150</v>
-      </c>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="51" t="s">
         <v>150</v>
       </c>
@@ -44269,11 +44249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="AF21" sqref="AF21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
